--- a/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/summary_pcc.xlsx
+++ b/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/summary_pcc.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\results_cnn_subnetwork_evaluation\PCC_subnetwork_separate_node_index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PCC_subnetwork_separate_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4906720-7B43-4793-B5F4-CD9515387C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEEE167-444B-45C0-9F96-1FF3EC91BBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcc_Residual_partio" sheetId="9" r:id="rId1"/>
-    <sheet name="pcc_Residual" sheetId="8" r:id="rId2"/>
+    <sheet name="pcc_Residual_partio (2)" sheetId="10" r:id="rId2"/>
+    <sheet name="pcc_Residual" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="25">
   <si>
     <t>sr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,12 +129,20 @@
     <t>MBPE(simple)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>knn_median=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graph laplacian highpass
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +152,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -338,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,7 +416,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -408,33 +455,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -716,2751 +847,3038 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9983BE0-D630-4490-8E48-23B7EF3BF73E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X43"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15" customWidth="1"/>
-    <col min="13" max="14" width="15" customWidth="1"/>
+    <col min="1" max="2" width="15" style="43" customWidth="1"/>
+    <col min="3" max="12" width="9" style="43"/>
+    <col min="13" max="14" width="15" style="43" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="41">
         <v>1</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="41">
         <v>0.75</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="41">
         <v>0.5</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="41">
         <v>0.3</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="41">
         <v>0.2</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="41">
         <v>0.1</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="40">
         <v>0.05</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="M1" s="4" t="s">
+      <c r="K1" s="42"/>
+      <c r="M1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="39">
         <v>1</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="41">
         <v>0.75</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="Q1" s="41">
         <v>0.5</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1" s="41">
         <v>0.3</v>
       </c>
-      <c r="S1" s="5">
+      <c r="S1" s="41">
         <v>0.2</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1" s="41">
         <v>0.1</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="40">
         <v>0.05</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="42" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="8">
+      <c r="B2" s="45"/>
+      <c r="C2" s="42">
         <v>93.101364775358491</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="42">
         <v>91.326663725464783</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="42">
         <v>89.722561037148537</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="42">
         <v>83.857204647099024</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="42">
         <v>76.242949045118635</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="42">
         <v>60.40277741733636</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="46">
         <v>47.740900296138662</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="42">
         <f>C2*(1-1)^2+D2*(1-0.75)^2+E2*(1-0.5)^2+F2*(1-0.3)^2+G2*(1-0.2)^2+H2*(1-0.1)^2+I2*(1-0.05)^2</f>
         <v>210.03648663339072</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2:L3" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43" t="str">
+        <f t="shared" ref="L2:L6" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
         <v xml:space="preserve">    93.1013647753585, 91.3266637254648, 89.7225610371485, 83.857204647099, 76.2429490451186, 60.4027774173364, 47.7409002961387,</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2">
+      <c r="N2" s="45"/>
+      <c r="O2" s="43">
         <v>3.4649270444699574</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="43">
         <v>4.4611797621615326</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="43">
         <v>4.7712065248821434</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="43">
         <v>5.3965689103010375</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="43">
         <v>7.9323757260741923</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="43">
         <v>9.9900413492801565</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="47">
         <v>9.7565309936118432</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="42">
         <f>O2*(1-1)^2+P2*(1-0.75)^2+Q2*(1-0.5)^2+R2*(1-0.3)^2+S2*(1-0.2)^2+T2*(1-0.1)^2+U2*(1-0.05)^2</f>
         <v>26.089867311742239</v>
       </c>
-      <c r="X2" t="str">
-        <f t="shared" ref="X2:X3" si="1">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O2:U2)&amp;","</f>
+      <c r="X2" s="43" t="str">
+        <f t="shared" ref="X2:X6" si="1">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O2:U2)&amp;","</f>
         <v xml:space="preserve">    3.46492704446996, 4.46117976216153, 4.77120652488214, 5.39656891030104, 7.93237572607419, 9.99004134928016, 9.75653099361184,</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="53">
+        <v>92.995175852155583</v>
+      </c>
+      <c r="D3" s="54">
+        <v>92.601977525757164</v>
+      </c>
+      <c r="E3" s="54">
+        <v>91.365703855569691</v>
+      </c>
+      <c r="F3" s="54">
+        <v>85.336787803816065</v>
+      </c>
+      <c r="G3" s="54">
+        <v>79.445367174456536</v>
+      </c>
+      <c r="H3" s="54">
+        <v>66.809493738411803</v>
+      </c>
+      <c r="I3" s="55">
+        <v>59.142645409274017</v>
+      </c>
+      <c r="J3" s="42">
+        <f t="shared" ref="J3:J4" si="2">C3*(1-1)^2+D3*(1-0.75)^2+E3*(1-0.5)^2+F3*(1-0.3)^2+G3*(1-0.2)^2+H3*(1-0.1)^2+I3*(1-0.05)^2</f>
+        <v>228.78103798475766</v>
+      </c>
+      <c r="K3" s="42">
+        <f t="shared" ref="K3:K4" si="3">J3-218</f>
+        <v>10.78103798475766</v>
+      </c>
+      <c r="L3" s="43" t="str">
+        <f t="shared" ref="L3" si="4">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:I3)&amp;","</f>
+        <v xml:space="preserve">    92.9951758521556, 92.6019775257572, 91.3657038555697, 85.3367878038161, 79.4453671744565, 66.8094937384118, 59.142645409274,</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="53">
+        <v>3.928631333331702</v>
+      </c>
+      <c r="P3" s="54">
+        <v>4.0791594857128057</v>
+      </c>
+      <c r="Q3" s="54">
+        <v>4.0107901806670831</v>
+      </c>
+      <c r="R3" s="54">
+        <v>5.2937552874872571</v>
+      </c>
+      <c r="S3" s="54">
+        <v>6.0121265766979706</v>
+      </c>
+      <c r="T3" s="54">
+        <v>9.4926325608664577</v>
+      </c>
+      <c r="U3" s="55">
+        <v>10.653289736002559</v>
+      </c>
+      <c r="V3" s="42">
+        <f t="shared" ref="V3" si="5">O3*(1-1)^2+P3*(1-0.75)^2+Q3*(1-0.5)^2+R3*(1-0.3)^2+S3*(1-0.2)^2+T3*(1-0.1)^2+U3*(1-0.05)^2</f>
+        <v>25.002972474023419</v>
+      </c>
+      <c r="X3" s="43" t="str">
+        <f t="shared" ref="X3" si="6">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O3:U3)&amp;","</f>
+        <v xml:space="preserve">    3.9286313333317, 4.07915948571281, 4.01079018066708, 5.29375528748726, 6.01212657669797, 9.49263256086646, 10.6532897360026,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="80">
+        <v>93.338255521241535</v>
+      </c>
+      <c r="D4" s="81">
+        <v>92.752483441321587</v>
+      </c>
+      <c r="E4" s="81">
+        <v>92.131823516351062</v>
+      </c>
+      <c r="F4" s="81">
+        <v>90.735767610446459</v>
+      </c>
+      <c r="G4" s="81">
+        <v>87.866737601536343</v>
+      </c>
+      <c r="H4" s="81">
+        <v>81.281599898499692</v>
+      </c>
+      <c r="I4" s="82">
+        <v>65.8043841209699</v>
+      </c>
+      <c r="J4" s="42">
+        <f t="shared" si="2"/>
+        <v>254.75177687523248</v>
+      </c>
+      <c r="K4" s="42">
+        <f t="shared" si="3"/>
+        <v>36.75177687523248</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="83">
+        <v>3.5369107439949632</v>
+      </c>
+      <c r="P4" s="84">
+        <v>3.4887992911615942</v>
+      </c>
+      <c r="Q4" s="84">
+        <v>3.1759944837676288</v>
+      </c>
+      <c r="R4" s="84">
+        <v>3.616731062282271</v>
+      </c>
+      <c r="S4" s="84">
+        <v>4.5370725036427793</v>
+      </c>
+      <c r="T4" s="84">
+        <v>6.623616076723664</v>
+      </c>
+      <c r="U4" s="85">
+        <v>8.4830340250231</v>
+      </c>
+      <c r="V4" s="42"/>
+    </row>
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="42"/>
+    </row>
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C6" s="49">
         <v>93.118097907421358</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D6" s="50">
         <v>91.523464735854105</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E6" s="50">
         <v>89.983999284884248</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F6" s="50">
         <v>85.977332560546969</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G6" s="50">
         <v>80.809271706502642</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H6" s="50">
         <v>64.483571080488019</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I6" s="51">
         <v>49.199995963056203</v>
       </c>
-      <c r="J3" s="8">
-        <f t="shared" ref="J3" si="2">C3*(1-1)^2+D3*(1-0.75)^2+E3*(1-0.5)^2+F3*(1-0.3)^2+G3*(1-0.2)^2+H3*(1-0.1)^2+I3*(1-0.05)^2</f>
+      <c r="J6" s="42">
+        <f t="shared" ref="J6" si="7">C6*(1-1)^2+D6*(1-0.75)^2+E6*(1-0.5)^2+F6*(1-0.3)^2+G6*(1-0.2)^2+H6*(1-0.1)^2+I6*(1-0.05)^2</f>
         <v>218.6977321458952</v>
       </c>
-      <c r="K3" s="8">
-        <f t="shared" ref="K3" si="3">J3-218</f>
+      <c r="K6" s="42">
+        <f t="shared" ref="K6" si="8">J6-218</f>
         <v>0.69773214589520194</v>
       </c>
-      <c r="L3" t="str">
+      <c r="L6" s="43" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    93.1180979074214, 91.5234647358541, 89.9839992848842, 85.977332560547, 80.8092717065026, 64.483571080488, 49.1999959630562,</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M6" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O6" s="49">
         <v>3.7095020112708061</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P6" s="50">
         <v>4.1472545580497782</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q6" s="50">
         <v>5.2794593511448591</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R6" s="50">
         <v>4.6638117789428968</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S6" s="50">
         <v>6.2635338476232363</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T6" s="50">
         <v>9.2938511603856284</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U6" s="51">
         <v>8.7638206762757687</v>
       </c>
-      <c r="V3" s="8">
-        <f t="shared" ref="V3" si="4">O3*(1-1)^2+P3*(1-0.75)^2+Q3*(1-0.5)^2+R3*(1-0.3)^2+S3*(1-0.2)^2+T3*(1-0.1)^2+U3*(1-0.05)^2</f>
+      <c r="V6" s="42">
+        <f t="shared" ref="V6" si="9">O6*(1-1)^2+P6*(1-0.75)^2+Q6*(1-0.5)^2+R6*(1-0.3)^2+S6*(1-0.2)^2+T6*(1-0.1)^2+U6*(1-0.05)^2</f>
         <v>23.310365282076457</v>
       </c>
-      <c r="X3" t="str">
+      <c r="X6" s="43" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">    3.70950201127081, 4.14725455804978, 5.27945935114486, 4.6638117789429, 6.26353384762324, 9.29385116038563, 8.76382067627577,</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="M4" s="31" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="M7" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="8"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="42"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C8" s="53">
         <v>93.187876481053763</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D8" s="54">
         <v>92.419943079092363</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E8" s="54">
         <v>91.030305913834312</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F8" s="54">
         <v>87.638062036292141</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G8" s="54">
         <v>81.386496999685718</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H8" s="54">
         <v>61.648901230402799</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I8" s="55">
         <v>50.1996153369262</v>
       </c>
-      <c r="J5" s="8">
-        <f t="shared" ref="J5:J33" si="5">C5*(1-1)^2+D5*(1-0.75)^2+E5*(1-0.5)^2+F5*(1-0.3)^2+G5*(1-0.2)^2+H5*(1-0.1)^2+I5*(1-0.05)^2</f>
+      <c r="J8" s="42">
+        <f t="shared" ref="J8:J39" si="10">C8*(1-1)^2+D8*(1-0.75)^2+E8*(1-0.5)^2+F8*(1-0.3)^2+G8*(1-0.2)^2+H8*(1-0.1)^2+I8*(1-0.05)^2</f>
         <v>218.80459423668603</v>
       </c>
-      <c r="K5" s="8">
-        <f>J5-218</f>
+      <c r="K8" s="42">
+        <f>J8-218</f>
         <v>0.80459423668602881</v>
       </c>
-      <c r="L5" t="str">
-        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C5:I5)&amp;","</f>
+      <c r="L8" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C8:I8)&amp;","</f>
         <v xml:space="preserve">    93.1878764810538, 92.4199430790924, 91.0303059138343, 87.6380620362921, 81.3864969996857, 61.6489012304028, 50.1996153369262,</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M8" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="16">
+      <c r="N8" s="58"/>
+      <c r="O8" s="53">
         <v>3.6629641008104143</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P8" s="54">
         <v>4.0854882292556409</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q8" s="54">
         <v>4.1120388115098363</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R8" s="54">
         <v>5.4598108584907283</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S8" s="54">
         <v>7.5605060738981908</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T8" s="54">
         <v>10.604590630198228</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U8" s="55">
         <v>8.9515611008684157</v>
       </c>
-      <c r="V5" s="8">
-        <f t="shared" ref="V5:V33" si="6">O5*(1-1)^2+P5*(1-0.75)^2+Q5*(1-0.5)^2+R5*(1-0.3)^2+S5*(1-0.2)^2+T5*(1-0.1)^2+U5*(1-0.05)^2</f>
+      <c r="V8" s="42">
+        <f t="shared" ref="V8:V39" si="11">O8*(1-1)^2+P8*(1-0.75)^2+Q8*(1-0.5)^2+R8*(1-0.3)^2+S8*(1-0.2)^2+T8*(1-0.1)^2+U8*(1-0.05)^2</f>
         <v>25.465886229155544</v>
       </c>
-      <c r="X5" t="str">
-        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O5:U5)&amp;","</f>
+      <c r="X8" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O8:U8)&amp;","</f>
         <v xml:space="preserve">    3.66296410081041, 4.08548822925564, 4.11203881150984, 5.45981085849073, 7.56050607389819, 10.6045906301982, 8.95156110086842,</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="1" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C9" s="62">
         <v>93.308803132668416</v>
       </c>
-      <c r="D6">
+      <c r="D9" s="43">
         <v>92.32654838421324</v>
       </c>
-      <c r="E6">
+      <c r="E9" s="43">
         <v>90.944131581299729</v>
       </c>
-      <c r="F6">
+      <c r="F9" s="43">
         <v>88.444112838346342</v>
       </c>
-      <c r="G6">
+      <c r="G9" s="43">
         <v>81.14231668670719</v>
       </c>
-      <c r="H6">
+      <c r="H9" s="43">
         <v>62.606790139476402</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I9" s="47">
         <v>47.764790352857723</v>
       </c>
-      <c r="J6" s="8">
-        <f t="shared" si="5"/>
+      <c r="J9" s="42">
+        <f t="shared" si="10"/>
         <v>217.59436344605055</v>
       </c>
-      <c r="K6" s="8">
-        <f t="shared" ref="K6:K11" si="7">J6-218</f>
+      <c r="K9" s="42">
+        <f t="shared" ref="K9:K14" si="12">J9-218</f>
         <v>-0.40563655394944931</v>
       </c>
-      <c r="L6" t="str">
-        <f t="shared" ref="L6:L13" si="8">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C6:I6)&amp;","</f>
+      <c r="L9" s="43" t="str">
+        <f t="shared" ref="L9:L16" si="13">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:I9)&amp;","</f>
         <v xml:space="preserve">    93.3088031326684, 92.3265483842132, 90.9441315812997, 88.4441128383463, 81.1423166867072, 62.6067901394764, 47.7647903528577,</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M9" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="17">
+      <c r="N9" s="64"/>
+      <c r="O9" s="62">
         <v>3.8099284628268744</v>
       </c>
-      <c r="P6">
+      <c r="P9" s="43">
         <v>4.3923869286198984</v>
       </c>
-      <c r="Q6">
+      <c r="Q9" s="43">
         <v>4.3803548174400602</v>
       </c>
-      <c r="R6">
+      <c r="R9" s="43">
         <v>5.4605577308245961</v>
       </c>
-      <c r="S6">
+      <c r="S9" s="43">
         <v>8.0077218140585149</v>
       </c>
-      <c r="T6">
+      <c r="T9" s="43">
         <v>10.235120772896638</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U9" s="47">
         <v>8.5650148358917502</v>
       </c>
-      <c r="V6" s="8">
-        <f t="shared" si="6"/>
+      <c r="V9" s="42">
+        <f t="shared" si="11"/>
         <v>25.190601851938844</v>
       </c>
-      <c r="X6" t="str">
-        <f t="shared" ref="X6:X13" si="9">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O6:U6)&amp;","</f>
+      <c r="X9" s="43" t="str">
+        <f t="shared" ref="X9:X16" si="14">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O9:U9)&amp;","</f>
         <v xml:space="preserve">    3.80992846282687, 4.3923869286199, 4.38035481744006, 5.4605577308246, 8.00772181405851, 10.2351207728966, 8.56501483589175,</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="1" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="60"/>
+      <c r="B10" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C10" s="62">
         <v>93.311706848675158</v>
       </c>
-      <c r="D7">
+      <c r="D10" s="43">
         <v>92.970564912614591</v>
       </c>
-      <c r="E7">
+      <c r="E10" s="43">
         <v>92.714911028642135</v>
       </c>
-      <c r="F7">
+      <c r="F10" s="43">
         <v>91.618528995348854</v>
       </c>
-      <c r="G7">
+      <c r="G10" s="43">
         <v>84.537879508761606</v>
       </c>
-      <c r="H7">
+      <c r="H10" s="43">
         <v>58.728483810413593</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I10" s="47">
         <v>46.321297473738248</v>
       </c>
-      <c r="J7" s="8">
-        <f t="shared" si="5"/>
+      <c r="J10" s="42">
+        <f t="shared" si="10"/>
         <v>217.3617530140111</v>
       </c>
-      <c r="K7" s="8">
-        <f t="shared" si="7"/>
+      <c r="K10" s="42">
+        <f t="shared" si="12"/>
         <v>-0.63824698598889995</v>
       </c>
-      <c r="L7" t="str">
-        <f t="shared" si="8"/>
+      <c r="L10" s="43" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">    93.3117068486752, 92.9705649126146, 92.7149110286421, 91.6185289953489, 84.5378795087616, 58.7284838104136, 46.3212974737382,</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M10" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="17">
+      <c r="N10" s="64"/>
+      <c r="O10" s="62">
         <v>3.6854249541106205</v>
       </c>
-      <c r="P7">
+      <c r="P10" s="43">
         <v>3.5652997191661031</v>
       </c>
-      <c r="Q7">
+      <c r="Q10" s="43">
         <v>3.9267489059362291</v>
       </c>
-      <c r="R7">
+      <c r="R10" s="43">
         <v>4.1607335839464268</v>
       </c>
-      <c r="S7">
+      <c r="S10" s="43">
         <v>6.7329594829893642</v>
       </c>
-      <c r="T7">
+      <c r="T10" s="43">
         <v>10.377592524298565</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U10" s="47">
         <v>7.8998713561129659</v>
       </c>
-      <c r="V7" s="8">
-        <f t="shared" si="6"/>
+      <c r="V10" s="42">
+        <f t="shared" si="11"/>
         <v>23.087855827752669</v>
       </c>
-      <c r="X7" t="str">
-        <f t="shared" si="9"/>
+      <c r="X10" s="43" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    3.68542495411062, 3.5652997191661, 3.92674890593623, 4.16073358394643, 6.73295948298936, 10.3775925242986, 7.89987135611297,</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="1" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="60"/>
+      <c r="B11" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C11" s="62">
         <v>93.259627390086976</v>
       </c>
-      <c r="D8">
+      <c r="D11" s="43">
         <v>92.96466520759985</v>
       </c>
-      <c r="E8">
+      <c r="E11" s="43">
         <v>92.449568479542776</v>
       </c>
-      <c r="F8">
+      <c r="F11" s="43">
         <v>90.955452325135454</v>
       </c>
-      <c r="G8">
+      <c r="G11" s="43">
         <v>84.191627955259108</v>
       </c>
-      <c r="H8">
+      <c r="H11" s="43">
         <v>61.887989227127122</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I11" s="47">
         <v>46.872291282796567</v>
       </c>
-      <c r="J8" s="8">
-        <f t="shared" si="5"/>
+      <c r="J11" s="42">
+        <f t="shared" si="10"/>
         <v>219.80501138273976</v>
       </c>
-      <c r="K8" s="8">
-        <f t="shared" si="7"/>
+      <c r="K11" s="42">
+        <f t="shared" si="12"/>
         <v>1.8050113827397638</v>
       </c>
-      <c r="L8" t="str">
-        <f t="shared" si="8"/>
+      <c r="L11" s="43" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">    93.259627390087, 92.9646652075999, 92.4495684795428, 90.9554523251355, 84.1916279552591, 61.8879892271271, 46.8722912827966,</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M11" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="17">
+      <c r="N11" s="64"/>
+      <c r="O11" s="62">
         <v>3.3697427990054161</v>
       </c>
-      <c r="P8">
+      <c r="P11" s="43">
         <v>3.5456273836698302</v>
       </c>
-      <c r="Q8">
+      <c r="Q11" s="43">
         <v>3.8389563711719141</v>
       </c>
-      <c r="R8">
+      <c r="R11" s="43">
         <v>4.3734364854011272</v>
       </c>
-      <c r="S8">
+      <c r="S11" s="43">
         <v>7.1466759991199762</v>
       </c>
-      <c r="T8">
+      <c r="T11" s="43">
         <v>10.218201810253335</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U11" s="47">
         <v>6.8495020521328724</v>
       </c>
-      <c r="V8" s="8">
-        <f t="shared" si="6"/>
+      <c r="V11" s="42">
+        <f t="shared" si="11"/>
         <v>22.356616389910801</v>
       </c>
-      <c r="X8" t="str">
-        <f t="shared" si="9"/>
+      <c r="X11" s="43" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    3.36974279900542, 3.54562738366983, 3.83895637117191, 4.37343648540113, 7.14667599911998, 10.2182018102533, 6.84950205213287,</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="1" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="60"/>
+      <c r="B12" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C12" s="62">
         <v>93.593909405214006</v>
       </c>
-      <c r="D9">
+      <c r="D12" s="43">
         <v>93.284284466128582</v>
       </c>
-      <c r="E9">
+      <c r="E12" s="43">
         <v>92.669714559237818</v>
       </c>
-      <c r="F9">
+      <c r="F12" s="43">
         <v>89.612317868955046</v>
       </c>
-      <c r="G9">
+      <c r="G12" s="43">
         <v>84.325126803288398</v>
       </c>
-      <c r="H9">
+      <c r="H12" s="43">
         <v>63.609272859915158</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I12" s="47">
         <v>49.422076892245308</v>
       </c>
-      <c r="J9" s="8">
-        <f t="shared" si="5"/>
+      <c r="J12" s="42">
+        <f t="shared" si="10"/>
         <v>223.0027487406177</v>
       </c>
-      <c r="K9" s="8">
-        <f t="shared" si="7"/>
+      <c r="K12" s="42">
+        <f t="shared" si="12"/>
         <v>5.0027487406177045</v>
       </c>
-      <c r="L9" t="str">
-        <f t="shared" si="8"/>
+      <c r="L12" s="43" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">    93.593909405214, 93.2842844661286, 92.6697145592378, 89.612317868955, 84.3251268032884, 63.6092728599152, 49.4220768922453,</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M12" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="17">
+      <c r="N12" s="64"/>
+      <c r="O12" s="62">
         <v>3.5074053242674119</v>
       </c>
-      <c r="P9">
+      <c r="P12" s="43">
         <v>3.9399538658766482</v>
       </c>
-      <c r="Q9">
+      <c r="Q12" s="43">
         <v>4.159993860751583</v>
       </c>
-      <c r="R9">
+      <c r="R12" s="43">
         <v>5.1168143294470738</v>
       </c>
-      <c r="S9">
+      <c r="S12" s="43">
         <v>6.5623946230239643</v>
       </c>
-      <c r="T9">
+      <c r="T12" s="43">
         <v>11.499157764357163</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U12" s="47">
         <v>10.586918286592827</v>
       </c>
-      <c r="V9" s="8">
-        <f t="shared" si="6"/>
+      <c r="V12" s="42">
+        <f t="shared" si="11"/>
         <v>26.862428704748922</v>
       </c>
-      <c r="X9" t="str">
-        <f t="shared" si="9"/>
+      <c r="X12" s="43" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    3.50740532426741, 3.93995386587665, 4.15999386075158, 5.11681432944707, 6.56239462302396, 11.4991577643572, 10.5869182865928,</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="1" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="60"/>
+      <c r="B13" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C13" s="62">
         <v>93.271403731866201</v>
       </c>
-      <c r="D10">
+      <c r="D13" s="43">
         <v>93.159332404836263</v>
       </c>
-      <c r="E10">
+      <c r="E13" s="43">
         <v>92.607934901397655</v>
       </c>
-      <c r="F10">
+      <c r="F13" s="43">
         <v>91.395767552775823</v>
       </c>
-      <c r="G10">
+      <c r="G13" s="43">
         <v>86.100098905123176</v>
       </c>
-      <c r="H10">
+      <c r="H13" s="43">
         <v>60.13909866579008</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I13" s="47">
         <v>45.242222395234101</v>
       </c>
-      <c r="J10" s="8">
-        <f t="shared" si="5"/>
+      <c r="J13" s="42">
+        <f t="shared" si="10"/>
         <v>218.40620703177942</v>
       </c>
-      <c r="K10" s="8">
-        <f t="shared" si="7"/>
+      <c r="K13" s="42">
+        <f t="shared" si="12"/>
         <v>0.40620703177941664</v>
       </c>
-      <c r="L10" t="str">
-        <f t="shared" si="8"/>
+      <c r="L13" s="43" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">    93.2714037318662, 93.1593324048363, 92.6079349013977, 91.3957675527758, 86.1000989051232, 60.1390986657901, 45.2422223952341,</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M13" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="28"/>
-      <c r="O10" s="17">
+      <c r="N13" s="64"/>
+      <c r="O13" s="62">
         <v>3.311889145333164</v>
       </c>
-      <c r="P10">
+      <c r="P13" s="43">
         <v>3.5622318729197451</v>
       </c>
-      <c r="Q10">
+      <c r="Q13" s="43">
         <v>3.7249656002914562</v>
       </c>
-      <c r="R10">
+      <c r="R13" s="43">
         <v>4.592478163076521</v>
       </c>
-      <c r="S10">
+      <c r="S13" s="43">
         <v>5.9203738735922764</v>
       </c>
-      <c r="T10">
+      <c r="T13" s="43">
         <v>9.725428258600461</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U13" s="47">
         <v>7.8411073439630128</v>
       </c>
-      <c r="V10" s="8">
-        <f t="shared" si="6"/>
+      <c r="V13" s="42">
+        <f t="shared" si="11"/>
         <v>22.147430738529895</v>
       </c>
-      <c r="X10" t="str">
-        <f t="shared" si="9"/>
+      <c r="X13" s="43" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    3.31188914533316, 3.56223187291975, 3.72496560029146, 4.59247816307652, 5.92037387359228, 9.72542825860046, 7.84110734396301,</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="3" t="s">
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="65"/>
+      <c r="B14" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C14" s="67">
         <v>93.614587208078504</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D14" s="68">
         <v>92.683728521296331</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E14" s="68">
         <v>92.067301620256245</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F14" s="68">
         <v>89.309630706147985</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G14" s="68">
         <v>84.609852449704022</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H14" s="68">
         <v>64.470915261666036</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I14" s="69">
         <v>50.663073786682133</v>
       </c>
-      <c r="J11" s="8">
-        <f t="shared" si="5"/>
+      <c r="J14" s="42">
+        <f t="shared" si="10"/>
         <v>224.6664485058983</v>
       </c>
-      <c r="K11" s="8">
-        <f t="shared" si="7"/>
+      <c r="K14" s="42">
+        <f t="shared" si="12"/>
         <v>6.6664485058983018</v>
       </c>
-      <c r="L11" t="str">
-        <f t="shared" si="8"/>
+      <c r="L14" s="43" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">    93.6145872080785, 92.6837285212963, 92.0673016202562, 89.309630706148, 84.609852449704, 64.470915261666, 50.6630737866821,</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="M14" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="30"/>
-      <c r="O11" s="18">
+      <c r="N14" s="45"/>
+      <c r="O14" s="67">
         <v>3.5679190940153709</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P14" s="68">
         <v>5.0380655017886244</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q14" s="68">
         <v>4.1912600383848426</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R14" s="68">
         <v>5.0446554677555504</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S14" s="68">
         <v>6.8308155253380578</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T14" s="68">
         <v>11.985648803016417</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U14" s="69">
         <v>9.3215519312796236</v>
       </c>
-      <c r="V11" s="8">
-        <f t="shared" si="6"/>
+      <c r="V14" s="42">
+        <f t="shared" si="11"/>
         <v>26.327373367297731</v>
       </c>
-      <c r="X11" t="str">
-        <f t="shared" si="9"/>
+      <c r="X14" s="43" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    3.56791909401537, 5.03806550178862, 4.19126003838484, 5.04465546775555, 6.83081552533806, 11.9856488030164, 9.32155193127962,</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="8"/>
-    </row>
-    <row r="13" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="42"/>
+    </row>
+    <row r="16" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B16" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C16" s="49">
         <v>93.365954722791713</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D16" s="50">
         <v>92.953929820615514</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E16" s="50">
         <v>92.363177882161622</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F16" s="50">
         <v>90.139831082737146</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G16" s="50">
         <v>85.704671609039309</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H16" s="50">
         <v>70.630570622006516</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I16" s="51">
         <v>51.370542421070539</v>
       </c>
-      <c r="J13" s="8">
-        <f t="shared" ref="J13" si="10">C13*(1-1)^2+D13*(1-0.75)^2+E13*(1-0.5)^2+F13*(1-0.3)^2+G13*(1-0.2)^2+H13*(1-0.1)^2+I13*(1-0.05)^2</f>
+      <c r="J16" s="42">
+        <f t="shared" ref="J16" si="15">C16*(1-1)^2+D16*(1-0.75)^2+E16*(1-0.5)^2+F16*(1-0.3)^2+G16*(1-0.2)^2+H16*(1-0.1)^2+I16*(1-0.05)^2</f>
         <v>231.49259888349667</v>
       </c>
-      <c r="K13" s="8">
-        <f t="shared" ref="K13" si="11">J13-231</f>
+      <c r="K16" s="42">
+        <f t="shared" ref="K16" si="16">J16-231</f>
         <v>0.4925988834966688</v>
       </c>
-      <c r="L13" t="str">
-        <f t="shared" si="8"/>
+      <c r="L16" s="43" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">    93.3659547227917, 92.9539298206155, 92.3631778821616, 90.1398310827371, 85.7046716090393, 70.6305706220065, 51.3705424210705,</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M16" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="N16" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O16" s="67">
         <v>3.6675181053903749</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P16" s="68">
         <v>3.953165926503563</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q16" s="68">
         <v>4.1014418287709162</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R16" s="68">
         <v>4.4748820350339917</v>
       </c>
-      <c r="S13" s="10">
+      <c r="S16" s="68">
         <v>5.9464430898845917</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T16" s="68">
         <v>9.9254293554512856</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U16" s="69">
         <v>9.3127481496540874</v>
       </c>
-      <c r="V13" s="8">
-        <f t="shared" ref="V13" si="12">O13*(1-1)^2+P13*(1-0.75)^2+Q13*(1-0.5)^2+R13*(1-0.3)^2+S13*(1-0.2)^2+T13*(1-0.1)^2+U13*(1-0.05)^2</f>
+      <c r="V16" s="42">
+        <f t="shared" ref="V16" si="17">O16*(1-1)^2+P16*(1-0.75)^2+Q16*(1-0.5)^2+R16*(1-0.3)^2+S16*(1-0.2)^2+T16*(1-0.1)^2+U16*(1-0.05)^2</f>
         <v>23.715202085270352</v>
       </c>
-      <c r="X13" t="str">
-        <f t="shared" si="9"/>
+      <c r="X16" s="43" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    3.66751810539037, 3.95316592650356, 4.10144182877092, 4.47488203503399, 5.94644308988459, 9.92542935545129, 9.31274814965409,</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="M14" s="31" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="M17" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="8"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="42"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B18" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C18" s="54">
         <v>92.79746076234801</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D18" s="54">
         <v>92.09972981311833</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E18" s="54">
         <v>91.994123363235545</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F18" s="54">
         <v>89.541535826434497</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G18" s="54">
         <v>81.67196083011099</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H18" s="54">
         <v>63.762388371295017</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I18" s="55">
         <v>48.357978875249778</v>
       </c>
-      <c r="J15" s="8">
-        <f t="shared" si="5"/>
+      <c r="J18" s="42">
+        <f t="shared" si="10"/>
         <v>220.19078195601463</v>
       </c>
-      <c r="K15" s="8">
-        <f>J15-231</f>
+      <c r="K18" s="42">
+        <f>J18-231</f>
         <v>-10.809218043985368</v>
       </c>
-      <c r="L15" t="str">
-        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C15:I15)&amp;","</f>
+      <c r="L18" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C18:I18)&amp;","</f>
         <v xml:space="preserve">    92.797460762348, 92.0997298131183, 91.9941233632355, 89.5415358264345, 81.671960830111, 63.762388371295, 48.3579788752498,</v>
       </c>
-      <c r="M15" s="34" t="s">
+      <c r="M18" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N18" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O18" s="54">
         <v>3.5644328509299981</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P18" s="54">
         <v>4.2050438921565183</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q18" s="54">
         <v>3.8992827190949368</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R18" s="54">
         <v>4.4855441585972624</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S18" s="54">
         <v>6.3300685901903293</v>
       </c>
-      <c r="T15" s="12">
+      <c r="T18" s="54">
         <v>9.4934523864393956</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U18" s="55">
         <v>7.6336882851862198</v>
       </c>
-      <c r="V15" s="8">
-        <f t="shared" si="6"/>
+      <c r="V18" s="42">
+        <f t="shared" si="11"/>
         <v>22.06589656886446</v>
       </c>
-      <c r="X15" t="str">
-        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O15:U15)&amp;","</f>
+      <c r="X18" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O18:U18)&amp;","</f>
         <v xml:space="preserve">    3.56443285093, 4.20504389215652, 3.89928271909494, 4.48554415859726, 6.33006859019033, 9.4934523864394, 7.63368828518622,</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="21" t="s">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="60"/>
+      <c r="B19" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C16">
+      <c r="C19" s="43">
         <v>92.97743636767332</v>
       </c>
-      <c r="D16">
+      <c r="D19" s="43">
         <v>92.087691069991962</v>
       </c>
-      <c r="E16">
+      <c r="E19" s="43">
         <v>91.488331790644082</v>
       </c>
-      <c r="F16">
+      <c r="F19" s="43">
         <v>87.81749842126662</v>
       </c>
-      <c r="G16">
+      <c r="G19" s="43">
         <v>80.833879762512382</v>
       </c>
-      <c r="H16">
+      <c r="H19" s="43">
         <v>68.633586795733521</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I19" s="47">
         <v>51.679287883113183</v>
       </c>
-      <c r="J16" s="8">
-        <f t="shared" si="5"/>
+      <c r="J19" s="42">
+        <f t="shared" si="10"/>
         <v>225.62558353301787</v>
       </c>
-      <c r="K16" s="8">
-        <f t="shared" ref="K16:K21" si="13">J16-231</f>
+      <c r="K19" s="42">
+        <f t="shared" ref="K19:K24" si="18">J19-231</f>
         <v>-5.3744164669821259</v>
       </c>
-      <c r="L16" t="str">
-        <f t="shared" ref="L16:L21" si="14">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C16:I16)&amp;","</f>
+      <c r="L19" s="43" t="str">
+        <f t="shared" ref="L19:L24" si="19">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C19:I19)&amp;","</f>
         <v xml:space="preserve">    92.9774363676733, 92.087691069992, 91.4883317906441, 87.8174984212666, 80.8338797625124, 68.6335867957335, 51.6792878831132,</v>
       </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="21" t="s">
+      <c r="M19" s="60"/>
+      <c r="N19" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O16">
+      <c r="O19" s="43">
         <v>3.7639591510057691</v>
       </c>
-      <c r="P16">
+      <c r="P19" s="43">
         <v>4.104491980795232</v>
       </c>
-      <c r="Q16">
+      <c r="Q19" s="43">
         <v>3.870871676227456</v>
       </c>
-      <c r="R16">
+      <c r="R19" s="43">
         <v>4.5942331539360346</v>
       </c>
-      <c r="S16">
+      <c r="S19" s="43">
         <v>6.091605017041668</v>
       </c>
-      <c r="T16">
+      <c r="T19" s="43">
         <v>7.8884246682162882</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U19" s="47">
         <v>9.5582419416123336</v>
       </c>
-      <c r="V16" s="8">
-        <f t="shared" si="6"/>
+      <c r="V19" s="42">
+        <f t="shared" si="11"/>
         <v>22.389987457752213</v>
       </c>
-      <c r="X16" t="str">
-        <f t="shared" ref="X16:X21" si="15">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O16:U16)&amp;","</f>
+      <c r="X19" s="43" t="str">
+        <f t="shared" ref="X19:X24" si="20">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O19:U19)&amp;","</f>
         <v xml:space="preserve">    3.76395915100577, 4.10449198079523, 3.87087167622746, 4.59423315393603, 6.09160501704167, 7.88842466821629, 9.55824194161233,</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="21" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="60"/>
+      <c r="B20" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C17">
+      <c r="C20" s="43">
         <v>92.962718823980623</v>
       </c>
-      <c r="D17">
+      <c r="D20" s="43">
         <v>92.579235114490601</v>
       </c>
-      <c r="E17">
+      <c r="E20" s="43">
         <v>91.736531746237702</v>
       </c>
-      <c r="F17">
+      <c r="F20" s="43">
         <v>90.831074086569373</v>
       </c>
-      <c r="G17">
+      <c r="G20" s="43">
         <v>86.960486970763881</v>
       </c>
-      <c r="H17">
+      <c r="H20" s="43">
         <v>69.958056153888293</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I20" s="47">
         <v>54.800733570359597</v>
       </c>
-      <c r="J17" s="8">
-        <f t="shared" si="5"/>
+      <c r="J20" s="42">
+        <f t="shared" si="10"/>
         <v>235.005960626822</v>
       </c>
-      <c r="K17" s="8">
-        <f t="shared" si="13"/>
+      <c r="K20" s="42">
+        <f t="shared" si="18"/>
         <v>4.0059606268220023</v>
       </c>
-      <c r="L17" t="str">
-        <f t="shared" si="14"/>
+      <c r="L20" s="43" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">    92.9627188239806, 92.5792351144906, 91.7365317462377, 90.8310740865694, 86.9604869707639, 69.9580561538883, 54.8007335703596,</v>
       </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="21" t="s">
+      <c r="M20" s="60"/>
+      <c r="N20" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="O17">
+      <c r="O20" s="43">
         <v>3.553358547509589</v>
       </c>
-      <c r="P17">
+      <c r="P20" s="43">
         <v>3.662068131482219</v>
       </c>
-      <c r="Q17">
+      <c r="Q20" s="43">
         <v>4.032821683747013</v>
       </c>
-      <c r="R17">
+      <c r="R20" s="43">
         <v>3.6348682459522301</v>
       </c>
-      <c r="S17">
+      <c r="S20" s="43">
         <v>5.3451431508529517</v>
       </c>
-      <c r="T17">
+      <c r="T20" s="43">
         <v>8.3081066836923902</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U20" s="47">
         <v>7.8130971653945478</v>
       </c>
-      <c r="V17" s="8">
-        <f t="shared" si="6"/>
+      <c r="V20" s="42">
+        <f t="shared" si="11"/>
         <v>20.219948341776291</v>
       </c>
-      <c r="X17" t="str">
-        <f t="shared" si="15"/>
+      <c r="X20" s="43" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    3.55335854750959, 3.66206813148222, 4.03282168374701, 3.63486824595223, 5.34514315085295, 8.30810668369239, 7.81309716539455,</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="21" t="s">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="60"/>
+      <c r="B21" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C18">
+      <c r="C21" s="43">
         <v>91.673641928851779</v>
       </c>
-      <c r="D18">
+      <c r="D21" s="43">
         <v>91.867395046669955</v>
       </c>
-      <c r="E18">
+      <c r="E21" s="43">
         <v>91.50381635365936</v>
       </c>
-      <c r="F18">
+      <c r="F21" s="43">
         <v>91.379175713746079</v>
       </c>
-      <c r="G18">
+      <c r="G21" s="43">
         <v>88.831829571766775</v>
       </c>
-      <c r="H18">
+      <c r="H21" s="43">
         <v>70.023970795595105</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I21" s="47">
         <v>56.420684146633327</v>
       </c>
-      <c r="J18" s="8">
-        <f t="shared" si="5"/>
+      <c r="J21" s="42">
+        <f t="shared" si="10"/>
         <v>237.88491709126663</v>
       </c>
-      <c r="K18" s="8">
-        <f t="shared" si="13"/>
+      <c r="K21" s="42">
+        <f t="shared" si="18"/>
         <v>6.8849170912666295</v>
       </c>
-      <c r="L18" t="str">
-        <f t="shared" si="14"/>
+      <c r="L21" s="43" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">    91.6736419288518, 91.86739504667, 91.5038163536594, 91.3791757137461, 88.8318295717668, 70.0239707955951, 56.4206841466333,</v>
       </c>
-      <c r="M18" s="35"/>
-      <c r="N18" s="21" t="s">
+      <c r="M21" s="60"/>
+      <c r="N21" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O18">
+      <c r="O21" s="43">
         <v>4.0996055394193416</v>
       </c>
-      <c r="P18">
+      <c r="P21" s="43">
         <v>3.9363678196477259</v>
       </c>
-      <c r="Q18">
+      <c r="Q21" s="43">
         <v>4.4775085930829679</v>
       </c>
-      <c r="R18">
+      <c r="R21" s="43">
         <v>4.3467311762055054</v>
       </c>
-      <c r="S18">
+      <c r="S21" s="43">
         <v>5.4186476543956417</v>
       </c>
-      <c r="T18">
+      <c r="T21" s="43">
         <v>8.3279626177723625</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U21" s="47">
         <v>12.764011594024289</v>
       </c>
-      <c r="V18" s="8">
-        <f t="shared" si="6"/>
+      <c r="V21" s="42">
+        <f t="shared" si="11"/>
         <v>25.228403096155169</v>
       </c>
-      <c r="X18" t="str">
-        <f t="shared" si="15"/>
+      <c r="X21" s="43" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    4.09960553941934, 3.93636781964773, 4.47750859308297, 4.34673117620551, 5.41864765439564, 8.32796261777236, 12.7640115940243,</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="21" t="s">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="60"/>
+      <c r="B22" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
+      <c r="C22" s="43">
         <v>92.522198865618762</v>
       </c>
-      <c r="D19">
+      <c r="D22" s="43">
         <v>92.258701776543617</v>
       </c>
-      <c r="E19">
+      <c r="E22" s="43">
         <v>91.286063604933133</v>
       </c>
-      <c r="F19">
+      <c r="F22" s="43">
         <v>87.347272323578352</v>
       </c>
-      <c r="G19">
+      <c r="G22" s="43">
         <v>80.924079504724673</v>
       </c>
-      <c r="H19">
+      <c r="H22" s="43">
         <v>68.770987061595122</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I22" s="47">
         <v>53.587911660135468</v>
       </c>
-      <c r="J19" s="8">
-        <f t="shared" si="5"/>
+      <c r="J22" s="42">
+        <f t="shared" si="10"/>
         <v>227.24684887700877</v>
       </c>
-      <c r="K19" s="8">
-        <f t="shared" si="13"/>
+      <c r="K22" s="42">
+        <f t="shared" si="18"/>
         <v>-3.7531511229912269</v>
       </c>
-      <c r="L19" t="str">
-        <f t="shared" si="14"/>
+      <c r="L22" s="43" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">    92.5221988656188, 92.2587017765436, 91.2860636049331, 87.3472723235784, 80.9240795047247, 68.7709870615951, 53.5879116601355,</v>
       </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="21" t="s">
+      <c r="M22" s="60"/>
+      <c r="N22" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="O19">
+      <c r="O22" s="43">
         <v>4.1122508316799324</v>
       </c>
-      <c r="P19">
+      <c r="P22" s="43">
         <v>3.9130111858628869</v>
       </c>
-      <c r="Q19">
+      <c r="Q22" s="43">
         <v>4.1402320670424677</v>
       </c>
-      <c r="R19">
+      <c r="R22" s="43">
         <v>4.9319868448576356</v>
       </c>
-      <c r="S19">
+      <c r="S22" s="43">
         <v>5.4027181636296984</v>
       </c>
-      <c r="T19">
+      <c r="T22" s="43">
         <v>7.5963973372628857</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U22" s="47">
         <v>8.757832692110993</v>
       </c>
-      <c r="V19" s="8">
-        <f t="shared" si="6"/>
+      <c r="V22" s="42">
+        <f t="shared" si="11"/>
         <v>21.211060242393408</v>
       </c>
-      <c r="X19" t="str">
-        <f t="shared" si="15"/>
+      <c r="X22" s="43" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    4.11225083167993, 3.91301118586289, 4.14023206704247, 4.93198684485764, 5.4027181636297, 7.59639733726289, 8.75783269211099,</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="21" t="s">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="60"/>
+      <c r="B23" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C20">
+      <c r="C23" s="43">
         <v>92.90466180503293</v>
       </c>
-      <c r="D20">
+      <c r="D23" s="43">
         <v>92.576285261983244</v>
       </c>
-      <c r="E20">
+      <c r="E23" s="43">
         <v>92.469101520486021</v>
       </c>
-      <c r="F20">
+      <c r="F23" s="43">
         <v>90.667136682266573</v>
       </c>
-      <c r="G20">
+      <c r="G23" s="43">
         <v>86.385868389864967</v>
       </c>
-      <c r="H20">
+      <c r="H23" s="43">
         <v>70.341681156411397</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I23" s="47">
         <v>54.346721569102392</v>
       </c>
-      <c r="J20" s="8">
-        <f t="shared" si="5"/>
+      <c r="J23" s="42">
+        <f t="shared" si="10"/>
         <v>234.6418239056278</v>
       </c>
-      <c r="K20" s="8">
-        <f t="shared" si="13"/>
+      <c r="K23" s="42">
+        <f t="shared" si="18"/>
         <v>3.6418239056278026</v>
       </c>
-      <c r="L20" t="str">
-        <f t="shared" si="14"/>
+      <c r="L23" s="43" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">    92.9046618050329, 92.5762852619832, 92.469101520486, 90.6671366822666, 86.385868389865, 70.3416811564114, 54.3467215691024,</v>
       </c>
-      <c r="M20" s="35"/>
-      <c r="N20" s="21" t="s">
+      <c r="M23" s="60"/>
+      <c r="N23" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="O20">
+      <c r="O23" s="43">
         <v>3.576588513898638</v>
       </c>
-      <c r="P20">
+      <c r="P23" s="43">
         <v>3.6384489067435961</v>
       </c>
-      <c r="Q20">
+      <c r="Q23" s="43">
         <v>3.4880286605455821</v>
       </c>
-      <c r="R20">
+      <c r="R23" s="43">
         <v>3.9701665356541431</v>
       </c>
-      <c r="S20">
+      <c r="S23" s="43">
         <v>5.5319131411834084</v>
       </c>
-      <c r="T20">
+      <c r="T23" s="43">
         <v>7.9689437293106389</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U23" s="47">
         <v>7.6891218324711899</v>
       </c>
-      <c r="V20" s="8">
-        <f t="shared" si="6"/>
+      <c r="V23" s="42">
+        <f t="shared" si="11"/>
         <v>19.979493109182648</v>
       </c>
-      <c r="X20" t="str">
-        <f t="shared" si="15"/>
+      <c r="X23" s="43" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    3.57658851389864, 3.6384489067436, 3.48802866054558, 3.97016653565414, 5.53191314118341, 7.96894372931064, 7.68912183247119,</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="22" t="s">
+    <row r="24" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="65"/>
+      <c r="B24" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C24" s="68">
         <v>92.532008639059754</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D24" s="68">
         <v>92.511359671508131</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E24" s="68">
         <v>92.431794392685063</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F24" s="68">
         <v>89.802189753659917</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G24" s="68">
         <v>84.27001963684809</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H24" s="68">
         <v>69.728111834877453</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I24" s="69">
         <v>54.61681617776393</v>
       </c>
-      <c r="J21" s="8">
-        <f t="shared" si="5"/>
+      <c r="J24" s="42">
+        <f t="shared" si="10"/>
         <v>232.59724131119933</v>
       </c>
-      <c r="K21" s="8">
-        <f t="shared" si="13"/>
+      <c r="K24" s="42">
+        <f t="shared" si="18"/>
         <v>1.5972413111993262</v>
       </c>
-      <c r="L21" t="str">
-        <f t="shared" si="14"/>
+      <c r="L24" s="43" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">    92.5320086390598, 92.5113596715081, 92.4317943926851, 89.8021897536599, 84.2700196368481, 69.7281118348775, 54.6168161777639,</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="22" t="s">
+      <c r="M24" s="65"/>
+      <c r="N24" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O24" s="68">
         <v>3.8648153044722311</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P24" s="68">
         <v>3.535077470212221</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q24" s="68">
         <v>3.6384347466350571</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R24" s="68">
         <v>3.8089521492813971</v>
       </c>
-      <c r="S21" s="10">
+      <c r="S24" s="68">
         <v>5.4822989134189646</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T24" s="68">
         <v>8.2183912200903393</v>
       </c>
-      <c r="U21" s="11">
+      <c r="U24" s="69">
         <v>7.7989831950532231</v>
       </c>
-      <c r="V21" s="8">
-        <f t="shared" si="6"/>
+      <c r="V24" s="42">
+        <f t="shared" si="11"/>
         <v>20.20108810809176</v>
       </c>
-      <c r="X21" t="str">
-        <f t="shared" si="15"/>
+      <c r="X24" s="43" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    3.86481530447223, 3.53507747021222, 3.63843474663506, 3.8089521492814, 5.48229891341896, 8.21839122009034, 7.79898319505322,</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="V22" s="8"/>
-    </row>
-    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="V25" s="42"/>
+    </row>
+    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B26" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C26" s="41">
         <v>1</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D26" s="41">
         <v>0.75</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E26" s="41">
         <v>0.5</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F26" s="41">
         <v>0.3</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G26" s="41">
         <v>0.2</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H26" s="41">
         <v>0.1</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I26" s="40">
         <v>0.05</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J26" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="M23" s="4" t="s">
+      <c r="K26" s="42"/>
+      <c r="M26" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N26" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O26" s="41">
         <v>1</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P26" s="41">
         <v>0.75</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q26" s="41">
         <v>0.5</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R26" s="41">
         <v>0.3</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S26" s="41">
         <v>0.2</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T26" s="41">
         <v>0.1</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U26" s="40">
         <v>0.05</v>
       </c>
-      <c r="V23" s="8" t="s">
+      <c r="V26" s="42" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="14">
+      <c r="B27" s="45"/>
+      <c r="C27" s="50">
         <v>92.567111769713335</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D27" s="50">
         <v>90.835858608343599</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E27" s="50">
         <v>89.217505339533233</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F27" s="50">
         <v>83.237245964288078</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G27" s="50">
         <v>75.380430844191011</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H27" s="50">
         <v>58.994367187597383</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I27" s="51">
         <v>43.622535641382179</v>
       </c>
-      <c r="J24" s="8">
-        <f t="shared" si="5"/>
+      <c r="J27" s="42">
+        <f t="shared" si="10"/>
         <v>204.1661195989895</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" t="str">
-        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C24:I24)&amp;","</f>
+      <c r="K27" s="42"/>
+      <c r="L27" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C27:I27)&amp;","</f>
         <v xml:space="preserve">    92.5671117697133, 90.8358586083436, 89.2175053395332, 83.2372459642881, 75.380430844191, 58.9943671875974, 43.6225356413822,</v>
       </c>
-      <c r="M24" s="29" t="s">
+      <c r="M27" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="30"/>
-      <c r="O24">
+      <c r="N27" s="45"/>
+      <c r="O27" s="43">
         <v>3.88093621561358</v>
       </c>
-      <c r="P24">
+      <c r="P27" s="43">
         <v>4.8164746829677396</v>
       </c>
-      <c r="Q24">
+      <c r="Q27" s="43">
         <v>5.2250608386616522</v>
       </c>
-      <c r="R24">
+      <c r="R27" s="43">
         <v>5.6675721086724113</v>
       </c>
-      <c r="S24">
+      <c r="S27" s="43">
         <v>8.3263283482936075</v>
       </c>
-      <c r="T24">
+      <c r="T27" s="43">
         <v>10.49020927094638</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U27" s="47">
         <v>11.060437347759546</v>
       </c>
-      <c r="V24" s="8">
-        <f t="shared" si="6"/>
+      <c r="V27" s="42">
+        <f t="shared" si="11"/>
         <v>28.192369569327848</v>
       </c>
-      <c r="X24" t="str">
-        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O24:U24)&amp;","</f>
+      <c r="X27" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O27:U27)&amp;","</f>
         <v xml:space="preserve">    3.88093621561358, 4.81647468296774, 5.22506083866165, 5.66757210867241, 8.32632834829361, 10.4902092709464, 11.0604373477595,</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B28" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="53">
+        <v>92.57179312551817</v>
+      </c>
+      <c r="D28" s="54">
+        <v>92.192838707727574</v>
+      </c>
+      <c r="E28" s="54">
+        <v>90.943851956216648</v>
+      </c>
+      <c r="F28" s="54">
+        <v>84.818951836070681</v>
+      </c>
+      <c r="G28" s="54">
+        <v>78.583064117934526</v>
+      </c>
+      <c r="H28" s="54">
+        <v>65.470585571249202</v>
+      </c>
+      <c r="I28" s="55">
+        <v>56.549372115897242</v>
+      </c>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="M28" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="53">
+        <v>4.2970900200547248</v>
+      </c>
+      <c r="P28" s="54">
+        <v>4.4201469598446934</v>
+      </c>
+      <c r="Q28" s="54">
+        <v>4.3530873376475094</v>
+      </c>
+      <c r="R28" s="54">
+        <v>5.5432639082482673</v>
+      </c>
+      <c r="S28" s="54">
+        <v>6.4601227243547781</v>
+      </c>
+      <c r="T28" s="54">
+        <v>10.02730940337854</v>
+      </c>
+      <c r="U28" s="55">
+        <v>11.78125058878045</v>
+      </c>
+      <c r="V28" s="42"/>
+    </row>
+    <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="86">
+        <v>92.889839945952389</v>
+      </c>
+      <c r="D29" s="87">
+        <v>92.368608847778347</v>
+      </c>
+      <c r="E29" s="87">
+        <v>91.61867960283918</v>
+      </c>
+      <c r="F29" s="87">
+        <v>89.961686047279699</v>
+      </c>
+      <c r="G29" s="87">
+        <v>87.139001834536714</v>
+      </c>
+      <c r="H29" s="87">
+        <v>80.567264866113064</v>
+      </c>
+      <c r="I29" s="88">
+        <v>64.215873143293777</v>
+      </c>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="M29" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="89">
+        <v>3.8883797629366761</v>
+      </c>
+      <c r="P29" s="90">
+        <v>3.711237756718714</v>
+      </c>
+      <c r="Q29" s="90">
+        <v>3.4352213659038129</v>
+      </c>
+      <c r="R29" s="90">
+        <v>4.1585281294062861</v>
+      </c>
+      <c r="S29" s="90">
+        <v>4.6717463716671022</v>
+      </c>
+      <c r="T29" s="90">
+        <v>6.9489825587638796</v>
+      </c>
+      <c r="U29" s="91">
+        <v>9.4679343618079876</v>
+      </c>
+      <c r="V29" s="42"/>
+    </row>
+    <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="71"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="42"/>
+    </row>
+    <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C31" s="53">
         <v>92.642127236498098</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D31" s="54">
         <v>91.04461239289904</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E31" s="54">
         <v>89.434796049812732</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F31" s="54">
         <v>85.354372724147197</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G31" s="54">
         <v>80.030044950169284</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H31" s="54">
         <v>63.507304479546157</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I31" s="55">
         <v>44.95687425047484</v>
       </c>
-      <c r="J25" s="8">
-        <f>C25*(1-1)^2+D25*(1-0.75)^2+E25*(1-0.5)^2+F25*(1-0.3)^2+G25*(1-0.2)^2+H25*(1-0.1)^2+I25*(1-0.05)^2</f>
+      <c r="J31" s="42">
+        <f>C31*(1-1)^2+D31*(1-0.75)^2+E31*(1-0.5)^2+F31*(1-0.3)^2+G31*(1-0.2)^2+H31*(1-0.1)^2+I31*(1-0.05)^2</f>
         <v>213.10635432943576</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" t="str">
-        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C25:I25)&amp;","</f>
+      <c r="K31" s="42"/>
+      <c r="L31" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C31:I31)&amp;","</f>
         <v xml:space="preserve">    92.6421272364981, 91.044612392899, 89.4347960498127, 85.3543727241472, 80.0300449501693, 63.5073044795462, 44.9568742504748,</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M31" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="24" t="s">
+      <c r="N31" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O31" s="53">
         <v>4.1195158215033718</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P31" s="54">
         <v>4.4343471318077929</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="Q31" s="54">
         <v>5.7830468704553457</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R31" s="54">
         <v>5.0998556431996933</v>
       </c>
-      <c r="S25" s="12">
+      <c r="S31" s="54">
         <v>6.7676736054577464</v>
       </c>
-      <c r="T25" s="12">
+      <c r="T31" s="54">
         <v>9.7329969682947457</v>
       </c>
-      <c r="U25" s="13">
+      <c r="U31" s="55">
         <v>10.28042620138169</v>
       </c>
-      <c r="V25" s="8">
-        <f>O25*(1-1)^2+P25*(1-0.75)^2+Q25*(1-0.5)^2+R25*(1-0.3)^2+S25*(1-0.2)^2+T25*(1-0.1)^2+U25*(1-0.05)^2</f>
+      <c r="V31" s="42">
+        <f>O31*(1-1)^2+P31*(1-0.75)^2+Q31*(1-0.5)^2+R31*(1-0.3)^2+S31*(1-0.2)^2+T31*(1-0.1)^2+U31*(1-0.05)^2</f>
         <v>25.714960977078352</v>
       </c>
-      <c r="X25" t="str">
-        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O25:U25)&amp;","</f>
+      <c r="X31" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O31:U31)&amp;","</f>
         <v xml:space="preserve">    4.11951582150337, 4.43434713180779, 5.78304687045535, 5.09985564319969, 6.76767360545775, 9.73299696829475, 10.2804262013817,</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+    <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="M26" s="31" t="s">
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="M32" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="8"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="42"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B33" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C33" s="53">
         <v>92.820738792005557</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D33" s="54">
         <v>91.960076103634933</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E33" s="54">
         <v>90.623611228667414</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F33" s="54">
         <v>87.147401908523506</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G33" s="54">
         <v>80.684883446065982</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H33" s="54">
         <v>60.433547736945336</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I33" s="55">
         <v>47.513519633648883</v>
       </c>
-      <c r="J27" s="8">
-        <f t="shared" si="5"/>
+      <c r="J33" s="42">
+        <f t="shared" si="10"/>
         <v>214.57608504059661</v>
       </c>
-      <c r="K27" s="8"/>
-      <c r="L27" t="str">
-        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C27:I27)&amp;","</f>
+      <c r="K33" s="42"/>
+      <c r="L33" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C33:I33)&amp;","</f>
         <v xml:space="preserve">    92.8207387920056, 91.9600761036349, 90.6236112286674, 87.1474019085235, 80.684883446066, 60.4335477369453, 47.5135196336489,</v>
       </c>
-      <c r="M27" s="31" t="s">
+      <c r="M33" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="N27" s="33"/>
-      <c r="O27" s="16">
+      <c r="N33" s="58"/>
+      <c r="O33" s="53">
         <v>3.9832785287226642</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P33" s="54">
         <v>4.384481875563857</v>
       </c>
-      <c r="Q27" s="12">
+      <c r="Q33" s="54">
         <v>4.3933682019589702</v>
       </c>
-      <c r="R27" s="12">
+      <c r="R33" s="54">
         <v>5.7258360206959802</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S33" s="54">
         <v>7.9571441032328494</v>
       </c>
-      <c r="T27" s="12">
+      <c r="T33" s="54">
         <v>11.156546553337531</v>
       </c>
-      <c r="U27" s="13">
+      <c r="U33" s="55">
         <v>9.8131707087901248</v>
       </c>
-      <c r="V27" s="8">
-        <f t="shared" si="6"/>
+      <c r="V33" s="42">
+        <f t="shared" si="11"/>
         <v>27.163793316809027</v>
       </c>
-      <c r="X27" t="str">
-        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O27:U27)&amp;","</f>
+      <c r="X33" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O33:U33)&amp;","</f>
         <v xml:space="preserve">    3.98327852872266, 4.38448187556386, 4.39336820195897, 5.72583602069598, 7.95714410323285, 11.1565465533375, 9.81317070879012,</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="1" t="s">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="60"/>
+      <c r="B34" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C34" s="62">
         <v>92.843284190023084</v>
       </c>
-      <c r="D28">
+      <c r="D34" s="43">
         <v>91.856981164968985</v>
       </c>
-      <c r="E28">
+      <c r="E34" s="43">
         <v>90.615255157299202</v>
       </c>
-      <c r="F28">
+      <c r="F34" s="43">
         <v>87.929534075502005</v>
       </c>
-      <c r="G28">
+      <c r="G34" s="43">
         <v>80.29266389685057</v>
       </c>
-      <c r="H28">
+      <c r="H34" s="43">
         <v>61.564100332848938</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I34" s="47">
         <v>44.246012410890316</v>
       </c>
-      <c r="J28" s="8">
-        <f t="shared" si="5"/>
+      <c r="J34" s="42">
+        <f t="shared" si="10"/>
         <v>212.66659917355187</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" t="str">
-        <f t="shared" ref="L28:L33" si="16">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C28:I28)&amp;","</f>
+      <c r="K34" s="42"/>
+      <c r="L34" s="43" t="str">
+        <f t="shared" ref="L34:L39" si="21">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C34:I34)&amp;","</f>
         <v xml:space="preserve">    92.8432841900231, 91.856981164969, 90.6152551572992, 87.929534075502, 80.2926638968506, 61.5641003328489, 44.2460124108903,</v>
       </c>
-      <c r="M28" s="27" t="s">
+      <c r="M34" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="N28" s="28"/>
-      <c r="O28" s="17">
+      <c r="N34" s="64"/>
+      <c r="O34" s="62">
         <v>4.2026089477592938</v>
       </c>
-      <c r="P28">
+      <c r="P34" s="43">
         <v>4.7417739073745873</v>
       </c>
-      <c r="Q28">
+      <c r="Q34" s="43">
         <v>4.6885884019912742</v>
       </c>
-      <c r="R28">
+      <c r="R34" s="43">
         <v>5.8474095435593307</v>
       </c>
-      <c r="S28">
+      <c r="S34" s="43">
         <v>8.5718488634529457</v>
       </c>
-      <c r="T28">
+      <c r="T34" s="43">
         <v>10.618665895845737</v>
       </c>
-      <c r="U28" s="9">
+      <c r="U34" s="47">
         <v>9.9175631887140572</v>
       </c>
-      <c r="V28" s="8">
-        <f t="shared" si="6"/>
+      <c r="V34" s="42">
+        <f t="shared" si="11"/>
         <v>27.371442072112174</v>
       </c>
-      <c r="X28" t="str">
-        <f t="shared" ref="X28:X33" si="17">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O28:U28)&amp;","</f>
+      <c r="X34" s="43" t="str">
+        <f t="shared" ref="X34:X39" si="22">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O34:U34)&amp;","</f>
         <v xml:space="preserve">    4.20260894775929, 4.74177390737459, 4.68858840199127, 5.84740954355933, 8.57184886345295, 10.6186658958457, 9.91756318871406,</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
-      <c r="B29" s="1" t="s">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" s="60"/>
+      <c r="B35" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C35" s="62">
         <v>92.887247493957162</v>
       </c>
-      <c r="D29">
+      <c r="D35" s="43">
         <v>92.526360568571377</v>
       </c>
-      <c r="E29">
+      <c r="E35" s="43">
         <v>92.335985990442964</v>
       </c>
-      <c r="F29">
+      <c r="F35" s="43">
         <v>91.21192788290432</v>
       </c>
-      <c r="G29">
+      <c r="G35" s="43">
         <v>84.049989944177668</v>
       </c>
-      <c r="H29">
+      <c r="H35" s="43">
         <v>57.414776662034065</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I35" s="47">
         <v>42.573458490480562</v>
       </c>
-      <c r="J29" s="8">
-        <f t="shared" si="5"/>
+      <c r="J35" s="42">
+        <f t="shared" si="10"/>
         <v>212.2812476439496</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" t="str">
-        <f t="shared" si="16"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="43" t="str">
+        <f t="shared" si="21"/>
         <v xml:space="preserve">    92.8872474939572, 92.5263605685714, 92.335985990443, 91.2119278829043, 84.0499899441777, 57.4147766620341, 42.5734584904806,</v>
       </c>
-      <c r="M29" s="27" t="s">
+      <c r="M35" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="28"/>
-      <c r="O29" s="17">
+      <c r="N35" s="64"/>
+      <c r="O35" s="62">
         <v>4.0514903154179436</v>
       </c>
-      <c r="P29">
+      <c r="P35" s="43">
         <v>3.9219831925012953</v>
       </c>
-      <c r="Q29">
+      <c r="Q35" s="43">
         <v>4.2608980592918222</v>
       </c>
-      <c r="R29">
+      <c r="R35" s="43">
         <v>4.507750995529622</v>
       </c>
-      <c r="S29">
+      <c r="S35" s="43">
         <v>6.950345110192127</v>
       </c>
-      <c r="T29">
+      <c r="T35" s="43">
         <v>10.916767692216204</v>
       </c>
-      <c r="U29" s="9">
+      <c r="U35" s="47">
         <v>8.7851414024966488</v>
       </c>
-      <c r="V29" s="8">
-        <f t="shared" si="6"/>
+      <c r="V35" s="42">
+        <f t="shared" si="11"/>
         <v>24.738539269135117</v>
       </c>
-      <c r="X29" t="str">
-        <f t="shared" si="17"/>
+      <c r="X35" s="43" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve">    4.05149031541794, 3.9219831925013, 4.26089805929182, 4.50775099552962, 6.95034511019213, 10.9167676922162, 8.78514140249665,</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="1" t="s">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" s="60"/>
+      <c r="B36" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C36" s="62">
         <v>92.843190256650004</v>
       </c>
-      <c r="D30">
+      <c r="D36" s="43">
         <v>92.587016305792119</v>
       </c>
-      <c r="E30">
+      <c r="E36" s="43">
         <v>92.099608766333958</v>
       </c>
-      <c r="F30">
+      <c r="F36" s="43">
         <v>90.524299230603347</v>
       </c>
-      <c r="G30">
+      <c r="G36" s="43">
         <v>83.646426779948698</v>
       </c>
-      <c r="H30">
+      <c r="H36" s="43">
         <v>60.416105838288168</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I36" s="47">
         <v>43.187380938017625</v>
       </c>
-      <c r="J30" s="8">
-        <f t="shared" si="5"/>
+      <c r="J36" s="42">
+        <f t="shared" si="10"/>
         <v>214.61586749843264</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" t="str">
-        <f t="shared" si="16"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="43" t="str">
+        <f t="shared" si="21"/>
         <v xml:space="preserve">    92.84319025665, 92.5870163057921, 92.099608766334, 90.5242992306033, 83.6464267799487, 60.4161058382882, 43.1873809380176,</v>
       </c>
-      <c r="M30" s="27" t="s">
+      <c r="M36" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="N30" s="28"/>
-      <c r="O30" s="17">
+      <c r="N36" s="64"/>
+      <c r="O36" s="62">
         <v>3.6611286672079411</v>
       </c>
-      <c r="P30">
+      <c r="P36" s="43">
         <v>3.8332247685167258</v>
       </c>
-      <c r="Q30">
+      <c r="Q36" s="43">
         <v>4.0987820655435705</v>
       </c>
-      <c r="R30">
+      <c r="R36" s="43">
         <v>4.7008877850217017</v>
       </c>
-      <c r="S30">
+      <c r="S36" s="43">
         <v>7.5205052811091608</v>
       </c>
-      <c r="T30">
+      <c r="T36" s="43">
         <v>10.841519627091911</v>
       </c>
-      <c r="U30" s="9">
+      <c r="U36" s="47">
         <v>7.8755871698222206</v>
       </c>
-      <c r="V30" s="8">
-        <f t="shared" si="6"/>
+      <c r="V36" s="42">
+        <f t="shared" si="11"/>
         <v>24.270178777697687</v>
       </c>
-      <c r="X30" t="str">
-        <f t="shared" si="17"/>
+      <c r="X36" s="43" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve">    3.66112866720794, 3.83322476851673, 4.09878206554357, 4.7008877850217, 7.52050528110916, 10.8415196270919, 7.87558716982222,</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
-      <c r="B31" s="1" t="s">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" s="60"/>
+      <c r="B37" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C37" s="62">
         <v>93.155419737732046</v>
       </c>
-      <c r="D31">
+      <c r="D37" s="43">
         <v>92.891252101569421</v>
       </c>
-      <c r="E31">
+      <c r="E37" s="43">
         <v>92.354820431535103</v>
       </c>
-      <c r="F31">
+      <c r="F37" s="43">
         <v>89.262237664911709</v>
       </c>
-      <c r="G31">
+      <c r="G37" s="43">
         <v>83.817415142302622</v>
       </c>
-      <c r="H31">
+      <c r="H37" s="43">
         <v>62.583030132951436</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I37" s="47">
         <v>45.947582471767348</v>
       </c>
-      <c r="J31" s="8">
-        <f t="shared" si="5"/>
+      <c r="J37" s="42">
+        <f t="shared" si="10"/>
         <v>218.435998099573</v>
       </c>
-      <c r="K31" s="8"/>
-      <c r="L31" t="str">
-        <f t="shared" si="16"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="43" t="str">
+        <f t="shared" si="21"/>
         <v xml:space="preserve">    93.155419737732, 92.8912521015694, 92.3548204315351, 89.2622376649117, 83.8174151423026, 62.5830301329514, 45.9475824717673,</v>
       </c>
-      <c r="M31" s="27" t="s">
+      <c r="M37" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="N31" s="28"/>
-      <c r="O31" s="17">
+      <c r="N37" s="64"/>
+      <c r="O37" s="62">
         <v>3.8707101747526216</v>
       </c>
-      <c r="P31">
+      <c r="P37" s="43">
         <v>4.3079284051136435</v>
       </c>
-      <c r="Q31">
+      <c r="Q37" s="43">
         <v>4.4205356766114763</v>
       </c>
-      <c r="R31">
+      <c r="R37" s="43">
         <v>5.3097950223237715</v>
       </c>
-      <c r="S31">
+      <c r="S37" s="43">
         <v>6.7759657284130972</v>
       </c>
-      <c r="T31">
+      <c r="T37" s="43">
         <v>11.798403704025185</v>
       </c>
-      <c r="U31" s="9">
+      <c r="U37" s="47">
         <v>11.537198624213495</v>
       </c>
-      <c r="V31" s="8">
-        <f t="shared" si="6"/>
+      <c r="V37" s="42">
+        <f t="shared" si="11"/>
         <v>28.281825830208582</v>
       </c>
-      <c r="X31" t="str">
-        <f t="shared" si="17"/>
+      <c r="X37" s="43" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve">    3.87071017475262, 4.30792840511364, 4.42053567661148, 5.30979502232377, 6.7759657284131, 11.7984037040252, 11.5371986242135,</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
-      <c r="B32" s="1" t="s">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38" s="60"/>
+      <c r="B38" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C38" s="62">
         <v>92.821279056315362</v>
       </c>
-      <c r="D32">
+      <c r="D38" s="43">
         <v>92.733480621303571</v>
       </c>
-      <c r="E32">
+      <c r="E38" s="43">
         <v>92.203500219400965</v>
       </c>
-      <c r="F32">
+      <c r="F38" s="43">
         <v>91.071302925601856</v>
       </c>
-      <c r="G32">
+      <c r="G38" s="43">
         <v>85.612815475594061</v>
       </c>
-      <c r="H32">
+      <c r="H38" s="43">
         <v>58.992680230672832</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I38" s="47">
         <v>41.120411442431482</v>
       </c>
-      <c r="J32" s="8">
-        <f t="shared" si="5"/>
+      <c r="J38" s="42">
+        <f t="shared" si="10"/>
         <v>213.15910024524624</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" t="str">
-        <f t="shared" si="16"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="43" t="str">
+        <f t="shared" si="21"/>
         <v xml:space="preserve">    92.8212790563154, 92.7334806213036, 92.203500219401, 91.0713029256019, 85.6128154755941, 58.9926802306728, 41.1204114424315,</v>
       </c>
-      <c r="M32" s="27" t="s">
+      <c r="M38" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N32" s="28"/>
-      <c r="O32" s="17">
+      <c r="N38" s="64"/>
+      <c r="O38" s="62">
         <v>3.654167143417371</v>
       </c>
-      <c r="P32">
+      <c r="P38" s="43">
         <v>3.872585567952481</v>
       </c>
-      <c r="Q32">
+      <c r="Q38" s="43">
         <v>4.0466276106990549</v>
       </c>
-      <c r="R32">
+      <c r="R38" s="43">
         <v>4.8526676778723434</v>
       </c>
-      <c r="S32">
+      <c r="S38" s="43">
         <v>6.1913517121362496</v>
       </c>
-      <c r="T32">
+      <c r="T38" s="43">
         <v>10.091912686159521</v>
       </c>
-      <c r="U32" s="9">
+      <c r="U38" s="47">
         <v>8.6002766636911474</v>
       </c>
-      <c r="V32" s="8">
-        <f t="shared" si="6"/>
+      <c r="V38" s="42">
+        <f t="shared" si="11"/>
         <v>23.530164723366916</v>
       </c>
-      <c r="X32" t="str">
-        <f t="shared" si="17"/>
+      <c r="X38" s="43" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve">    3.65416714341737, 3.87258556795248, 4.04662761069905, 4.85266767787234, 6.19135171213625, 10.0919126861595, 8.60027666369115,</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="3" t="s">
+    <row r="39" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="65"/>
+      <c r="B39" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C39" s="67">
         <v>93.243833233650619</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D39" s="68">
         <v>92.244152662300351</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E39" s="68">
         <v>91.779399224683033</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F39" s="68">
         <v>88.942376530063612</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G39" s="68">
         <v>84.074415427072154</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H39" s="68">
         <v>63.593677785045287</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I39" s="69">
         <v>48.08806242697684</v>
       </c>
-      <c r="J33" s="8">
-        <f t="shared" si="5"/>
+      <c r="J39" s="42">
+        <f t="shared" si="10"/>
         <v>221.00985506685515</v>
       </c>
-      <c r="K33" s="8"/>
-      <c r="L33" t="str">
-        <f t="shared" si="16"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="43" t="str">
+        <f t="shared" si="21"/>
         <v xml:space="preserve">    93.2438332336506, 92.2441526623004, 91.779399224683, 88.9423765300636, 84.0744154270722, 63.5936777850453, 48.0880624269768,</v>
       </c>
-      <c r="M33" s="29" t="s">
+      <c r="M39" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N33" s="30"/>
-      <c r="O33" s="18">
+      <c r="N39" s="45"/>
+      <c r="O39" s="67">
         <v>3.8779021026816878</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P39" s="68">
         <v>5.459933038676585</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q39" s="68">
         <v>4.314698164495594</v>
       </c>
-      <c r="R33" s="10">
+      <c r="R39" s="68">
         <v>5.2914242658912007</v>
       </c>
-      <c r="S33" s="10">
+      <c r="S39" s="68">
         <v>7.0686449776166889</v>
       </c>
-      <c r="T33" s="10">
+      <c r="T39" s="68">
         <v>12.320009696250258</v>
       </c>
-      <c r="U33" s="11">
+      <c r="U39" s="69">
         <v>10.2959016132948</v>
       </c>
-      <c r="V33" s="8">
-        <f t="shared" si="6"/>
+      <c r="V39" s="42">
+        <f t="shared" si="11"/>
         <v>27.807910091963823</v>
       </c>
-      <c r="X33" t="str">
-        <f t="shared" si="17"/>
+      <c r="X39" s="43" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve">    3.87790210268169, 5.45993303867658, 4.31469816449559, 5.2914242658912, 7.06864497761669, 12.3200096962503, 10.2959016132948,</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="40" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B41" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C41" s="49">
         <v>92.975071912418201</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D41" s="50">
         <v>92.482655480114417</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E41" s="50">
         <v>91.947118259611926</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F41" s="50">
         <v>89.588706846116352</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G41" s="50">
         <v>85.165438929554142</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H41" s="50">
         <v>69.625673799562222</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I41" s="51">
         <v>45.575943710882733</v>
       </c>
-      <c r="J35" s="8">
-        <f>C35*(1-1)^2+D35*(1-0.75)^2+E35*(1-0.5)^2+F35*(1-0.3)^2+G35*(1-0.2)^2+H35*(1-0.1)^2+I35*(1-0.05)^2</f>
+      <c r="J41" s="42">
+        <f>C41*(1-1)^2+D41*(1-0.75)^2+E41*(1-0.5)^2+F41*(1-0.3)^2+G41*(1-0.2)^2+H41*(1-0.1)^2+I41*(1-0.05)^2</f>
         <v>224.70037777863885</v>
       </c>
-      <c r="K35" s="8"/>
-      <c r="L35" t="str">
-        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C35:I35)&amp;","</f>
+      <c r="K41" s="42"/>
+      <c r="L41" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C41:I41)&amp;","</f>
         <v xml:space="preserve">    92.9750719124182, 92.4826554801144, 91.9471182596119, 89.5887068461164, 85.1654389295541, 69.6256737995622, 45.5759437108827,</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M41" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="N35" s="23" t="s">
+      <c r="N41" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="O35" s="19">
+      <c r="O41" s="49">
         <v>4.0214791322193637</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P41" s="50">
         <v>4.3522992567212775</v>
       </c>
-      <c r="Q35" s="14">
+      <c r="Q41" s="50">
         <v>4.4820499145717267</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R41" s="50">
         <v>4.8870823953070817</v>
       </c>
-      <c r="S35" s="14">
+      <c r="S41" s="50">
         <v>6.2067997320749191</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T41" s="50">
         <v>10.534977026910749</v>
       </c>
-      <c r="U35" s="15">
+      <c r="U41" s="51">
         <v>11.21955342401594</v>
       </c>
-      <c r="V35" s="8">
-        <f>O35*(1-1)^2+P35*(1-0.75)^2+Q35*(1-0.5)^2+R35*(1-0.3)^2+S35*(1-0.2)^2+T35*(1-0.1)^2+U35*(1-0.05)^2</f>
+      <c r="V41" s="42">
+        <f>O41*(1-1)^2+P41*(1-0.75)^2+Q41*(1-0.5)^2+R41*(1-0.3)^2+S41*(1-0.2)^2+T41*(1-0.1)^2+U41*(1-0.05)^2</f>
         <v>26.418531741388524</v>
       </c>
-      <c r="X35" t="str">
-        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O35:U35)&amp;","</f>
+      <c r="X41" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O41:U41)&amp;","</f>
         <v xml:space="preserve">    4.02147913221936, 4.35229925672128, 4.48204991457173, 4.88708239530708, 6.20679973207492, 10.5349770269107, 11.2195534240159,</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+    <row r="42" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="M36" s="37" t="s">
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="M42" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="8"/>
-    </row>
-    <row r="37" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+      <c r="N42" s="76"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="76"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="77"/>
+      <c r="V42" s="42"/>
+    </row>
+    <row r="43" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B43" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C43" s="53">
         <v>92.247186116496749</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D43" s="54">
         <v>91.597884605320203</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E43" s="54">
         <v>91.511680603905845</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F43" s="54">
         <v>89.06343871798687</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G43" s="54">
         <v>81.057166591460046</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H43" s="54">
         <v>62.491303085185713</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I43" s="55">
         <v>45.016086288904575</v>
       </c>
-      <c r="J37" s="8">
-        <f t="shared" ref="J37:J43" si="18">C37*(1-1)^2+D37*(1-0.75)^2+E37*(1-0.5)^2+F37*(1-0.3)^2+G37*(1-0.2)^2+H37*(1-0.1)^2+I37*(1-0.05)^2</f>
+      <c r="J43" s="42">
+        <f t="shared" ref="J43:J49" si="23">C43*(1-1)^2+D43*(1-0.75)^2+E43*(1-0.5)^2+F43*(1-0.3)^2+G43*(1-0.2)^2+H43*(1-0.1)^2+I43*(1-0.05)^2</f>
         <v>215.3654329038938</v>
       </c>
-      <c r="K37" s="8"/>
-      <c r="L37" t="str">
-        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C37:I37)&amp;","</f>
+      <c r="K43" s="42"/>
+      <c r="L43" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C43:I43)&amp;","</f>
         <v xml:space="preserve">    92.2471861164967, 91.5978846053202, 91.5116806039058, 89.0634387179869, 81.05716659146, 62.4913030851857, 45.0160862889046,</v>
       </c>
-      <c r="M37" s="34" t="s">
+      <c r="M43" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="N37" s="7" t="s">
+      <c r="N43" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="O37" s="16">
+      <c r="O43" s="53">
         <v>3.9865771746241632</v>
       </c>
-      <c r="P37" s="12">
+      <c r="P43" s="54">
         <v>4.5536660342110613</v>
       </c>
-      <c r="Q37" s="12">
+      <c r="Q43" s="54">
         <v>4.2864648182838208</v>
       </c>
-      <c r="R37" s="12">
+      <c r="R43" s="54">
         <v>4.8749175943812801</v>
       </c>
-      <c r="S37" s="12">
+      <c r="S43" s="54">
         <v>6.6195690033276033</v>
       </c>
-      <c r="T37" s="12">
+      <c r="T43" s="54">
         <v>9.9975260632023684</v>
       </c>
-      <c r="U37" s="13">
+      <c r="U43" s="55">
         <v>8.9088892578240788</v>
       </c>
-      <c r="V37" s="8">
-        <f t="shared" ref="V37:V43" si="19">O37*(1-1)^2+P37*(1-0.75)^2+Q37*(1-0.5)^2+R37*(1-0.3)^2+S37*(1-0.2)^2+T37*(1-0.1)^2+U37*(1-0.05)^2</f>
+      <c r="V43" s="42">
+        <f t="shared" ref="V43:V49" si="24">O43*(1-1)^2+P43*(1-0.75)^2+Q43*(1-0.5)^2+R43*(1-0.3)^2+S43*(1-0.2)^2+T43*(1-0.1)^2+U43*(1-0.05)^2</f>
         <v>24.119722781465789</v>
       </c>
-      <c r="X37" t="str">
-        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O37:U37)&amp;","</f>
+      <c r="X43" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O43:U43)&amp;","</f>
         <v xml:space="preserve">    3.98657717462416, 4.55366603421106, 4.28646481828382, 4.87491759438128, 6.6195690033276, 9.99752606320237, 8.90888925782408,</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
-      <c r="B38" s="1" t="s">
+    <row r="44" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="60"/>
+      <c r="B44" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C44" s="62">
         <v>92.563160936089858</v>
       </c>
-      <c r="D38">
+      <c r="D44" s="43">
         <v>91.671343853121428</v>
       </c>
-      <c r="E38">
+      <c r="E44" s="43">
         <v>90.948470471508386</v>
       </c>
-      <c r="F38">
+      <c r="F44" s="43">
         <v>87.250446788778675</v>
       </c>
-      <c r="G38">
+      <c r="G44" s="43">
         <v>80.245135880766256</v>
       </c>
-      <c r="H38">
+      <c r="H44" s="43">
         <v>67.618957114876295</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I44" s="47">
         <v>48.661256270952556</v>
       </c>
-      <c r="J38" s="8">
-        <f t="shared" si="18"/>
+      <c r="J44" s="42">
+        <f t="shared" si="23"/>
         <v>221.26432154647364</v>
       </c>
-      <c r="K38" s="8"/>
-      <c r="L38" t="str">
-        <f t="shared" ref="L38:L43" si="20">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C38:I38)&amp;","</f>
+      <c r="K44" s="42"/>
+      <c r="L44" s="43" t="str">
+        <f t="shared" ref="L44:L49" si="25">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C44:I44)&amp;","</f>
         <v xml:space="preserve">    92.5631609360899, 91.6713438531214, 90.9484704715084, 87.2504467887787, 80.2451358807663, 67.6189571148763, 48.6612562709526,</v>
       </c>
-      <c r="M38" s="35"/>
-      <c r="N38" s="1" t="s">
+      <c r="M44" s="60"/>
+      <c r="N44" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="O38" s="17">
+      <c r="O44" s="62">
         <v>4.1570380941436529</v>
       </c>
-      <c r="P38">
+      <c r="P44" s="43">
         <v>4.4322456207651824</v>
       </c>
-      <c r="Q38">
+      <c r="Q44" s="43">
         <v>4.2573142592404345</v>
       </c>
-      <c r="R38">
+      <c r="R44" s="43">
         <v>4.9623460503589669</v>
       </c>
-      <c r="S38">
+      <c r="S44" s="43">
         <v>6.4761990460733738</v>
       </c>
-      <c r="T38">
+      <c r="T44" s="43">
         <v>8.2894024682649388</v>
       </c>
-      <c r="U38" s="9">
+      <c r="U44" s="47">
         <v>10.578972903017011</v>
       </c>
-      <c r="V38" s="8">
-        <f t="shared" si="19"/>
+      <c r="V44" s="42">
+        <f t="shared" si="24"/>
         <v>24.179599914538237</v>
       </c>
-      <c r="X38" t="str">
-        <f t="shared" ref="X38:X43" si="21">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O38:U38)&amp;","</f>
+      <c r="X44" s="43" t="str">
+        <f t="shared" ref="X44:X49" si="26">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O44:U44)&amp;","</f>
         <v xml:space="preserve">    4.15703809414365, 4.43224562076518, 4.25731425924043, 4.96234605035897, 6.47619904607337, 8.28940246826494, 10.578972903017,</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
-      <c r="B39" s="1" t="s">
+    <row r="45" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="60"/>
+      <c r="B45" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C45" s="62">
         <v>92.54556139569759</v>
       </c>
-      <c r="D39">
+      <c r="D45" s="43">
         <v>92.097749123542997</v>
       </c>
-      <c r="E39">
+      <c r="E45" s="43">
         <v>91.149446409986609</v>
       </c>
-      <c r="F39">
+      <c r="F45" s="43">
         <v>90.378692861325263</v>
       </c>
-      <c r="G39">
+      <c r="G45" s="43">
         <v>86.31037090347165</v>
       </c>
-      <c r="H39">
+      <c r="H45" s="43">
         <v>69.052071672901974</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I45" s="47">
         <v>52.183039312657961</v>
       </c>
-      <c r="J39" s="8">
-        <f t="shared" si="18"/>
+      <c r="J45" s="42">
+        <f t="shared" si="23"/>
         <v>231.09503883771373</v>
       </c>
-      <c r="K39" s="8"/>
-      <c r="L39" t="str">
-        <f t="shared" si="20"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="43" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">    92.5455613956976, 92.097749123543, 91.1494464099866, 90.3786928613253, 86.3103709034717, 69.052071672902, 52.183039312658,</v>
       </c>
-      <c r="M39" s="35"/>
-      <c r="N39" s="1" t="s">
+      <c r="M45" s="60"/>
+      <c r="N45" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="O39" s="17">
+      <c r="O45" s="62">
         <v>3.8704157166302662</v>
       </c>
-      <c r="P39">
+      <c r="P45" s="43">
         <v>4.0030091744950544</v>
       </c>
-      <c r="Q39">
+      <c r="Q45" s="43">
         <v>4.4384106113763231</v>
       </c>
-      <c r="R39">
+      <c r="R45" s="43">
         <v>3.896528380448768</v>
       </c>
-      <c r="S39">
+      <c r="S45" s="43">
         <v>5.8710282292811753</v>
       </c>
-      <c r="T39">
+      <c r="T45" s="43">
         <v>8.8278448465735444</v>
       </c>
-      <c r="U39" s="9">
+      <c r="U45" s="47">
         <v>8.7581295305693558</v>
       </c>
-      <c r="V39" s="8">
-        <f t="shared" si="19"/>
+      <c r="V45" s="42">
+        <f t="shared" si="24"/>
         <v>22.081313926473285</v>
       </c>
-      <c r="X39" t="str">
-        <f t="shared" si="21"/>
+      <c r="X45" s="43" t="str">
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    3.87041571663027, 4.00300917449505, 4.43841061137632, 3.89652838044877, 5.87102822928118, 8.82784484657354, 8.75812953056936,</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
-      <c r="B40" s="1" t="s">
+    <row r="46" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="60"/>
+      <c r="B46" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C46" s="62">
         <v>91.108963215218992</v>
       </c>
-      <c r="D40">
+      <c r="D46" s="43">
         <v>91.422451190382446</v>
       </c>
-      <c r="E40">
+      <c r="E46" s="43">
         <v>91.028164807377692</v>
       </c>
-      <c r="F40">
+      <c r="F46" s="43">
         <v>90.92155498404928</v>
       </c>
-      <c r="G40">
+      <c r="G46" s="43">
         <v>88.366911725212944</v>
       </c>
-      <c r="H40">
+      <c r="H46" s="43">
         <v>69.467496738004868</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I46" s="47">
         <v>55.017151338023098</v>
       </c>
-      <c r="J40" s="8">
-        <f t="shared" si="18"/>
+      <c r="J46" s="42">
+        <f t="shared" si="23"/>
         <v>235.49898128791355</v>
       </c>
-      <c r="K40" s="8"/>
-      <c r="L40" t="str">
-        <f t="shared" si="20"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="43" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">    91.108963215219, 91.4224511903824, 91.0281648073777, 90.9215549840493, 88.3669117252129, 69.4674967380049, 55.0171513380231,</v>
       </c>
-      <c r="M40" s="35"/>
-      <c r="N40" s="1" t="s">
+      <c r="M46" s="60"/>
+      <c r="N46" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O46" s="62">
         <v>4.5721711205283091</v>
       </c>
-      <c r="P40">
+      <c r="P46" s="43">
         <v>4.2450282469621561</v>
       </c>
-      <c r="Q40">
+      <c r="Q46" s="43">
         <v>4.9010444377823665</v>
       </c>
-      <c r="R40">
+      <c r="R46" s="43">
         <v>4.7536885250114933</v>
       </c>
-      <c r="S40">
+      <c r="S46" s="43">
         <v>5.7319162671252464</v>
       </c>
-      <c r="T40">
+      <c r="T46" s="43">
         <v>8.5643761177203679</v>
       </c>
-      <c r="U40" s="9">
+      <c r="U46" s="47">
         <v>13.3397749958867</v>
       </c>
-      <c r="V40" s="8">
-        <f t="shared" si="19"/>
+      <c r="V46" s="42">
+        <f t="shared" si="24"/>
         <v>26.464600752237761</v>
       </c>
-      <c r="X40" t="str">
-        <f t="shared" si="21"/>
+      <c r="X46" s="43" t="str">
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    4.57217112052831, 4.24502824696216, 4.90104443778237, 4.75368852501149, 5.73191626712525, 8.56437611772037, 13.3397749958867,</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
-      <c r="B41" s="1" t="s">
+    <row r="47" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="60"/>
+      <c r="B47" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C47" s="62">
         <v>91.985002113747967</v>
       </c>
-      <c r="D41">
+      <c r="D47" s="43">
         <v>91.844115733099713</v>
       </c>
-      <c r="E41">
+      <c r="E47" s="43">
         <v>90.74276089064449</v>
       </c>
-      <c r="F41">
+      <c r="F47" s="43">
         <v>86.637468540622294</v>
       </c>
-      <c r="G41">
+      <c r="G47" s="43">
         <v>80.087169822335198</v>
       </c>
-      <c r="H41">
+      <c r="H47" s="43">
         <v>67.923665484357144</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I47" s="47">
         <v>50.478936197751509</v>
       </c>
-      <c r="J41" s="8">
-        <f t="shared" si="18"/>
+      <c r="J47" s="42">
+        <f t="shared" si="23"/>
         <v>222.70950468797935</v>
       </c>
-      <c r="K41" s="8"/>
-      <c r="L41" t="str">
-        <f t="shared" si="20"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="43" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">    91.985002113748, 91.8441157330997, 90.7427608906445, 86.6374685406223, 80.0871698223352, 67.9236654843571, 50.4789361977515,</v>
       </c>
-      <c r="M41" s="35"/>
-      <c r="N41" s="1" t="s">
+      <c r="M47" s="60"/>
+      <c r="N47" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O47" s="62">
         <v>4.584242690959452</v>
       </c>
-      <c r="P41">
+      <c r="P47" s="43">
         <v>4.2746031503783293</v>
       </c>
-      <c r="Q41">
+      <c r="Q47" s="43">
         <v>4.5095381636640219</v>
       </c>
-      <c r="R41">
+      <c r="R47" s="43">
         <v>5.3683537882268819</v>
       </c>
-      <c r="S41">
+      <c r="S47" s="43">
         <v>5.8185190400296554</v>
       </c>
-      <c r="T41">
+      <c r="T47" s="43">
         <v>8.023787622820107</v>
       </c>
-      <c r="U41" s="9">
+      <c r="U47" s="47">
         <v>9.5152827629812951</v>
       </c>
-      <c r="V41" s="8">
-        <f t="shared" si="19"/>
+      <c r="V47" s="42">
+        <f t="shared" si="24"/>
         <v>22.835703447739711</v>
       </c>
-      <c r="X41" t="str">
-        <f t="shared" si="21"/>
+      <c r="X47" s="43" t="str">
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    4.58424269095945, 4.27460315037833, 4.50953816366402, 5.36835378822688, 5.81851904002966, 8.02378762282011, 9.5152827629813,</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
-      <c r="B42" s="1" t="s">
+    <row r="48" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="60"/>
+      <c r="B48" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C48" s="62">
         <v>92.468180366104363</v>
       </c>
-      <c r="D42">
+      <c r="D48" s="43">
         <v>92.104677053061693</v>
       </c>
-      <c r="E42">
+      <c r="E48" s="43">
         <v>91.973737069414582</v>
       </c>
-      <c r="F42">
+      <c r="F48" s="43">
         <v>90.231180372644104</v>
       </c>
-      <c r="G42">
+      <c r="G48" s="43">
         <v>85.680389069387402</v>
       </c>
-      <c r="H42">
+      <c r="H48" s="43">
         <v>69.611797784660126</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I48" s="47">
         <v>51.75655561645415</v>
       </c>
-      <c r="J42" s="8">
-        <f t="shared" si="18"/>
+      <c r="J48" s="42">
+        <f t="shared" si="23"/>
         <v>230.89455161959813</v>
       </c>
-      <c r="K42" s="8"/>
-      <c r="L42" t="str">
-        <f t="shared" si="20"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="43" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">    92.4681803661044, 92.1046770530617, 91.9737370694146, 90.2311803726441, 85.6803890693874, 69.6117977846601, 51.7565556164542,</v>
       </c>
-      <c r="M42" s="35"/>
-      <c r="N42" s="1" t="s">
+      <c r="M48" s="60"/>
+      <c r="N48" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O48" s="62">
         <v>3.9609796946315146</v>
       </c>
-      <c r="P42">
+      <c r="P48" s="43">
         <v>4.0190161872002168</v>
       </c>
-      <c r="Q42">
+      <c r="Q48" s="43">
         <v>3.83425635153686</v>
       </c>
-      <c r="R42">
+      <c r="R48" s="43">
         <v>4.2952439764306201</v>
       </c>
-      <c r="S42">
+      <c r="S48" s="43">
         <v>6.136495380553578</v>
       </c>
-      <c r="T42">
+      <c r="T48" s="43">
         <v>8.317066252642471</v>
       </c>
-      <c r="U42" s="9">
+      <c r="U48" s="47">
         <v>8.3992244772803879</v>
       </c>
-      <c r="V42" s="8">
-        <f t="shared" si="19"/>
+      <c r="V48" s="42">
+        <f t="shared" si="24"/>
         <v>21.558902946975472</v>
       </c>
-      <c r="X42" t="str">
-        <f t="shared" si="21"/>
+      <c r="X48" s="43" t="str">
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    3.96097969463151, 4.01901618720022, 3.83425635153686, 4.29524397643062, 6.13649538055358, 8.31706625264247, 8.39922447728039,</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="3" t="s">
+    <row r="49" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="65"/>
+      <c r="B49" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C49" s="67">
         <v>92.006101323789679</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D49" s="68">
         <v>92.057603652163365</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E49" s="68">
         <v>92.049664666397604</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F49" s="68">
         <v>89.263858115450276</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G49" s="68">
         <v>83.628927365360866</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H49" s="68">
         <v>68.726628807646634</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I49" s="69">
         <v>52.239671459303928</v>
       </c>
-      <c r="J43" s="8">
-        <f t="shared" si="18"/>
+      <c r="J49" s="42">
+        <f t="shared" si="23"/>
         <v>228.84269321147679</v>
       </c>
-      <c r="K43" s="8"/>
-      <c r="L43" t="str">
-        <f t="shared" si="20"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="43" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">    92.0061013237897, 92.0576036521634, 92.0496646663976, 89.2638581154503, 83.6289273653609, 68.7266288076466, 52.2396714593039,</v>
       </c>
-      <c r="M43" s="36"/>
-      <c r="N43" s="3" t="s">
+      <c r="M49" s="65"/>
+      <c r="N49" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="O43" s="18">
+      <c r="O49" s="67">
         <v>4.2420719970357412</v>
       </c>
-      <c r="P43" s="10">
+      <c r="P49" s="68">
         <v>3.8504360503285158</v>
       </c>
-      <c r="Q43" s="10">
+      <c r="Q49" s="68">
         <v>3.9845265645291157</v>
       </c>
-      <c r="R43" s="10">
+      <c r="R49" s="68">
         <v>4.1886516625012451</v>
       </c>
-      <c r="S43" s="10">
+      <c r="S49" s="68">
         <v>5.801232311545804</v>
       </c>
-      <c r="T43" s="10">
+      <c r="T49" s="68">
         <v>8.6400942521937498</v>
       </c>
-      <c r="U43" s="11">
+      <c r="U49" s="69">
         <v>8.5732627645881596</v>
       </c>
-      <c r="V43" s="8">
-        <f t="shared" si="19"/>
+      <c r="V49" s="42">
+        <f t="shared" si="24"/>
         <v>21.737857877610487</v>
       </c>
-      <c r="X43" t="str">
-        <f t="shared" si="21"/>
+      <c r="X49" s="43" t="str">
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    4.24207199703574, 3.85043605032852, 3.98452656452912, 4.18865166250125, 5.8012323115458, 8.64009425219375, 8.57326276458816,</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="M36:U36"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="M37:M43"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="M26:U26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="M14:U14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="M15:M21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="M7:U7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="M11:N11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="M4:U4"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="M17:U17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="M18:M24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M42:U42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="M43:M49"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="M32:U32"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I2">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -3481,7 +3899,27 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="87">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3492,8 +3930,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I3">
-    <cfRule type="colorScale" priority="86">
+  <conditionalFormatting sqref="C8:I15">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3504,7 +3942,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:I3">
+  <conditionalFormatting sqref="C16:I16">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3526,8 +3974,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I12">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="C18:I24 C2:I4 C6:I6">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3538,7 +3986,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:I13">
+  <conditionalFormatting sqref="C18:I24">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:K49 K27:K39 K2:K25">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:I4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3559,7 +4041,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C6:I6">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3570,8 +4054,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:I21 C2:I3">
-    <cfRule type="colorScale" priority="84">
+  <conditionalFormatting sqref="C6:I6">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3582,18 +4076,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:I21">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="J2:J24">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3604,32 +4088,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J21">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K21">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35:K43 K24:K33 K2:K22">
-    <cfRule type="colorScale" priority="92">
+  <conditionalFormatting sqref="K2:K24">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3645,6 +4105,3192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDB0475-4688-4624-81F5-3A7AB998B57E}">
+  <dimension ref="A1:X49"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="15" style="43" customWidth="1"/>
+    <col min="3" max="12" width="9" style="43"/>
+    <col min="13" max="14" width="15" style="43" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="41">
+        <v>1</v>
+      </c>
+      <c r="D1" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="E1" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F1" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="G1" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="H1" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="I1" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="42"/>
+      <c r="M1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="39">
+        <v>1</v>
+      </c>
+      <c r="P1" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="Q1" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="R1" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="S1" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="T1" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="U1" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="42">
+        <v>93.101364775358491</v>
+      </c>
+      <c r="D2" s="42">
+        <v>91.326663725464783</v>
+      </c>
+      <c r="E2" s="42">
+        <v>89.722561037148537</v>
+      </c>
+      <c r="F2" s="42">
+        <v>83.857204647099024</v>
+      </c>
+      <c r="G2" s="42">
+        <v>76.242949045118635</v>
+      </c>
+      <c r="H2" s="42">
+        <v>60.40277741733636</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="42">
+        <f>C2*(1-1)^2+D2*(1-0.75)^2+E2*(1-0.5)^2+F2*(1-0.3)^2+G2*(1-0.2)^2+H2*(1-0.1)^2+I2*(1-0.05)^2</f>
+        <v>166.95032411612559</v>
+      </c>
+      <c r="K2" s="42">
+        <f>J2-166</f>
+        <v>0.95032411612558576</v>
+      </c>
+      <c r="L2" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
+        <v xml:space="preserve">    93.1013647753585, 91.3266637254648, 89.7225610371485, 83.857204647099, 76.2429490451186, 60.4027774173364,</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="45"/>
+      <c r="O2" s="43">
+        <v>3.4649270444699574</v>
+      </c>
+      <c r="P2" s="43">
+        <v>4.4611797621615326</v>
+      </c>
+      <c r="Q2" s="43">
+        <v>4.7712065248821434</v>
+      </c>
+      <c r="R2" s="43">
+        <v>5.3965689103010375</v>
+      </c>
+      <c r="S2" s="43">
+        <v>7.9323757260741923</v>
+      </c>
+      <c r="T2" s="43">
+        <v>9.9900413492801565</v>
+      </c>
+      <c r="U2" s="47">
+        <v>9.7565309936118432</v>
+      </c>
+      <c r="V2" s="42">
+        <f>O2*(1-1)^2+P2*(1-0.75)^2+Q2*(1-0.5)^2+R2*(1-0.3)^2+S2*(1-0.2)^2+T2*(1-0.1)^2+U2*(1-0.05)^2</f>
+        <v>26.089867311742239</v>
+      </c>
+      <c r="X2" s="43" t="str">
+        <f t="shared" ref="X2:X6" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O2:U2)&amp;","</f>
+        <v xml:space="preserve">    3.46492704446996, 4.46117976216153, 4.77120652488214, 5.39656891030104, 7.93237572607419, 9.99004134928016, 9.75653099361184,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="53">
+        <v>92.995175852155583</v>
+      </c>
+      <c r="D3" s="54">
+        <v>92.601977525757164</v>
+      </c>
+      <c r="E3" s="54">
+        <v>91.365703855569691</v>
+      </c>
+      <c r="F3" s="54">
+        <v>85.336787803816065</v>
+      </c>
+      <c r="G3" s="54">
+        <v>79.445367174456536</v>
+      </c>
+      <c r="H3" s="54">
+        <v>66.809493738411803</v>
+      </c>
+      <c r="I3" s="55"/>
+      <c r="J3" s="42">
+        <f>C3*(1-1)^2+D3*(1-0.75)^2+E3*(1-0.5)^2+F3*(1-0.3)^2+G3*(1-0.2)^2+H3*(1-0.1)^2+I3*(1-0.05)^2</f>
+        <v>175.40480050288787</v>
+      </c>
+      <c r="K3" s="42">
+        <f>J3-166</f>
+        <v>9.4048005028878663</v>
+      </c>
+      <c r="L3" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:I3)&amp;","</f>
+        <v xml:space="preserve">    92.9951758521556, 92.6019775257572, 91.3657038555697, 85.3367878038161, 79.4453671744565, 66.8094937384118,</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="53">
+        <v>3.928631333331702</v>
+      </c>
+      <c r="P3" s="54">
+        <v>4.0791594857128057</v>
+      </c>
+      <c r="Q3" s="54">
+        <v>4.0107901806670831</v>
+      </c>
+      <c r="R3" s="54">
+        <v>5.2937552874872571</v>
+      </c>
+      <c r="S3" s="54">
+        <v>6.0121265766979706</v>
+      </c>
+      <c r="T3" s="54">
+        <v>9.4926325608664577</v>
+      </c>
+      <c r="U3" s="55">
+        <v>10.653289736002559</v>
+      </c>
+      <c r="V3" s="42">
+        <f t="shared" ref="V3" si="1">O3*(1-1)^2+P3*(1-0.75)^2+Q3*(1-0.5)^2+R3*(1-0.3)^2+S3*(1-0.2)^2+T3*(1-0.1)^2+U3*(1-0.05)^2</f>
+        <v>25.002972474023419</v>
+      </c>
+      <c r="X3" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    3.9286313333317, 4.07915948571281, 4.01079018066708, 5.29375528748726, 6.01212657669797, 9.49263256086646, 10.6532897360026,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="53">
+        <v>93.338255521241535</v>
+      </c>
+      <c r="D4" s="54">
+        <v>92.752483441321587</v>
+      </c>
+      <c r="E4" s="54">
+        <v>92.131823516351062</v>
+      </c>
+      <c r="F4" s="54">
+        <v>90.735767610446459</v>
+      </c>
+      <c r="G4" s="54">
+        <v>87.866737601536343</v>
+      </c>
+      <c r="H4" s="54">
+        <v>81.281599898499692</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="42">
+        <f>C4*(1-1)^2+D4*(1-0.75)^2+E4*(1-0.5)^2+F4*(1-0.3)^2+G4*(1-0.2)^2+H4*(1-0.1)^2+I4*(1-0.05)^2</f>
+        <v>195.36332020605715</v>
+      </c>
+      <c r="K4" s="42">
+        <f>J4-166</f>
+        <v>29.363320206057153</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="53">
+        <v>3.5369107439949632</v>
+      </c>
+      <c r="P4" s="54">
+        <v>3.4887992911615942</v>
+      </c>
+      <c r="Q4" s="54">
+        <v>3.1759944837676288</v>
+      </c>
+      <c r="R4" s="54">
+        <v>3.616731062282271</v>
+      </c>
+      <c r="S4" s="54">
+        <v>4.5370725036427793</v>
+      </c>
+      <c r="T4" s="54">
+        <v>6.623616076723664</v>
+      </c>
+      <c r="U4" s="55">
+        <v>8.4830340250231</v>
+      </c>
+      <c r="V4" s="42"/>
+    </row>
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="42"/>
+    </row>
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="49">
+        <v>93.118097907421358</v>
+      </c>
+      <c r="D6" s="50">
+        <v>91.523464735854105</v>
+      </c>
+      <c r="E6" s="50">
+        <v>89.983999284884248</v>
+      </c>
+      <c r="F6" s="50">
+        <v>85.977332560546969</v>
+      </c>
+      <c r="G6" s="50">
+        <v>80.809271706502642</v>
+      </c>
+      <c r="H6" s="50">
+        <v>64.483571080488019</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="42">
+        <f>C6*(1-1)^2+D6*(1-0.75)^2+E6*(1-0.5)^2+F6*(1-0.3)^2+G6*(1-0.2)^2+H6*(1-0.1)^2+I6*(1-0.05)^2</f>
+        <v>174.29473578923697</v>
+      </c>
+      <c r="K6" s="42">
+        <f>J6-166</f>
+        <v>8.2947357892369666</v>
+      </c>
+      <c r="L6" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C6:I6)&amp;","</f>
+        <v xml:space="preserve">    93.1180979074214, 91.5234647358541, 89.9839992848842, 85.977332560547, 80.8092717065026, 64.483571080488,</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="49">
+        <v>3.7095020112708061</v>
+      </c>
+      <c r="P6" s="50">
+        <v>4.1472545580497782</v>
+      </c>
+      <c r="Q6" s="50">
+        <v>5.2794593511448591</v>
+      </c>
+      <c r="R6" s="50">
+        <v>4.6638117789428968</v>
+      </c>
+      <c r="S6" s="50">
+        <v>6.2635338476232363</v>
+      </c>
+      <c r="T6" s="50">
+        <v>9.2938511603856284</v>
+      </c>
+      <c r="U6" s="51">
+        <v>8.7638206762757687</v>
+      </c>
+      <c r="V6" s="42">
+        <f t="shared" ref="V6" si="2">O6*(1-1)^2+P6*(1-0.75)^2+Q6*(1-0.5)^2+R6*(1-0.3)^2+S6*(1-0.2)^2+T6*(1-0.1)^2+U6*(1-0.05)^2</f>
+        <v>23.310365282076457</v>
+      </c>
+      <c r="X6" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    3.70950201127081, 4.14725455804978, 5.27945935114486, 4.6638117789429, 6.26353384762324, 9.29385116038563, 8.76382067627577,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="M7" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="42"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="53">
+        <v>93.187876481053763</v>
+      </c>
+      <c r="D8" s="54">
+        <v>92.419943079092363</v>
+      </c>
+      <c r="E8" s="54">
+        <v>91.030305913834312</v>
+      </c>
+      <c r="F8" s="54">
+        <v>87.638062036292141</v>
+      </c>
+      <c r="G8" s="54">
+        <v>81.386496999685718</v>
+      </c>
+      <c r="H8" s="54">
+        <v>61.648901230402799</v>
+      </c>
+      <c r="I8" s="55"/>
+      <c r="J8" s="42">
+        <f>C8*(1-1)^2+D8*(1-0.75)^2+E8*(1-0.5)^2+F8*(1-0.3)^2+G8*(1-0.2)^2+H8*(1-0.1)^2+I8*(1-0.05)^2</f>
+        <v>173.49944139511013</v>
+      </c>
+      <c r="K8" s="42">
+        <f>J8-166</f>
+        <v>7.4994413951101251</v>
+      </c>
+      <c r="L8" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C8:I8)&amp;","</f>
+        <v xml:space="preserve">    93.1878764810538, 92.4199430790924, 91.0303059138343, 87.6380620362921, 81.3864969996857, 61.6489012304028,</v>
+      </c>
+      <c r="M8" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="58"/>
+      <c r="O8" s="53">
+        <v>3.6629641008104143</v>
+      </c>
+      <c r="P8" s="54">
+        <v>4.0854882292556409</v>
+      </c>
+      <c r="Q8" s="54">
+        <v>4.1120388115098363</v>
+      </c>
+      <c r="R8" s="54">
+        <v>5.4598108584907283</v>
+      </c>
+      <c r="S8" s="54">
+        <v>7.5605060738981908</v>
+      </c>
+      <c r="T8" s="54">
+        <v>10.604590630198228</v>
+      </c>
+      <c r="U8" s="55">
+        <v>8.9515611008684157</v>
+      </c>
+      <c r="V8" s="42">
+        <f t="shared" ref="V8:V39" si="3">O8*(1-1)^2+P8*(1-0.75)^2+Q8*(1-0.5)^2+R8*(1-0.3)^2+S8*(1-0.2)^2+T8*(1-0.1)^2+U8*(1-0.05)^2</f>
+        <v>25.465886229155544</v>
+      </c>
+      <c r="X8" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O8:U8)&amp;","</f>
+        <v xml:space="preserve">    3.66296410081041, 4.08548822925564, 4.11203881150984, 5.45981085849073, 7.56050607389819, 10.6045906301982, 8.95156110086842,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="62">
+        <v>93.308803132668416</v>
+      </c>
+      <c r="D9" s="43">
+        <v>92.32654838421324</v>
+      </c>
+      <c r="E9" s="43">
+        <v>90.944131581299729</v>
+      </c>
+      <c r="F9" s="43">
+        <v>88.444112838346342</v>
+      </c>
+      <c r="G9" s="43">
+        <v>81.14231668670719</v>
+      </c>
+      <c r="H9" s="43">
+        <v>62.606790139476402</v>
+      </c>
+      <c r="I9" s="47"/>
+      <c r="J9" s="42">
+        <f>C9*(1-1)^2+D9*(1-0.75)^2+E9*(1-0.5)^2+F9*(1-0.3)^2+G9*(1-0.2)^2+H9*(1-0.1)^2+I9*(1-0.05)^2</f>
+        <v>174.48664015259646</v>
+      </c>
+      <c r="K9" s="42">
+        <f t="shared" ref="K9:K14" si="4">J9-166</f>
+        <v>8.4866401525964648</v>
+      </c>
+      <c r="L9" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:I9)&amp;","</f>
+        <v xml:space="preserve">    93.3088031326684, 92.3265483842132, 90.9441315812997, 88.4441128383463, 81.1423166867072, 62.6067901394764,</v>
+      </c>
+      <c r="M9" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="64"/>
+      <c r="O9" s="62">
+        <v>3.8099284628268744</v>
+      </c>
+      <c r="P9" s="43">
+        <v>4.3923869286198984</v>
+      </c>
+      <c r="Q9" s="43">
+        <v>4.3803548174400602</v>
+      </c>
+      <c r="R9" s="43">
+        <v>5.4605577308245961</v>
+      </c>
+      <c r="S9" s="43">
+        <v>8.0077218140585149</v>
+      </c>
+      <c r="T9" s="43">
+        <v>10.235120772896638</v>
+      </c>
+      <c r="U9" s="47">
+        <v>8.5650148358917502</v>
+      </c>
+      <c r="V9" s="42">
+        <f t="shared" si="3"/>
+        <v>25.190601851938844</v>
+      </c>
+      <c r="X9" s="43" t="str">
+        <f t="shared" ref="X9:X16" si="5">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O9:U9)&amp;","</f>
+        <v xml:space="preserve">    3.80992846282687, 4.3923869286199, 4.38035481744006, 5.4605577308246, 8.00772181405851, 10.2351207728966, 8.56501483589175,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="60"/>
+      <c r="B10" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="62">
+        <v>93.311706848675158</v>
+      </c>
+      <c r="D10" s="43">
+        <v>92.970564912614591</v>
+      </c>
+      <c r="E10" s="43">
+        <v>92.714911028642135</v>
+      </c>
+      <c r="F10" s="43">
+        <v>91.618528995348854</v>
+      </c>
+      <c r="G10" s="43">
+        <v>84.537879508761606</v>
+      </c>
+      <c r="H10" s="43">
+        <v>58.728483810413593</v>
+      </c>
+      <c r="I10" s="47"/>
+      <c r="J10" s="42">
+        <f>C10*(1-1)^2+D10*(1-0.75)^2+E10*(1-0.5)^2+F10*(1-0.3)^2+G10*(1-0.2)^2+H10*(1-0.1)^2+I10*(1-0.05)^2</f>
+        <v>175.55678204396233</v>
+      </c>
+      <c r="K10" s="42">
+        <f t="shared" si="4"/>
+        <v>9.556782043962329</v>
+      </c>
+      <c r="L10" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C10:I10)&amp;","</f>
+        <v xml:space="preserve">    93.3117068486752, 92.9705649126146, 92.7149110286421, 91.6185289953489, 84.5378795087616, 58.7284838104136,</v>
+      </c>
+      <c r="M10" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="64"/>
+      <c r="O10" s="62">
+        <v>3.6854249541106205</v>
+      </c>
+      <c r="P10" s="43">
+        <v>3.5652997191661031</v>
+      </c>
+      <c r="Q10" s="43">
+        <v>3.9267489059362291</v>
+      </c>
+      <c r="R10" s="43">
+        <v>4.1607335839464268</v>
+      </c>
+      <c r="S10" s="43">
+        <v>6.7329594829893642</v>
+      </c>
+      <c r="T10" s="43">
+        <v>10.377592524298565</v>
+      </c>
+      <c r="U10" s="47">
+        <v>7.8998713561129659</v>
+      </c>
+      <c r="V10" s="42">
+        <f t="shared" si="3"/>
+        <v>23.087855827752669</v>
+      </c>
+      <c r="X10" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    3.68542495411062, 3.5652997191661, 3.92674890593623, 4.16073358394643, 6.73295948298936, 10.3775925242986, 7.89987135611297,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="60"/>
+      <c r="B11" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="62">
+        <v>93.259627390086976</v>
+      </c>
+      <c r="D11" s="43">
+        <v>92.96466520759985</v>
+      </c>
+      <c r="E11" s="43">
+        <v>92.449568479542776</v>
+      </c>
+      <c r="F11" s="43">
+        <v>90.955452325135454</v>
+      </c>
+      <c r="G11" s="43">
+        <v>84.191627955259108</v>
+      </c>
+      <c r="H11" s="43">
+        <v>61.887989227127122</v>
+      </c>
+      <c r="I11" s="47"/>
+      <c r="J11" s="42">
+        <f>C11*(1-1)^2+D11*(1-0.75)^2+E11*(1-0.5)^2+F11*(1-0.3)^2+G11*(1-0.2)^2+H11*(1-0.1)^2+I11*(1-0.05)^2</f>
+        <v>177.50276850001586</v>
+      </c>
+      <c r="K11" s="42">
+        <f t="shared" si="4"/>
+        <v>11.502768500015861</v>
+      </c>
+      <c r="L11" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C11:I11)&amp;","</f>
+        <v xml:space="preserve">    93.259627390087, 92.9646652075999, 92.4495684795428, 90.9554523251355, 84.1916279552591, 61.8879892271271,</v>
+      </c>
+      <c r="M11" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="64"/>
+      <c r="O11" s="62">
+        <v>3.3697427990054161</v>
+      </c>
+      <c r="P11" s="43">
+        <v>3.5456273836698302</v>
+      </c>
+      <c r="Q11" s="43">
+        <v>3.8389563711719141</v>
+      </c>
+      <c r="R11" s="43">
+        <v>4.3734364854011272</v>
+      </c>
+      <c r="S11" s="43">
+        <v>7.1466759991199762</v>
+      </c>
+      <c r="T11" s="43">
+        <v>10.218201810253335</v>
+      </c>
+      <c r="U11" s="47">
+        <v>6.8495020521328724</v>
+      </c>
+      <c r="V11" s="42">
+        <f t="shared" si="3"/>
+        <v>22.356616389910801</v>
+      </c>
+      <c r="X11" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    3.36974279900542, 3.54562738366983, 3.83895637117191, 4.37343648540113, 7.14667599911998, 10.2182018102533, 6.84950205213287,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="60"/>
+      <c r="B12" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="62">
+        <v>93.593909405214006</v>
+      </c>
+      <c r="D12" s="43">
+        <v>93.284284466128582</v>
+      </c>
+      <c r="E12" s="43">
+        <v>92.669714559237818</v>
+      </c>
+      <c r="F12" s="43">
+        <v>89.612317868955046</v>
+      </c>
+      <c r="G12" s="43">
+        <v>84.325126803288398</v>
+      </c>
+      <c r="H12" s="43">
+        <v>63.609272859915158</v>
+      </c>
+      <c r="I12" s="47"/>
+      <c r="J12" s="42">
+        <f>C12*(1-1)^2+D12*(1-0.75)^2+E12*(1-0.5)^2+F12*(1-0.3)^2+G12*(1-0.2)^2+H12*(1-0.1)^2+I12*(1-0.05)^2</f>
+        <v>178.39932434536632</v>
+      </c>
+      <c r="K12" s="42">
+        <f t="shared" si="4"/>
+        <v>12.399324345366324</v>
+      </c>
+      <c r="L12" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C12:I12)&amp;","</f>
+        <v xml:space="preserve">    93.593909405214, 93.2842844661286, 92.6697145592378, 89.612317868955, 84.3251268032884, 63.6092728599152,</v>
+      </c>
+      <c r="M12" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="64"/>
+      <c r="O12" s="62">
+        <v>3.5074053242674119</v>
+      </c>
+      <c r="P12" s="43">
+        <v>3.9399538658766482</v>
+      </c>
+      <c r="Q12" s="43">
+        <v>4.159993860751583</v>
+      </c>
+      <c r="R12" s="43">
+        <v>5.1168143294470738</v>
+      </c>
+      <c r="S12" s="43">
+        <v>6.5623946230239643</v>
+      </c>
+      <c r="T12" s="43">
+        <v>11.499157764357163</v>
+      </c>
+      <c r="U12" s="47">
+        <v>10.586918286592827</v>
+      </c>
+      <c r="V12" s="42">
+        <f t="shared" si="3"/>
+        <v>26.862428704748922</v>
+      </c>
+      <c r="X12" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    3.50740532426741, 3.93995386587665, 4.15999386075158, 5.11681432944707, 6.56239462302396, 11.4991577643572, 10.5869182865928,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="60"/>
+      <c r="B13" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="62">
+        <v>93.271403731866201</v>
+      </c>
+      <c r="D13" s="43">
+        <v>93.159332404836263</v>
+      </c>
+      <c r="E13" s="43">
+        <v>92.607934901397655</v>
+      </c>
+      <c r="F13" s="43">
+        <v>91.395767552775823</v>
+      </c>
+      <c r="G13" s="43">
+        <v>86.100098905123176</v>
+      </c>
+      <c r="H13" s="43">
+        <v>60.13909866579008</v>
+      </c>
+      <c r="I13" s="47"/>
+      <c r="J13" s="42">
+        <f>C13*(1-1)^2+D13*(1-0.75)^2+E13*(1-0.5)^2+F13*(1-0.3)^2+G13*(1-0.2)^2+H13*(1-0.1)^2+I13*(1-0.05)^2</f>
+        <v>177.57510132008065</v>
+      </c>
+      <c r="K13" s="42">
+        <f t="shared" si="4"/>
+        <v>11.575101320080648</v>
+      </c>
+      <c r="L13" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C13:I13)&amp;","</f>
+        <v xml:space="preserve">    93.2714037318662, 93.1593324048363, 92.6079349013977, 91.3957675527758, 86.1000989051232, 60.1390986657901,</v>
+      </c>
+      <c r="M13" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="64"/>
+      <c r="O13" s="62">
+        <v>3.311889145333164</v>
+      </c>
+      <c r="P13" s="43">
+        <v>3.5622318729197451</v>
+      </c>
+      <c r="Q13" s="43">
+        <v>3.7249656002914562</v>
+      </c>
+      <c r="R13" s="43">
+        <v>4.592478163076521</v>
+      </c>
+      <c r="S13" s="43">
+        <v>5.9203738735922764</v>
+      </c>
+      <c r="T13" s="43">
+        <v>9.725428258600461</v>
+      </c>
+      <c r="U13" s="47">
+        <v>7.8411073439630128</v>
+      </c>
+      <c r="V13" s="42">
+        <f t="shared" si="3"/>
+        <v>22.147430738529895</v>
+      </c>
+      <c r="X13" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    3.31188914533316, 3.56223187291975, 3.72496560029146, 4.59247816307652, 5.92037387359228, 9.72542825860046, 7.84110734396301,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="65"/>
+      <c r="B14" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="67">
+        <v>93.614587208078504</v>
+      </c>
+      <c r="D14" s="68">
+        <v>92.683728521296331</v>
+      </c>
+      <c r="E14" s="68">
+        <v>92.067301620256245</v>
+      </c>
+      <c r="F14" s="68">
+        <v>89.309630706147985</v>
+      </c>
+      <c r="G14" s="68">
+        <v>84.609852449704022</v>
+      </c>
+      <c r="H14" s="68">
+        <v>64.470915261666036</v>
+      </c>
+      <c r="I14" s="69"/>
+      <c r="J14" s="42">
+        <f>C14*(1-1)^2+D14*(1-0.75)^2+E14*(1-0.5)^2+F14*(1-0.3)^2+G14*(1-0.2)^2+H14*(1-0.1)^2+I14*(1-0.05)^2</f>
+        <v>178.94302441341767</v>
+      </c>
+      <c r="K14" s="42">
+        <f t="shared" si="4"/>
+        <v>12.943024413417675</v>
+      </c>
+      <c r="L14" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C14:I14)&amp;","</f>
+        <v xml:space="preserve">    93.6145872080785, 92.6837285212963, 92.0673016202562, 89.309630706148, 84.609852449704, 64.470915261666,</v>
+      </c>
+      <c r="M14" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="45"/>
+      <c r="O14" s="67">
+        <v>3.5679190940153709</v>
+      </c>
+      <c r="P14" s="68">
+        <v>5.0380655017886244</v>
+      </c>
+      <c r="Q14" s="68">
+        <v>4.1912600383848426</v>
+      </c>
+      <c r="R14" s="68">
+        <v>5.0446554677555504</v>
+      </c>
+      <c r="S14" s="68">
+        <v>6.8308155253380578</v>
+      </c>
+      <c r="T14" s="68">
+        <v>11.985648803016417</v>
+      </c>
+      <c r="U14" s="69">
+        <v>9.3215519312796236</v>
+      </c>
+      <c r="V14" s="42">
+        <f t="shared" si="3"/>
+        <v>26.327373367297731</v>
+      </c>
+      <c r="X14" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    3.56791909401537, 5.03806550178862, 4.19126003838484, 5.04465546775555, 6.83081552533806, 11.9856488030164, 9.32155193127962,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="42"/>
+    </row>
+    <row r="16" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="49">
+        <v>93.365954722791713</v>
+      </c>
+      <c r="D16" s="50">
+        <v>92.953929820615514</v>
+      </c>
+      <c r="E16" s="50">
+        <v>92.363177882161622</v>
+      </c>
+      <c r="F16" s="50">
+        <v>90.139831082737146</v>
+      </c>
+      <c r="G16" s="50">
+        <v>85.704671609039309</v>
+      </c>
+      <c r="H16" s="50">
+        <v>70.630570622006516</v>
+      </c>
+      <c r="I16" s="51"/>
+      <c r="J16" s="42">
+        <f>C16*(1-1)^2+D16*(1-0.75)^2+E16*(1-0.5)^2+F16*(1-0.3)^2+G16*(1-0.2)^2+H16*(1-0.1)^2+I16*(1-0.05)^2</f>
+        <v>185.13068434848051</v>
+      </c>
+      <c r="K16" s="42">
+        <f>J16-185</f>
+        <v>0.13068434848051425</v>
+      </c>
+      <c r="L16" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C16:I16)&amp;","</f>
+        <v xml:space="preserve">    93.3659547227917, 92.9539298206155, 92.3631778821616, 90.1398310827371, 85.7046716090393, 70.6305706220065,</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="67">
+        <v>3.6675181053903749</v>
+      </c>
+      <c r="P16" s="68">
+        <v>3.953165926503563</v>
+      </c>
+      <c r="Q16" s="68">
+        <v>4.1014418287709162</v>
+      </c>
+      <c r="R16" s="68">
+        <v>4.4748820350339917</v>
+      </c>
+      <c r="S16" s="68">
+        <v>5.9464430898845917</v>
+      </c>
+      <c r="T16" s="68">
+        <v>9.9254293554512856</v>
+      </c>
+      <c r="U16" s="69">
+        <v>9.3127481496540874</v>
+      </c>
+      <c r="V16" s="42">
+        <f t="shared" ref="V16" si="6">O16*(1-1)^2+P16*(1-0.75)^2+Q16*(1-0.5)^2+R16*(1-0.3)^2+S16*(1-0.2)^2+T16*(1-0.1)^2+U16*(1-0.05)^2</f>
+        <v>23.715202085270352</v>
+      </c>
+      <c r="X16" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    3.66751810539037, 3.95316592650356, 4.10144182877092, 4.47488203503399, 5.94644308988459, 9.92542935545129, 9.31274814965409,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="M17" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="42"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="54">
+        <v>92.79746076234801</v>
+      </c>
+      <c r="D18" s="54">
+        <v>92.09972981311833</v>
+      </c>
+      <c r="E18" s="54">
+        <v>91.994123363235545</v>
+      </c>
+      <c r="F18" s="54">
+        <v>89.541535826434497</v>
+      </c>
+      <c r="G18" s="54">
+        <v>81.67196083011099</v>
+      </c>
+      <c r="H18" s="54">
+        <v>63.762388371295017</v>
+      </c>
+      <c r="I18" s="55"/>
+      <c r="J18" s="42">
+        <f>C18*(1-1)^2+D18*(1-0.75)^2+E18*(1-0.5)^2+F18*(1-0.3)^2+G18*(1-0.2)^2+H18*(1-0.1)^2+I18*(1-0.05)^2</f>
+        <v>176.5477060211017</v>
+      </c>
+      <c r="K18" s="42">
+        <f>J18-185</f>
+        <v>-8.4522939788982967</v>
+      </c>
+      <c r="L18" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C18:I18)&amp;","</f>
+        <v xml:space="preserve">    92.797460762348, 92.0997298131183, 91.9941233632355, 89.5415358264345, 81.671960830111, 63.762388371295,</v>
+      </c>
+      <c r="M18" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="54">
+        <v>3.5644328509299981</v>
+      </c>
+      <c r="P18" s="54">
+        <v>4.2050438921565183</v>
+      </c>
+      <c r="Q18" s="54">
+        <v>3.8992827190949368</v>
+      </c>
+      <c r="R18" s="54">
+        <v>4.4855441585972624</v>
+      </c>
+      <c r="S18" s="54">
+        <v>6.3300685901903293</v>
+      </c>
+      <c r="T18" s="54">
+        <v>9.4934523864393956</v>
+      </c>
+      <c r="U18" s="55">
+        <v>7.6336882851862198</v>
+      </c>
+      <c r="V18" s="42">
+        <f t="shared" si="3"/>
+        <v>22.06589656886446</v>
+      </c>
+      <c r="X18" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O18:U18)&amp;","</f>
+        <v xml:space="preserve">    3.56443285093, 4.20504389215652, 3.89928271909494, 4.48554415859726, 6.33006859019033, 9.4934523864394, 7.63368828518622,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="60"/>
+      <c r="B19" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="43">
+        <v>92.97743636767332</v>
+      </c>
+      <c r="D19" s="43">
+        <v>92.087691069991962</v>
+      </c>
+      <c r="E19" s="43">
+        <v>91.488331790644082</v>
+      </c>
+      <c r="F19" s="43">
+        <v>87.81749842126662</v>
+      </c>
+      <c r="G19" s="43">
+        <v>80.833879762512382</v>
+      </c>
+      <c r="H19" s="43">
+        <v>68.633586795733521</v>
+      </c>
+      <c r="I19" s="47"/>
+      <c r="J19" s="42">
+        <f>C19*(1-1)^2+D19*(1-0.75)^2+E19*(1-0.5)^2+F19*(1-0.3)^2+G19*(1-0.2)^2+H19*(1-0.1)^2+I19*(1-0.05)^2</f>
+        <v>178.98502621850824</v>
+      </c>
+      <c r="K19" s="42">
+        <f t="shared" ref="K19:K24" si="7">J19-185</f>
+        <v>-6.0149737814917614</v>
+      </c>
+      <c r="L19" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C19:I19)&amp;","</f>
+        <v xml:space="preserve">    92.9774363676733, 92.087691069992, 91.4883317906441, 87.8174984212666, 80.8338797625124, 68.6335867957335,</v>
+      </c>
+      <c r="M19" s="60"/>
+      <c r="N19" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" s="43">
+        <v>3.7639591510057691</v>
+      </c>
+      <c r="P19" s="43">
+        <v>4.104491980795232</v>
+      </c>
+      <c r="Q19" s="43">
+        <v>3.870871676227456</v>
+      </c>
+      <c r="R19" s="43">
+        <v>4.5942331539360346</v>
+      </c>
+      <c r="S19" s="43">
+        <v>6.091605017041668</v>
+      </c>
+      <c r="T19" s="43">
+        <v>7.8884246682162882</v>
+      </c>
+      <c r="U19" s="47">
+        <v>9.5582419416123336</v>
+      </c>
+      <c r="V19" s="42">
+        <f t="shared" si="3"/>
+        <v>22.389987457752213</v>
+      </c>
+      <c r="X19" s="43" t="str">
+        <f t="shared" ref="X19:X24" si="8">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O19:U19)&amp;","</f>
+        <v xml:space="preserve">    3.76395915100577, 4.10449198079523, 3.87087167622746, 4.59423315393603, 6.09160501704167, 7.88842466821629, 9.55824194161233,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="60"/>
+      <c r="B20" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="43">
+        <v>92.962718823980623</v>
+      </c>
+      <c r="D20" s="43">
+        <v>92.579235114490601</v>
+      </c>
+      <c r="E20" s="43">
+        <v>91.736531746237702</v>
+      </c>
+      <c r="F20" s="43">
+        <v>90.831074086569373</v>
+      </c>
+      <c r="G20" s="43">
+        <v>86.960486970763881</v>
+      </c>
+      <c r="H20" s="43">
+        <v>69.958056153888293</v>
+      </c>
+      <c r="I20" s="47"/>
+      <c r="J20" s="42">
+        <f>C20*(1-1)^2+D20*(1-0.75)^2+E20*(1-0.5)^2+F20*(1-0.3)^2+G20*(1-0.2)^2+H20*(1-0.1)^2+I20*(1-0.05)^2</f>
+        <v>185.54829857957247</v>
+      </c>
+      <c r="K20" s="42">
+        <f t="shared" si="7"/>
+        <v>0.54829857957247441</v>
+      </c>
+      <c r="L20" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C20:I20)&amp;","</f>
+        <v xml:space="preserve">    92.9627188239806, 92.5792351144906, 91.7365317462377, 90.8310740865694, 86.9604869707639, 69.9580561538883,</v>
+      </c>
+      <c r="M20" s="60"/>
+      <c r="N20" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="43">
+        <v>3.553358547509589</v>
+      </c>
+      <c r="P20" s="43">
+        <v>3.662068131482219</v>
+      </c>
+      <c r="Q20" s="43">
+        <v>4.032821683747013</v>
+      </c>
+      <c r="R20" s="43">
+        <v>3.6348682459522301</v>
+      </c>
+      <c r="S20" s="43">
+        <v>5.3451431508529517</v>
+      </c>
+      <c r="T20" s="43">
+        <v>8.3081066836923902</v>
+      </c>
+      <c r="U20" s="47">
+        <v>7.8130971653945478</v>
+      </c>
+      <c r="V20" s="42">
+        <f t="shared" si="3"/>
+        <v>20.219948341776291</v>
+      </c>
+      <c r="X20" s="43" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    3.55335854750959, 3.66206813148222, 4.03282168374701, 3.63486824595223, 5.34514315085295, 8.30810668369239, 7.81309716539455,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="60"/>
+      <c r="B21" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="43">
+        <v>91.673641928851779</v>
+      </c>
+      <c r="D21" s="43">
+        <v>91.867395046669955</v>
+      </c>
+      <c r="E21" s="43">
+        <v>91.50381635365936</v>
+      </c>
+      <c r="F21" s="43">
+        <v>91.379175713746079</v>
+      </c>
+      <c r="G21" s="43">
+        <v>88.831829571766775</v>
+      </c>
+      <c r="H21" s="43">
+        <v>70.023970795595105</v>
+      </c>
+      <c r="I21" s="47"/>
+      <c r="J21" s="42">
+        <f>C21*(1-1)^2+D21*(1-0.75)^2+E21*(1-0.5)^2+F21*(1-0.3)^2+G21*(1-0.2)^2+H21*(1-0.1)^2+I21*(1-0.05)^2</f>
+        <v>186.96524964893007</v>
+      </c>
+      <c r="K21" s="42">
+        <f t="shared" si="7"/>
+        <v>1.9652496489300688</v>
+      </c>
+      <c r="L21" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C21:I21)&amp;","</f>
+        <v xml:space="preserve">    91.6736419288518, 91.86739504667, 91.5038163536594, 91.3791757137461, 88.8318295717668, 70.0239707955951,</v>
+      </c>
+      <c r="M21" s="60"/>
+      <c r="N21" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="43">
+        <v>4.0996055394193416</v>
+      </c>
+      <c r="P21" s="43">
+        <v>3.9363678196477259</v>
+      </c>
+      <c r="Q21" s="43">
+        <v>4.4775085930829679</v>
+      </c>
+      <c r="R21" s="43">
+        <v>4.3467311762055054</v>
+      </c>
+      <c r="S21" s="43">
+        <v>5.4186476543956417</v>
+      </c>
+      <c r="T21" s="43">
+        <v>8.3279626177723625</v>
+      </c>
+      <c r="U21" s="47">
+        <v>12.764011594024289</v>
+      </c>
+      <c r="V21" s="42">
+        <f t="shared" si="3"/>
+        <v>25.228403096155169</v>
+      </c>
+      <c r="X21" s="43" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    4.09960553941934, 3.93636781964773, 4.47750859308297, 4.34673117620551, 5.41864765439564, 8.32796261777236, 12.7640115940243,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="60"/>
+      <c r="B22" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="43">
+        <v>92.522198865618762</v>
+      </c>
+      <c r="D22" s="43">
+        <v>92.258701776543617</v>
+      </c>
+      <c r="E22" s="43">
+        <v>91.286063604933133</v>
+      </c>
+      <c r="F22" s="43">
+        <v>87.347272323578352</v>
+      </c>
+      <c r="G22" s="43">
+        <v>80.924079504724673</v>
+      </c>
+      <c r="H22" s="43">
+        <v>68.770987061595122</v>
+      </c>
+      <c r="I22" s="47"/>
+      <c r="J22" s="42">
+        <f>C22*(1-1)^2+D22*(1-0.75)^2+E22*(1-0.5)^2+F22*(1-0.3)^2+G22*(1-0.2)^2+H22*(1-0.1)^2+I22*(1-0.05)^2</f>
+        <v>178.88375860373651</v>
+      </c>
+      <c r="K22" s="42">
+        <f t="shared" si="7"/>
+        <v>-6.1162413962634901</v>
+      </c>
+      <c r="L22" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C22:I22)&amp;","</f>
+        <v xml:space="preserve">    92.5221988656188, 92.2587017765436, 91.2860636049331, 87.3472723235784, 80.9240795047247, 68.7709870615951,</v>
+      </c>
+      <c r="M22" s="60"/>
+      <c r="N22" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="43">
+        <v>4.1122508316799324</v>
+      </c>
+      <c r="P22" s="43">
+        <v>3.9130111858628869</v>
+      </c>
+      <c r="Q22" s="43">
+        <v>4.1402320670424677</v>
+      </c>
+      <c r="R22" s="43">
+        <v>4.9319868448576356</v>
+      </c>
+      <c r="S22" s="43">
+        <v>5.4027181636296984</v>
+      </c>
+      <c r="T22" s="43">
+        <v>7.5963973372628857</v>
+      </c>
+      <c r="U22" s="47">
+        <v>8.757832692110993</v>
+      </c>
+      <c r="V22" s="42">
+        <f t="shared" si="3"/>
+        <v>21.211060242393408</v>
+      </c>
+      <c r="X22" s="43" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    4.11225083167993, 3.91301118586289, 4.14023206704247, 4.93198684485764, 5.4027181636297, 7.59639733726289, 8.75783269211099,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="60"/>
+      <c r="B23" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="43">
+        <v>92.90466180503293</v>
+      </c>
+      <c r="D23" s="43">
+        <v>92.576285261983244</v>
+      </c>
+      <c r="E23" s="43">
+        <v>92.469101520486021</v>
+      </c>
+      <c r="F23" s="43">
+        <v>90.667136682266573</v>
+      </c>
+      <c r="G23" s="43">
+        <v>86.385868389864967</v>
+      </c>
+      <c r="H23" s="43">
+        <v>70.341681156411397</v>
+      </c>
+      <c r="I23" s="47"/>
+      <c r="J23" s="42">
+        <f>C23*(1-1)^2+D23*(1-0.75)^2+E23*(1-0.5)^2+F23*(1-0.3)^2+G23*(1-0.2)^2+H23*(1-0.1)^2+I23*(1-0.05)^2</f>
+        <v>185.59390768951289</v>
+      </c>
+      <c r="K23" s="42">
+        <f t="shared" si="7"/>
+        <v>0.59390768951288919</v>
+      </c>
+      <c r="L23" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C23:I23)&amp;","</f>
+        <v xml:space="preserve">    92.9046618050329, 92.5762852619832, 92.469101520486, 90.6671366822666, 86.385868389865, 70.3416811564114,</v>
+      </c>
+      <c r="M23" s="60"/>
+      <c r="N23" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="43">
+        <v>3.576588513898638</v>
+      </c>
+      <c r="P23" s="43">
+        <v>3.6384489067435961</v>
+      </c>
+      <c r="Q23" s="43">
+        <v>3.4880286605455821</v>
+      </c>
+      <c r="R23" s="43">
+        <v>3.9701665356541431</v>
+      </c>
+      <c r="S23" s="43">
+        <v>5.5319131411834084</v>
+      </c>
+      <c r="T23" s="43">
+        <v>7.9689437293106389</v>
+      </c>
+      <c r="U23" s="47">
+        <v>7.6891218324711899</v>
+      </c>
+      <c r="V23" s="42">
+        <f t="shared" si="3"/>
+        <v>19.979493109182648</v>
+      </c>
+      <c r="X23" s="43" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    3.57658851389864, 3.6384489067436, 3.48802866054558, 3.97016653565414, 5.53191314118341, 7.96894372931064, 7.68912183247119,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="65"/>
+      <c r="B24" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="68">
+        <v>92.532008639059754</v>
+      </c>
+      <c r="D24" s="68">
+        <v>92.511359671508131</v>
+      </c>
+      <c r="E24" s="68">
+        <v>92.431794392685063</v>
+      </c>
+      <c r="F24" s="68">
+        <v>89.802189753659917</v>
+      </c>
+      <c r="G24" s="68">
+        <v>84.27001963684809</v>
+      </c>
+      <c r="H24" s="68">
+        <v>69.728111834877453</v>
+      </c>
+      <c r="I24" s="69"/>
+      <c r="J24" s="42">
+        <f>C24*(1-1)^2+D24*(1-0.75)^2+E24*(1-0.5)^2+F24*(1-0.3)^2+G24*(1-0.2)^2+H24*(1-0.1)^2+I24*(1-0.05)^2</f>
+        <v>183.30556471076738</v>
+      </c>
+      <c r="K24" s="42">
+        <f t="shared" si="7"/>
+        <v>-1.6944352892326151</v>
+      </c>
+      <c r="L24" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C24:I24)&amp;","</f>
+        <v xml:space="preserve">    92.5320086390598, 92.5113596715081, 92.4317943926851, 89.8021897536599, 84.2700196368481, 69.7281118348775,</v>
+      </c>
+      <c r="M24" s="65"/>
+      <c r="N24" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="68">
+        <v>3.8648153044722311</v>
+      </c>
+      <c r="P24" s="68">
+        <v>3.535077470212221</v>
+      </c>
+      <c r="Q24" s="68">
+        <v>3.6384347466350571</v>
+      </c>
+      <c r="R24" s="68">
+        <v>3.8089521492813971</v>
+      </c>
+      <c r="S24" s="68">
+        <v>5.4822989134189646</v>
+      </c>
+      <c r="T24" s="68">
+        <v>8.2183912200903393</v>
+      </c>
+      <c r="U24" s="69">
+        <v>7.7989831950532231</v>
+      </c>
+      <c r="V24" s="42">
+        <f t="shared" si="3"/>
+        <v>20.20108810809176</v>
+      </c>
+      <c r="X24" s="43" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    3.86481530447223, 3.53507747021222, 3.63843474663506, 3.8089521492814, 5.48229891341896, 8.21839122009034, 7.79898319505322,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="V25" s="42"/>
+    </row>
+    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="41">
+        <v>1</v>
+      </c>
+      <c r="D26" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="G26" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="H26" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="42"/>
+      <c r="M26" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="41">
+        <v>1</v>
+      </c>
+      <c r="P26" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="Q26" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="R26" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="S26" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="T26" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="U26" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="V26" s="42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="45"/>
+      <c r="C27" s="50">
+        <v>92.567111769713335</v>
+      </c>
+      <c r="D27" s="50">
+        <v>90.835858608343599</v>
+      </c>
+      <c r="E27" s="50">
+        <v>89.217505339533233</v>
+      </c>
+      <c r="F27" s="50">
+        <v>83.237245964288078</v>
+      </c>
+      <c r="G27" s="50">
+        <v>75.380430844191011</v>
+      </c>
+      <c r="H27" s="50">
+        <v>58.994367187597383</v>
+      </c>
+      <c r="I27" s="51"/>
+      <c r="J27" s="42">
+        <f>C27*(1-1)^2+D27*(1-0.75)^2+E27*(1-0.5)^2+F27*(1-0.3)^2+G27*(1-0.2)^2+H27*(1-0.1)^2+I27*(1-0.05)^2</f>
+        <v>164.79678118264206</v>
+      </c>
+      <c r="K27" s="42"/>
+      <c r="L27" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C27:I27)&amp;","</f>
+        <v xml:space="preserve">    92.5671117697133, 90.8358586083436, 89.2175053395332, 83.2372459642881, 75.380430844191, 58.9943671875974,</v>
+      </c>
+      <c r="M27" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="45"/>
+      <c r="O27" s="43">
+        <v>3.88093621561358</v>
+      </c>
+      <c r="P27" s="43">
+        <v>4.8164746829677396</v>
+      </c>
+      <c r="Q27" s="43">
+        <v>5.2250608386616522</v>
+      </c>
+      <c r="R27" s="43">
+        <v>5.6675721086724113</v>
+      </c>
+      <c r="S27" s="43">
+        <v>8.3263283482936075</v>
+      </c>
+      <c r="T27" s="43">
+        <v>10.49020927094638</v>
+      </c>
+      <c r="U27" s="47">
+        <v>11.060437347759546</v>
+      </c>
+      <c r="V27" s="42">
+        <f t="shared" si="3"/>
+        <v>28.192369569327848</v>
+      </c>
+      <c r="X27" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O27:U27)&amp;","</f>
+        <v xml:space="preserve">    3.88093621561358, 4.81647468296774, 5.22506083866165, 5.66757210867241, 8.32632834829361, 10.4902092709464, 11.0604373477595,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="53">
+        <v>92.57179312551817</v>
+      </c>
+      <c r="D28" s="54">
+        <v>92.192838707727574</v>
+      </c>
+      <c r="E28" s="54">
+        <v>90.943851956216648</v>
+      </c>
+      <c r="F28" s="54">
+        <v>84.818951836070681</v>
+      </c>
+      <c r="G28" s="54">
+        <v>78.583064117934526</v>
+      </c>
+      <c r="H28" s="54">
+        <v>65.470585571249202</v>
+      </c>
+      <c r="I28" s="55"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="M28" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="53">
+        <v>4.2970900200547248</v>
+      </c>
+      <c r="P28" s="54">
+        <v>4.4201469598446934</v>
+      </c>
+      <c r="Q28" s="54">
+        <v>4.3530873376475094</v>
+      </c>
+      <c r="R28" s="54">
+        <v>5.5432639082482673</v>
+      </c>
+      <c r="S28" s="54">
+        <v>6.4601227243547781</v>
+      </c>
+      <c r="T28" s="54">
+        <v>10.02730940337854</v>
+      </c>
+      <c r="U28" s="55">
+        <v>11.78125058878045</v>
+      </c>
+      <c r="V28" s="42"/>
+    </row>
+    <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="53">
+        <v>92.889839945952389</v>
+      </c>
+      <c r="D29" s="54">
+        <v>92.368608847778347</v>
+      </c>
+      <c r="E29" s="54">
+        <v>91.61867960283918</v>
+      </c>
+      <c r="F29" s="54">
+        <v>89.961686047279699</v>
+      </c>
+      <c r="G29" s="54">
+        <v>87.139001834536714</v>
+      </c>
+      <c r="H29" s="54">
+        <v>80.567264866113064</v>
+      </c>
+      <c r="I29" s="55"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="M29" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="53">
+        <v>3.8883797629366761</v>
+      </c>
+      <c r="P29" s="54">
+        <v>3.711237756718714</v>
+      </c>
+      <c r="Q29" s="54">
+        <v>3.4352213659038129</v>
+      </c>
+      <c r="R29" s="54">
+        <v>4.1585281294062861</v>
+      </c>
+      <c r="S29" s="54">
+        <v>4.6717463716671022</v>
+      </c>
+      <c r="T29" s="54">
+        <v>6.9489825587638796</v>
+      </c>
+      <c r="U29" s="55">
+        <v>9.4679343618079876</v>
+      </c>
+      <c r="V29" s="42"/>
+    </row>
+    <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="71"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="42"/>
+    </row>
+    <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="53">
+        <v>92.642127236498098</v>
+      </c>
+      <c r="D31" s="54">
+        <v>91.04461239289904</v>
+      </c>
+      <c r="E31" s="54">
+        <v>89.434796049812732</v>
+      </c>
+      <c r="F31" s="54">
+        <v>85.354372724147197</v>
+      </c>
+      <c r="G31" s="54">
+        <v>80.030044950169284</v>
+      </c>
+      <c r="H31" s="54">
+        <v>63.507304479546157</v>
+      </c>
+      <c r="I31" s="55"/>
+      <c r="J31" s="42">
+        <f>C31*(1-1)^2+D31*(1-0.75)^2+E31*(1-0.5)^2+F31*(1-0.3)^2+G31*(1-0.2)^2+H31*(1-0.1)^2+I31*(1-0.05)^2</f>
+        <v>172.53277531838222</v>
+      </c>
+      <c r="K31" s="42"/>
+      <c r="L31" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C31:I31)&amp;","</f>
+        <v xml:space="preserve">    92.6421272364981, 91.044612392899, 89.4347960498127, 85.3543727241472, 80.0300449501693, 63.5073044795462,</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O31" s="53">
+        <v>4.1195158215033718</v>
+      </c>
+      <c r="P31" s="54">
+        <v>4.4343471318077929</v>
+      </c>
+      <c r="Q31" s="54">
+        <v>5.7830468704553457</v>
+      </c>
+      <c r="R31" s="54">
+        <v>5.0998556431996933</v>
+      </c>
+      <c r="S31" s="54">
+        <v>6.7676736054577464</v>
+      </c>
+      <c r="T31" s="54">
+        <v>9.7329969682947457</v>
+      </c>
+      <c r="U31" s="55">
+        <v>10.28042620138169</v>
+      </c>
+      <c r="V31" s="42">
+        <f>O31*(1-1)^2+P31*(1-0.75)^2+Q31*(1-0.5)^2+R31*(1-0.3)^2+S31*(1-0.2)^2+T31*(1-0.1)^2+U31*(1-0.05)^2</f>
+        <v>25.714960977078352</v>
+      </c>
+      <c r="X31" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O31:U31)&amp;","</f>
+        <v xml:space="preserve">    4.11951582150337, 4.43434713180779, 5.78304687045535, 5.09985564319969, 6.76767360545775, 9.73299696829475, 10.2804262013817,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="M32" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="42"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="53">
+        <v>92.820738792005557</v>
+      </c>
+      <c r="D33" s="54">
+        <v>91.960076103634933</v>
+      </c>
+      <c r="E33" s="54">
+        <v>90.623611228667414</v>
+      </c>
+      <c r="F33" s="54">
+        <v>87.147401908523506</v>
+      </c>
+      <c r="G33" s="54">
+        <v>80.684883446065982</v>
+      </c>
+      <c r="H33" s="54">
+        <v>60.433547736945336</v>
+      </c>
+      <c r="I33" s="55"/>
+      <c r="J33" s="42">
+        <f>C33*(1-1)^2+D33*(1-0.75)^2+E33*(1-0.5)^2+F33*(1-0.3)^2+G33*(1-0.2)^2+H33*(1-0.1)^2+I33*(1-0.05)^2</f>
+        <v>171.6951335712285</v>
+      </c>
+      <c r="K33" s="42"/>
+      <c r="L33" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C33:I33)&amp;","</f>
+        <v xml:space="preserve">    92.8207387920056, 91.9600761036349, 90.6236112286674, 87.1474019085235, 80.684883446066, 60.4335477369453,</v>
+      </c>
+      <c r="M33" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="58"/>
+      <c r="O33" s="53">
+        <v>3.9832785287226642</v>
+      </c>
+      <c r="P33" s="54">
+        <v>4.384481875563857</v>
+      </c>
+      <c r="Q33" s="54">
+        <v>4.3933682019589702</v>
+      </c>
+      <c r="R33" s="54">
+        <v>5.7258360206959802</v>
+      </c>
+      <c r="S33" s="54">
+        <v>7.9571441032328494</v>
+      </c>
+      <c r="T33" s="54">
+        <v>11.156546553337531</v>
+      </c>
+      <c r="U33" s="55">
+        <v>9.8131707087901248</v>
+      </c>
+      <c r="V33" s="42">
+        <f t="shared" si="3"/>
+        <v>27.163793316809027</v>
+      </c>
+      <c r="X33" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O33:U33)&amp;","</f>
+        <v xml:space="preserve">    3.98327852872266, 4.38448187556386, 4.39336820195897, 5.72583602069598, 7.95714410323285, 11.1565465533375, 9.81317070879012,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="60"/>
+      <c r="B34" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="62">
+        <v>92.843284190023084</v>
+      </c>
+      <c r="D34" s="43">
+        <v>91.856981164968985</v>
+      </c>
+      <c r="E34" s="43">
+        <v>90.615255157299202</v>
+      </c>
+      <c r="F34" s="43">
+        <v>87.929534075502005</v>
+      </c>
+      <c r="G34" s="43">
+        <v>80.29266389685057</v>
+      </c>
+      <c r="H34" s="43">
+        <v>61.564100332848938</v>
+      </c>
+      <c r="I34" s="47"/>
+      <c r="J34" s="42">
+        <f>C34*(1-1)^2+D34*(1-0.75)^2+E34*(1-0.5)^2+F34*(1-0.3)^2+G34*(1-0.2)^2+H34*(1-0.1)^2+I34*(1-0.05)^2</f>
+        <v>172.73457297272336</v>
+      </c>
+      <c r="K34" s="42"/>
+      <c r="L34" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C34:I34)&amp;","</f>
+        <v xml:space="preserve">    92.8432841900231, 91.856981164969, 90.6152551572992, 87.929534075502, 80.2926638968506, 61.5641003328489,</v>
+      </c>
+      <c r="M34" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="64"/>
+      <c r="O34" s="62">
+        <v>4.2026089477592938</v>
+      </c>
+      <c r="P34" s="43">
+        <v>4.7417739073745873</v>
+      </c>
+      <c r="Q34" s="43">
+        <v>4.6885884019912742</v>
+      </c>
+      <c r="R34" s="43">
+        <v>5.8474095435593307</v>
+      </c>
+      <c r="S34" s="43">
+        <v>8.5718488634529457</v>
+      </c>
+      <c r="T34" s="43">
+        <v>10.618665895845737</v>
+      </c>
+      <c r="U34" s="47">
+        <v>9.9175631887140572</v>
+      </c>
+      <c r="V34" s="42">
+        <f t="shared" si="3"/>
+        <v>27.371442072112174</v>
+      </c>
+      <c r="X34" s="43" t="str">
+        <f t="shared" ref="X34:X39" si="9">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O34:U34)&amp;","</f>
+        <v xml:space="preserve">    4.20260894775929, 4.74177390737459, 4.68858840199127, 5.84740954355933, 8.57184886345295, 10.6186658958457, 9.91756318871406,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" s="60"/>
+      <c r="B35" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="62">
+        <v>92.887247493957162</v>
+      </c>
+      <c r="D35" s="43">
+        <v>92.526360568571377</v>
+      </c>
+      <c r="E35" s="43">
+        <v>92.335985990442964</v>
+      </c>
+      <c r="F35" s="43">
+        <v>91.21192788290432</v>
+      </c>
+      <c r="G35" s="43">
+        <v>84.049989944177668</v>
+      </c>
+      <c r="H35" s="43">
+        <v>57.414776662034065</v>
+      </c>
+      <c r="I35" s="47"/>
+      <c r="J35" s="42">
+        <f>C35*(1-1)^2+D35*(1-0.75)^2+E35*(1-0.5)^2+F35*(1-0.3)^2+G35*(1-0.2)^2+H35*(1-0.1)^2+I35*(1-0.05)^2</f>
+        <v>173.85870135629091</v>
+      </c>
+      <c r="K35" s="42"/>
+      <c r="L35" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C35:I35)&amp;","</f>
+        <v xml:space="preserve">    92.8872474939572, 92.5263605685714, 92.335985990443, 91.2119278829043, 84.0499899441777, 57.4147766620341,</v>
+      </c>
+      <c r="M35" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35" s="64"/>
+      <c r="O35" s="62">
+        <v>4.0514903154179436</v>
+      </c>
+      <c r="P35" s="43">
+        <v>3.9219831925012953</v>
+      </c>
+      <c r="Q35" s="43">
+        <v>4.2608980592918222</v>
+      </c>
+      <c r="R35" s="43">
+        <v>4.507750995529622</v>
+      </c>
+      <c r="S35" s="43">
+        <v>6.950345110192127</v>
+      </c>
+      <c r="T35" s="43">
+        <v>10.916767692216204</v>
+      </c>
+      <c r="U35" s="47">
+        <v>8.7851414024966488</v>
+      </c>
+      <c r="V35" s="42">
+        <f t="shared" si="3"/>
+        <v>24.738539269135117</v>
+      </c>
+      <c r="X35" s="43" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">    4.05149031541794, 3.9219831925013, 4.26089805929182, 4.50775099552962, 6.95034511019213, 10.9167676922162, 8.78514140249665,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" s="60"/>
+      <c r="B36" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="62">
+        <v>92.843190256650004</v>
+      </c>
+      <c r="D36" s="43">
+        <v>92.587016305792119</v>
+      </c>
+      <c r="E36" s="43">
+        <v>92.099608766333958</v>
+      </c>
+      <c r="F36" s="43">
+        <v>90.524299230603347</v>
+      </c>
+      <c r="G36" s="43">
+        <v>83.646426779948698</v>
+      </c>
+      <c r="H36" s="43">
+        <v>60.416105838288168</v>
+      </c>
+      <c r="I36" s="47"/>
+      <c r="J36" s="42">
+        <f>C36*(1-1)^2+D36*(1-0.75)^2+E36*(1-0.5)^2+F36*(1-0.3)^2+G36*(1-0.2)^2+H36*(1-0.1)^2+I36*(1-0.05)^2</f>
+        <v>175.63925620187172</v>
+      </c>
+      <c r="K36" s="42"/>
+      <c r="L36" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C36:I36)&amp;","</f>
+        <v xml:space="preserve">    92.84319025665, 92.5870163057921, 92.099608766334, 90.5242992306033, 83.6464267799487, 60.4161058382882,</v>
+      </c>
+      <c r="M36" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="64"/>
+      <c r="O36" s="62">
+        <v>3.6611286672079411</v>
+      </c>
+      <c r="P36" s="43">
+        <v>3.8332247685167258</v>
+      </c>
+      <c r="Q36" s="43">
+        <v>4.0987820655435705</v>
+      </c>
+      <c r="R36" s="43">
+        <v>4.7008877850217017</v>
+      </c>
+      <c r="S36" s="43">
+        <v>7.5205052811091608</v>
+      </c>
+      <c r="T36" s="43">
+        <v>10.841519627091911</v>
+      </c>
+      <c r="U36" s="47">
+        <v>7.8755871698222206</v>
+      </c>
+      <c r="V36" s="42">
+        <f t="shared" si="3"/>
+        <v>24.270178777697687</v>
+      </c>
+      <c r="X36" s="43" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">    3.66112866720794, 3.83322476851673, 4.09878206554357, 4.7008877850217, 7.52050528110916, 10.8415196270919, 7.87558716982222,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" s="60"/>
+      <c r="B37" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="62">
+        <v>93.155419737732046</v>
+      </c>
+      <c r="D37" s="43">
+        <v>92.891252101569421</v>
+      </c>
+      <c r="E37" s="43">
+        <v>92.354820431535103</v>
+      </c>
+      <c r="F37" s="43">
+        <v>89.262237664911709</v>
+      </c>
+      <c r="G37" s="43">
+        <v>83.817415142302622</v>
+      </c>
+      <c r="H37" s="43">
+        <v>62.583030132951436</v>
+      </c>
+      <c r="I37" s="47"/>
+      <c r="J37" s="42">
+        <f>C37*(1-1)^2+D37*(1-0.75)^2+E37*(1-0.5)^2+F37*(1-0.3)^2+G37*(1-0.2)^2+H37*(1-0.1)^2+I37*(1-0.05)^2</f>
+        <v>176.96830491880297</v>
+      </c>
+      <c r="K37" s="42"/>
+      <c r="L37" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C37:I37)&amp;","</f>
+        <v xml:space="preserve">    93.155419737732, 92.8912521015694, 92.3548204315351, 89.2622376649117, 83.8174151423026, 62.5830301329514,</v>
+      </c>
+      <c r="M37" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="N37" s="64"/>
+      <c r="O37" s="62">
+        <v>3.8707101747526216</v>
+      </c>
+      <c r="P37" s="43">
+        <v>4.3079284051136435</v>
+      </c>
+      <c r="Q37" s="43">
+        <v>4.4205356766114763</v>
+      </c>
+      <c r="R37" s="43">
+        <v>5.3097950223237715</v>
+      </c>
+      <c r="S37" s="43">
+        <v>6.7759657284130972</v>
+      </c>
+      <c r="T37" s="43">
+        <v>11.798403704025185</v>
+      </c>
+      <c r="U37" s="47">
+        <v>11.537198624213495</v>
+      </c>
+      <c r="V37" s="42">
+        <f t="shared" si="3"/>
+        <v>28.281825830208582</v>
+      </c>
+      <c r="X37" s="43" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">    3.87071017475262, 4.30792840511364, 4.42053567661148, 5.30979502232377, 6.7759657284131, 11.7984037040252, 11.5371986242135,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38" s="60"/>
+      <c r="B38" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="62">
+        <v>92.821279056315362</v>
+      </c>
+      <c r="D38" s="43">
+        <v>92.733480621303571</v>
+      </c>
+      <c r="E38" s="43">
+        <v>92.203500219400965</v>
+      </c>
+      <c r="F38" s="43">
+        <v>91.071302925601856</v>
+      </c>
+      <c r="G38" s="43">
+        <v>85.612815475594061</v>
+      </c>
+      <c r="H38" s="43">
+        <v>58.992680230672832</v>
+      </c>
+      <c r="I38" s="47"/>
+      <c r="J38" s="42">
+        <f>C38*(1-1)^2+D38*(1-0.75)^2+E38*(1-0.5)^2+F38*(1-0.3)^2+G38*(1-0.2)^2+H38*(1-0.1)^2+I38*(1-0.05)^2</f>
+        <v>176.04792891845182</v>
+      </c>
+      <c r="K38" s="42"/>
+      <c r="L38" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C38:I38)&amp;","</f>
+        <v xml:space="preserve">    92.8212790563154, 92.7334806213036, 92.203500219401, 91.0713029256019, 85.6128154755941, 58.9926802306728,</v>
+      </c>
+      <c r="M38" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="64"/>
+      <c r="O38" s="62">
+        <v>3.654167143417371</v>
+      </c>
+      <c r="P38" s="43">
+        <v>3.872585567952481</v>
+      </c>
+      <c r="Q38" s="43">
+        <v>4.0466276106990549</v>
+      </c>
+      <c r="R38" s="43">
+        <v>4.8526676778723434</v>
+      </c>
+      <c r="S38" s="43">
+        <v>6.1913517121362496</v>
+      </c>
+      <c r="T38" s="43">
+        <v>10.091912686159521</v>
+      </c>
+      <c r="U38" s="47">
+        <v>8.6002766636911474</v>
+      </c>
+      <c r="V38" s="42">
+        <f t="shared" si="3"/>
+        <v>23.530164723366916</v>
+      </c>
+      <c r="X38" s="43" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">    3.65416714341737, 3.87258556795248, 4.04662761069905, 4.85266767787234, 6.19135171213625, 10.0919126861595, 8.60027666369115,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="65"/>
+      <c r="B39" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="67">
+        <v>93.243833233650619</v>
+      </c>
+      <c r="D39" s="68">
+        <v>92.244152662300351</v>
+      </c>
+      <c r="E39" s="68">
+        <v>91.779399224683033</v>
+      </c>
+      <c r="F39" s="68">
+        <v>88.942376530063612</v>
+      </c>
+      <c r="G39" s="68">
+        <v>84.074415427072154</v>
+      </c>
+      <c r="H39" s="68">
+        <v>63.593677785045287</v>
+      </c>
+      <c r="I39" s="69"/>
+      <c r="J39" s="42">
+        <f>C39*(1-1)^2+D39*(1-0.75)^2+E39*(1-0.5)^2+F39*(1-0.3)^2+G39*(1-0.2)^2+H39*(1-0.1)^2+I39*(1-0.05)^2</f>
+        <v>177.61037872650857</v>
+      </c>
+      <c r="K39" s="42"/>
+      <c r="L39" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C39:I39)&amp;","</f>
+        <v xml:space="preserve">    93.2438332336506, 92.2441526623004, 91.779399224683, 88.9423765300636, 84.0744154270722, 63.5936777850453,</v>
+      </c>
+      <c r="M39" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="N39" s="45"/>
+      <c r="O39" s="67">
+        <v>3.8779021026816878</v>
+      </c>
+      <c r="P39" s="68">
+        <v>5.459933038676585</v>
+      </c>
+      <c r="Q39" s="68">
+        <v>4.314698164495594</v>
+      </c>
+      <c r="R39" s="68">
+        <v>5.2914242658912007</v>
+      </c>
+      <c r="S39" s="68">
+        <v>7.0686449776166889</v>
+      </c>
+      <c r="T39" s="68">
+        <v>12.320009696250258</v>
+      </c>
+      <c r="U39" s="69">
+        <v>10.2959016132948</v>
+      </c>
+      <c r="V39" s="42">
+        <f t="shared" si="3"/>
+        <v>27.807910091963823</v>
+      </c>
+      <c r="X39" s="43" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">    3.87790210268169, 5.45993303867658, 4.31469816449559, 5.2914242658912, 7.06864497761669, 12.3200096962503, 10.2959016132948,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="49">
+        <v>92.975071912418201</v>
+      </c>
+      <c r="D41" s="50">
+        <v>92.482655480114417</v>
+      </c>
+      <c r="E41" s="50">
+        <v>91.947118259611926</v>
+      </c>
+      <c r="F41" s="50">
+        <v>89.588706846116352</v>
+      </c>
+      <c r="G41" s="50">
+        <v>85.165438929554142</v>
+      </c>
+      <c r="H41" s="50">
+        <v>69.625673799562222</v>
+      </c>
+      <c r="I41" s="51"/>
+      <c r="J41" s="42">
+        <f>C41*(1-1)^2+D41*(1-0.75)^2+E41*(1-0.5)^2+F41*(1-0.3)^2+G41*(1-0.2)^2+H41*(1-0.1)^2+I41*(1-0.05)^2</f>
+        <v>183.56808857956719</v>
+      </c>
+      <c r="K41" s="42"/>
+      <c r="L41" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C41:I41)&amp;","</f>
+        <v xml:space="preserve">    92.9750719124182, 92.4826554801144, 91.9471182596119, 89.5887068461164, 85.1654389295541, 69.6256737995622,</v>
+      </c>
+      <c r="M41" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="O41" s="49">
+        <v>4.0214791322193637</v>
+      </c>
+      <c r="P41" s="50">
+        <v>4.3522992567212775</v>
+      </c>
+      <c r="Q41" s="50">
+        <v>4.4820499145717267</v>
+      </c>
+      <c r="R41" s="50">
+        <v>4.8870823953070817</v>
+      </c>
+      <c r="S41" s="50">
+        <v>6.2067997320749191</v>
+      </c>
+      <c r="T41" s="50">
+        <v>10.534977026910749</v>
+      </c>
+      <c r="U41" s="51">
+        <v>11.21955342401594</v>
+      </c>
+      <c r="V41" s="42">
+        <f>O41*(1-1)^2+P41*(1-0.75)^2+Q41*(1-0.5)^2+R41*(1-0.3)^2+S41*(1-0.2)^2+T41*(1-0.1)^2+U41*(1-0.05)^2</f>
+        <v>26.418531741388524</v>
+      </c>
+      <c r="X41" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O41:U41)&amp;","</f>
+        <v xml:space="preserve">    4.02147913221936, 4.35229925672128, 4.48204991457173, 4.88708239530708, 6.20679973207492, 10.5349770269107, 11.2195534240159,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="M42" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" s="76"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="76"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="77"/>
+      <c r="V42" s="42"/>
+    </row>
+    <row r="43" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="53">
+        <v>92.247186116496749</v>
+      </c>
+      <c r="D43" s="54">
+        <v>91.597884605320203</v>
+      </c>
+      <c r="E43" s="54">
+        <v>91.511680603905845</v>
+      </c>
+      <c r="F43" s="54">
+        <v>89.06343871798687</v>
+      </c>
+      <c r="G43" s="54">
+        <v>81.057166591460046</v>
+      </c>
+      <c r="H43" s="54">
+        <v>62.491303085185713</v>
+      </c>
+      <c r="I43" s="55"/>
+      <c r="J43" s="42">
+        <f>C43*(1-1)^2+D43*(1-0.75)^2+E43*(1-0.5)^2+F43*(1-0.3)^2+G43*(1-0.2)^2+H43*(1-0.1)^2+I43*(1-0.05)^2</f>
+        <v>174.73841502815742</v>
+      </c>
+      <c r="K43" s="42"/>
+      <c r="L43" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C43:I43)&amp;","</f>
+        <v xml:space="preserve">    92.2471861164967, 91.5978846053202, 91.5116806039058, 89.0634387179869, 81.05716659146, 62.4913030851857,</v>
+      </c>
+      <c r="M43" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="N43" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="O43" s="53">
+        <v>3.9865771746241632</v>
+      </c>
+      <c r="P43" s="54">
+        <v>4.5536660342110613</v>
+      </c>
+      <c r="Q43" s="54">
+        <v>4.2864648182838208</v>
+      </c>
+      <c r="R43" s="54">
+        <v>4.8749175943812801</v>
+      </c>
+      <c r="S43" s="54">
+        <v>6.6195690033276033</v>
+      </c>
+      <c r="T43" s="54">
+        <v>9.9975260632023684</v>
+      </c>
+      <c r="U43" s="55">
+        <v>8.9088892578240788</v>
+      </c>
+      <c r="V43" s="42">
+        <f t="shared" ref="V43:V49" si="10">O43*(1-1)^2+P43*(1-0.75)^2+Q43*(1-0.5)^2+R43*(1-0.3)^2+S43*(1-0.2)^2+T43*(1-0.1)^2+U43*(1-0.05)^2</f>
+        <v>24.119722781465789</v>
+      </c>
+      <c r="X43" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O43:U43)&amp;","</f>
+        <v xml:space="preserve">    3.98657717462416, 4.55366603421106, 4.28646481828382, 4.87491759438128, 6.6195690033276, 9.99752606320237, 8.90888925782408,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="60"/>
+      <c r="B44" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="62">
+        <v>92.563160936089858</v>
+      </c>
+      <c r="D44" s="43">
+        <v>91.671343853121428</v>
+      </c>
+      <c r="E44" s="43">
+        <v>90.948470471508386</v>
+      </c>
+      <c r="F44" s="43">
+        <v>87.250446788778675</v>
+      </c>
+      <c r="G44" s="43">
+        <v>80.245135880766256</v>
+      </c>
+      <c r="H44" s="43">
+        <v>67.618957114876295</v>
+      </c>
+      <c r="I44" s="47"/>
+      <c r="J44" s="42">
+        <f>C44*(1-1)^2+D44*(1-0.75)^2+E44*(1-0.5)^2+F44*(1-0.3)^2+G44*(1-0.2)^2+H44*(1-0.1)^2+I44*(1-0.05)^2</f>
+        <v>177.34753776193895</v>
+      </c>
+      <c r="K44" s="42"/>
+      <c r="L44" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C44:I44)&amp;","</f>
+        <v xml:space="preserve">    92.5631609360899, 91.6713438531214, 90.9484704715084, 87.2504467887787, 80.2451358807663, 67.6189571148763,</v>
+      </c>
+      <c r="M44" s="60"/>
+      <c r="N44" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="62">
+        <v>4.1570380941436529</v>
+      </c>
+      <c r="P44" s="43">
+        <v>4.4322456207651824</v>
+      </c>
+      <c r="Q44" s="43">
+        <v>4.2573142592404345</v>
+      </c>
+      <c r="R44" s="43">
+        <v>4.9623460503589669</v>
+      </c>
+      <c r="S44" s="43">
+        <v>6.4761990460733738</v>
+      </c>
+      <c r="T44" s="43">
+        <v>8.2894024682649388</v>
+      </c>
+      <c r="U44" s="47">
+        <v>10.578972903017011</v>
+      </c>
+      <c r="V44" s="42">
+        <f t="shared" si="10"/>
+        <v>24.179599914538237</v>
+      </c>
+      <c r="X44" s="43" t="str">
+        <f t="shared" ref="X44:X49" si="11">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,O44:U44)&amp;","</f>
+        <v xml:space="preserve">    4.15703809414365, 4.43224562076518, 4.25731425924043, 4.96234605035897, 6.47619904607337, 8.28940246826494, 10.578972903017,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="60"/>
+      <c r="B45" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="62">
+        <v>92.54556139569759</v>
+      </c>
+      <c r="D45" s="43">
+        <v>92.097749123542997</v>
+      </c>
+      <c r="E45" s="43">
+        <v>91.149446409986609</v>
+      </c>
+      <c r="F45" s="43">
+        <v>90.378692861325263</v>
+      </c>
+      <c r="G45" s="43">
+        <v>86.31037090347165</v>
+      </c>
+      <c r="H45" s="43">
+        <v>69.052071672901974</v>
+      </c>
+      <c r="I45" s="47"/>
+      <c r="J45" s="42">
+        <f>C45*(1-1)^2+D45*(1-0.75)^2+E45*(1-0.5)^2+F45*(1-0.3)^2+G45*(1-0.2)^2+H45*(1-0.1)^2+I45*(1-0.05)^2</f>
+        <v>183.99984585803992</v>
+      </c>
+      <c r="K45" s="42"/>
+      <c r="L45" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C45:I45)&amp;","</f>
+        <v xml:space="preserve">    92.5455613956976, 92.097749123543, 91.1494464099866, 90.3786928613253, 86.3103709034717, 69.052071672902,</v>
+      </c>
+      <c r="M45" s="60"/>
+      <c r="N45" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="O45" s="62">
+        <v>3.8704157166302662</v>
+      </c>
+      <c r="P45" s="43">
+        <v>4.0030091744950544</v>
+      </c>
+      <c r="Q45" s="43">
+        <v>4.4384106113763231</v>
+      </c>
+      <c r="R45" s="43">
+        <v>3.896528380448768</v>
+      </c>
+      <c r="S45" s="43">
+        <v>5.8710282292811753</v>
+      </c>
+      <c r="T45" s="43">
+        <v>8.8278448465735444</v>
+      </c>
+      <c r="U45" s="47">
+        <v>8.7581295305693558</v>
+      </c>
+      <c r="V45" s="42">
+        <f t="shared" si="10"/>
+        <v>22.081313926473285</v>
+      </c>
+      <c r="X45" s="43" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">    3.87041571663027, 4.00300917449505, 4.43841061137632, 3.89652838044877, 5.87102822928118, 8.82784484657354, 8.75812953056936,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="60"/>
+      <c r="B46" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="62">
+        <v>91.108963215218992</v>
+      </c>
+      <c r="D46" s="43">
+        <v>91.422451190382446</v>
+      </c>
+      <c r="E46" s="43">
+        <v>91.028164807377692</v>
+      </c>
+      <c r="F46" s="43">
+        <v>90.92155498404928</v>
+      </c>
+      <c r="G46" s="43">
+        <v>88.366911725212944</v>
+      </c>
+      <c r="H46" s="43">
+        <v>69.467496738004868</v>
+      </c>
+      <c r="I46" s="47"/>
+      <c r="J46" s="42">
+        <f>C46*(1-1)^2+D46*(1-0.75)^2+E46*(1-0.5)^2+F46*(1-0.3)^2+G46*(1-0.2)^2+H46*(1-0.1)^2+I46*(1-0.05)^2</f>
+        <v>185.8460022053477</v>
+      </c>
+      <c r="K46" s="42"/>
+      <c r="L46" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C46:I46)&amp;","</f>
+        <v xml:space="preserve">    91.108963215219, 91.4224511903824, 91.0281648073777, 90.9215549840493, 88.3669117252129, 69.4674967380049,</v>
+      </c>
+      <c r="M46" s="60"/>
+      <c r="N46" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="O46" s="62">
+        <v>4.5721711205283091</v>
+      </c>
+      <c r="P46" s="43">
+        <v>4.2450282469621561</v>
+      </c>
+      <c r="Q46" s="43">
+        <v>4.9010444377823665</v>
+      </c>
+      <c r="R46" s="43">
+        <v>4.7536885250114933</v>
+      </c>
+      <c r="S46" s="43">
+        <v>5.7319162671252464</v>
+      </c>
+      <c r="T46" s="43">
+        <v>8.5643761177203679</v>
+      </c>
+      <c r="U46" s="47">
+        <v>13.3397749958867</v>
+      </c>
+      <c r="V46" s="42">
+        <f t="shared" si="10"/>
+        <v>26.464600752237761</v>
+      </c>
+      <c r="X46" s="43" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">    4.57217112052831, 4.24502824696216, 4.90104443778237, 4.75368852501149, 5.73191626712525, 8.56437611772037, 13.3397749958867,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="60"/>
+      <c r="B47" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="62">
+        <v>91.985002113747967</v>
+      </c>
+      <c r="D47" s="43">
+        <v>91.844115733099713</v>
+      </c>
+      <c r="E47" s="43">
+        <v>90.74276089064449</v>
+      </c>
+      <c r="F47" s="43">
+        <v>86.637468540622294</v>
+      </c>
+      <c r="G47" s="43">
+        <v>80.087169822335198</v>
+      </c>
+      <c r="H47" s="43">
+        <v>67.923665484357144</v>
+      </c>
+      <c r="I47" s="47"/>
+      <c r="J47" s="42">
+        <f>C47*(1-1)^2+D47*(1-0.75)^2+E47*(1-0.5)^2+F47*(1-0.3)^2+G47*(1-0.2)^2+H47*(1-0.1)^2+I47*(1-0.05)^2</f>
+        <v>177.15226476950861</v>
+      </c>
+      <c r="K47" s="42"/>
+      <c r="L47" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C47:I47)&amp;","</f>
+        <v xml:space="preserve">    91.985002113748, 91.8441157330997, 90.7427608906445, 86.6374685406223, 80.0871698223352, 67.9236654843571,</v>
+      </c>
+      <c r="M47" s="60"/>
+      <c r="N47" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="O47" s="62">
+        <v>4.584242690959452</v>
+      </c>
+      <c r="P47" s="43">
+        <v>4.2746031503783293</v>
+      </c>
+      <c r="Q47" s="43">
+        <v>4.5095381636640219</v>
+      </c>
+      <c r="R47" s="43">
+        <v>5.3683537882268819</v>
+      </c>
+      <c r="S47" s="43">
+        <v>5.8185190400296554</v>
+      </c>
+      <c r="T47" s="43">
+        <v>8.023787622820107</v>
+      </c>
+      <c r="U47" s="47">
+        <v>9.5152827629812951</v>
+      </c>
+      <c r="V47" s="42">
+        <f t="shared" si="10"/>
+        <v>22.835703447739711</v>
+      </c>
+      <c r="X47" s="43" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">    4.58424269095945, 4.27460315037833, 4.50953816366402, 5.36835378822688, 5.81851904002966, 8.02378762282011, 9.5152827629813,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="60"/>
+      <c r="B48" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="62">
+        <v>92.468180366104363</v>
+      </c>
+      <c r="D48" s="43">
+        <v>92.104677053061693</v>
+      </c>
+      <c r="E48" s="43">
+        <v>91.973737069414582</v>
+      </c>
+      <c r="F48" s="43">
+        <v>90.231180372644104</v>
+      </c>
+      <c r="G48" s="43">
+        <v>85.680389069387402</v>
+      </c>
+      <c r="H48" s="43">
+        <v>69.611797784660126</v>
+      </c>
+      <c r="I48" s="47"/>
+      <c r="J48" s="42">
+        <f>C48*(1-1)^2+D48*(1-0.75)^2+E48*(1-0.5)^2+F48*(1-0.3)^2+G48*(1-0.2)^2+H48*(1-0.1)^2+I48*(1-0.05)^2</f>
+        <v>184.18426017574825</v>
+      </c>
+      <c r="K48" s="42"/>
+      <c r="L48" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C48:I48)&amp;","</f>
+        <v xml:space="preserve">    92.4681803661044, 92.1046770530617, 91.9737370694146, 90.2311803726441, 85.6803890693874, 69.6117977846601,</v>
+      </c>
+      <c r="M48" s="60"/>
+      <c r="N48" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="O48" s="62">
+        <v>3.9609796946315146</v>
+      </c>
+      <c r="P48" s="43">
+        <v>4.0190161872002168</v>
+      </c>
+      <c r="Q48" s="43">
+        <v>3.83425635153686</v>
+      </c>
+      <c r="R48" s="43">
+        <v>4.2952439764306201</v>
+      </c>
+      <c r="S48" s="43">
+        <v>6.136495380553578</v>
+      </c>
+      <c r="T48" s="43">
+        <v>8.317066252642471</v>
+      </c>
+      <c r="U48" s="47">
+        <v>8.3992244772803879</v>
+      </c>
+      <c r="V48" s="42">
+        <f t="shared" si="10"/>
+        <v>21.558902946975472</v>
+      </c>
+      <c r="X48" s="43" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">    3.96097969463151, 4.01901618720022, 3.83425635153686, 4.29524397643062, 6.13649538055358, 8.31706625264247, 8.39922447728039,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="65"/>
+      <c r="B49" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="67">
+        <v>92.006101323789679</v>
+      </c>
+      <c r="D49" s="68">
+        <v>92.057603652163365</v>
+      </c>
+      <c r="E49" s="68">
+        <v>92.049664666397604</v>
+      </c>
+      <c r="F49" s="68">
+        <v>89.263858115450276</v>
+      </c>
+      <c r="G49" s="68">
+        <v>83.628927365360866</v>
+      </c>
+      <c r="H49" s="68">
+        <v>68.726628807646634</v>
+      </c>
+      <c r="I49" s="69"/>
+      <c r="J49" s="42">
+        <f>C49*(1-1)^2+D49*(1-0.75)^2+E49*(1-0.5)^2+F49*(1-0.3)^2+G49*(1-0.2)^2+H49*(1-0.1)^2+I49*(1-0.05)^2</f>
+        <v>181.696389719455</v>
+      </c>
+      <c r="K49" s="42"/>
+      <c r="L49" s="43" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C49:I49)&amp;","</f>
+        <v xml:space="preserve">    92.0061013237897, 92.0576036521634, 92.0496646663976, 89.2638581154503, 83.6289273653609, 68.7266288076466,</v>
+      </c>
+      <c r="M49" s="65"/>
+      <c r="N49" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="O49" s="67">
+        <v>4.2420719970357412</v>
+      </c>
+      <c r="P49" s="68">
+        <v>3.8504360503285158</v>
+      </c>
+      <c r="Q49" s="68">
+        <v>3.9845265645291157</v>
+      </c>
+      <c r="R49" s="68">
+        <v>4.1886516625012451</v>
+      </c>
+      <c r="S49" s="68">
+        <v>5.801232311545804</v>
+      </c>
+      <c r="T49" s="68">
+        <v>8.6400942521937498</v>
+      </c>
+      <c r="U49" s="69">
+        <v>8.5732627645881596</v>
+      </c>
+      <c r="V49" s="42">
+        <f t="shared" si="10"/>
+        <v>21.737857877610487</v>
+      </c>
+      <c r="X49" s="43" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">    4.24207199703574, 3.85043605032852, 3.98452656452912, 4.18865166250125, 5.8012323115458, 8.64009425219375, 8.57326276458816,</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M42:U42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="M43:M49"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="M32:U32"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="M17:U17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="M18:M24"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="M7:U7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:I2">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:I15">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:I16">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:I24 C2:I4 C6:I6">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:I24">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:K49 K27:K39 K2:K25">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:I4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C6:I6">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:I6">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J24">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K24">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B505709-9291-4D65-8370-794D2558CA06}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U77"/>
@@ -3722,10 +7368,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="8">
         <v>93.101364775358491</v>
       </c>
@@ -3751,10 +7397,10 @@
         <f>C2*(1-1)^2+D2*(1-0.75)^2+E2*(1-0.5)^2+F2*(1-0.3)^2+G2*(1-0.2)^2+H2*(1-0.1)^2+I2*(1-0.05)^2</f>
         <v>210.03648663339072</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="30"/>
+      <c r="M2" s="38"/>
       <c r="N2">
         <v>3.4649270444699574</v>
       </c>
@@ -3782,33 +7428,33 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="8"/>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
       <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -3839,10 +7485,10 @@
         <f t="shared" ref="J4:J66" si="0">C4*(1-1)^2+D4*(1-0.75)^2+E4*(1-0.5)^2+F4*(1-0.3)^2+G4*(1-0.2)^2+H4*(1-0.1)^2+I4*(1-0.05)^2</f>
         <v>218.80459423668603</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="33"/>
+      <c r="M4" s="34"/>
       <c r="N4" s="16">
         <v>3.6629641008104143</v>
       </c>
@@ -3870,7 +7516,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3899,10 +7545,10 @@
         <f t="shared" si="0"/>
         <v>217.59436344605055</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="28"/>
+      <c r="M5" s="36"/>
       <c r="N5" s="17">
         <v>3.8099284628268744</v>
       </c>
@@ -3930,7 +7576,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3959,10 +7605,10 @@
         <f t="shared" si="0"/>
         <v>217.3617530140111</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="28"/>
+      <c r="M6" s="36"/>
       <c r="N6" s="17">
         <v>3.6854249541106205</v>
       </c>
@@ -3990,7 +7636,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4019,10 +7665,10 @@
         <f t="shared" si="0"/>
         <v>219.80501138273976</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="28"/>
+      <c r="M7" s="36"/>
       <c r="N7" s="17">
         <v>3.3697427990054161</v>
       </c>
@@ -4050,7 +7696,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4079,10 +7725,10 @@
         <f t="shared" si="0"/>
         <v>223.0027487406177</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="28"/>
+      <c r="M8" s="36"/>
       <c r="N8" s="17">
         <v>3.5074053242674119</v>
       </c>
@@ -4110,7 +7756,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -4139,10 +7785,10 @@
         <f t="shared" si="0"/>
         <v>218.40620703177942</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="28"/>
+      <c r="M9" s="36"/>
       <c r="N9" s="17">
         <v>3.311889145333164</v>
       </c>
@@ -4170,7 +7816,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -4199,10 +7845,10 @@
         <f t="shared" si="0"/>
         <v>224.6664485058983</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="30"/>
+      <c r="M10" s="38"/>
       <c r="N10" s="18">
         <v>3.5679190940153709</v>
       </c>
@@ -4294,33 +7940,33 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="8"/>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="34"/>
       <c r="U12" s="8"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -4351,7 +7997,7 @@
         <f t="shared" si="0"/>
         <v>212.61981313996375</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="29" t="s">
         <v>6</v>
       </c>
       <c r="M13" s="20" t="s">
@@ -4384,7 +8030,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="21" t="s">
         <v>8</v>
       </c>
@@ -4413,7 +8059,7 @@
         <f t="shared" si="0"/>
         <v>212.88069125453794</v>
       </c>
-      <c r="L14" s="35"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="21" t="s">
         <v>8</v>
       </c>
@@ -4444,7 +8090,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="21" t="s">
         <v>9</v>
       </c>
@@ -4473,7 +8119,7 @@
         <f t="shared" si="0"/>
         <v>212.38988345487419</v>
       </c>
-      <c r="L15" s="35"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="21" t="s">
         <v>9</v>
       </c>
@@ -4504,7 +8150,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="21" t="s">
         <v>10</v>
       </c>
@@ -4533,7 +8179,7 @@
         <f t="shared" si="0"/>
         <v>214.46952960233219</v>
       </c>
-      <c r="L16" s="35"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="21" t="s">
         <v>10</v>
       </c>
@@ -4564,7 +8210,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="21" t="s">
         <v>11</v>
       </c>
@@ -4593,7 +8239,7 @@
         <f t="shared" si="0"/>
         <v>212.14564838363654</v>
       </c>
-      <c r="L17" s="35"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="21" t="s">
         <v>11</v>
       </c>
@@ -4624,7 +8270,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="21" t="s">
         <v>12</v>
       </c>
@@ -4653,7 +8299,7 @@
         <f t="shared" si="0"/>
         <v>212.9602462824073</v>
       </c>
-      <c r="L18" s="35"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="21" t="s">
         <v>12</v>
       </c>
@@ -4684,7 +8330,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="22" t="s">
         <v>13</v>
       </c>
@@ -4713,7 +8359,7 @@
         <f t="shared" si="0"/>
         <v>214.51691346810958</v>
       </c>
-      <c r="L19" s="36"/>
+      <c r="L19" s="31"/>
       <c r="M19" s="22" t="s">
         <v>13</v>
       </c>
@@ -4808,33 +8454,33 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="8"/>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="34"/>
       <c r="U21" s="8"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -4865,10 +8511,10 @@
         <f t="shared" si="0"/>
         <v>214.93242861097414</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="33"/>
+      <c r="M22" s="34"/>
       <c r="N22" s="16">
         <v>4.0604681413027759</v>
       </c>
@@ -4896,7 +8542,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
@@ -4925,10 +8571,10 @@
         <f t="shared" si="0"/>
         <v>218.17257029328397</v>
       </c>
-      <c r="L23" s="27" t="s">
+      <c r="L23" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="28"/>
+      <c r="M23" s="36"/>
       <c r="N23" s="17">
         <v>3.7273868073115999</v>
       </c>
@@ -4956,7 +8602,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
@@ -4985,10 +8631,10 @@
         <f t="shared" si="0"/>
         <v>219.91795577816416</v>
       </c>
-      <c r="L24" s="27" t="s">
+      <c r="L24" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="28"/>
+      <c r="M24" s="36"/>
       <c r="N24" s="17">
         <v>3.4295909202045869</v>
       </c>
@@ -5016,7 +8662,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -5045,10 +8691,10 @@
         <f t="shared" si="0"/>
         <v>214.06066365914356</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="L25" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="28"/>
+      <c r="M25" s="36"/>
       <c r="N25" s="17">
         <v>3.9135246883003809</v>
       </c>
@@ -5076,7 +8722,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
@@ -5105,10 +8751,10 @@
         <f t="shared" si="0"/>
         <v>218.22064161454685</v>
       </c>
-      <c r="L26" s="27" t="s">
+      <c r="L26" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M26" s="28"/>
+      <c r="M26" s="36"/>
       <c r="N26" s="17">
         <v>3.6530588713239762</v>
       </c>
@@ -5136,7 +8782,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
@@ -5165,10 +8811,10 @@
         <f t="shared" si="0"/>
         <v>219.61939571997451</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="28"/>
+      <c r="M27" s="36"/>
       <c r="N27" s="17">
         <v>3.5926935072213531</v>
       </c>
@@ -5196,7 +8842,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
@@ -5225,10 +8871,10 @@
         <f t="shared" si="0"/>
         <v>218.49878201801056</v>
       </c>
-      <c r="L28" s="29" t="s">
+      <c r="L28" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="30"/>
+      <c r="M28" s="38"/>
       <c r="N28" s="17">
         <v>3.4324011613438459</v>
       </c>
@@ -5320,33 +8966,33 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="8"/>
-      <c r="L30" s="31" t="s">
+      <c r="L30" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="34"/>
       <c r="U30" s="8"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -5377,7 +9023,7 @@
         <f t="shared" si="0"/>
         <v>220.19078195601463</v>
       </c>
-      <c r="L31" s="34" t="s">
+      <c r="L31" s="29" t="s">
         <v>6</v>
       </c>
       <c r="M31" s="20" t="s">
@@ -5410,7 +9056,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="21" t="s">
         <v>8</v>
       </c>
@@ -5439,7 +9085,7 @@
         <f t="shared" si="0"/>
         <v>225.62558353301787</v>
       </c>
-      <c r="L32" s="35"/>
+      <c r="L32" s="30"/>
       <c r="M32" s="21" t="s">
         <v>8</v>
       </c>
@@ -5470,7 +9116,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="21" t="s">
         <v>9</v>
       </c>
@@ -5499,7 +9145,7 @@
         <f t="shared" si="0"/>
         <v>235.005960626822</v>
       </c>
-      <c r="L33" s="35"/>
+      <c r="L33" s="30"/>
       <c r="M33" s="21" t="s">
         <v>9</v>
       </c>
@@ -5530,7 +9176,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="21" t="s">
         <v>10</v>
       </c>
@@ -5559,7 +9205,7 @@
         <f t="shared" si="0"/>
         <v>237.88491709126663</v>
       </c>
-      <c r="L34" s="35"/>
+      <c r="L34" s="30"/>
       <c r="M34" s="21" t="s">
         <v>10</v>
       </c>
@@ -5590,7 +9236,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="21" t="s">
         <v>11</v>
       </c>
@@ -5619,7 +9265,7 @@
         <f t="shared" si="0"/>
         <v>227.24684887700877</v>
       </c>
-      <c r="L35" s="35"/>
+      <c r="L35" s="30"/>
       <c r="M35" s="21" t="s">
         <v>11</v>
       </c>
@@ -5650,7 +9296,7 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="21" t="s">
         <v>12</v>
       </c>
@@ -5679,7 +9325,7 @@
         <f t="shared" si="0"/>
         <v>234.6418239056278</v>
       </c>
-      <c r="L36" s="35"/>
+      <c r="L36" s="30"/>
       <c r="M36" s="21" t="s">
         <v>12</v>
       </c>
@@ -5710,7 +9356,7 @@
       </c>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="22" t="s">
         <v>13</v>
       </c>
@@ -5739,7 +9385,7 @@
         <f t="shared" si="0"/>
         <v>232.59724131119933</v>
       </c>
-      <c r="L37" s="36"/>
+      <c r="L37" s="31"/>
       <c r="M37" s="22" t="s">
         <v>13</v>
       </c>
@@ -5900,10 +9546,10 @@
       </c>
     </row>
     <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="30"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="14">
         <v>92.567111769713335</v>
       </c>
@@ -5929,10 +9575,10 @@
         <f t="shared" si="0"/>
         <v>204.1661195989895</v>
       </c>
-      <c r="L41" s="29" t="s">
+      <c r="L41" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="M41" s="30"/>
+      <c r="M41" s="38"/>
       <c r="N41">
         <v>3.88093621561358</v>
       </c>
@@ -5960,33 +9606,33 @@
       </c>
     </row>
     <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="34"/>
       <c r="J42" s="8"/>
-      <c r="L42" s="31" t="s">
+      <c r="L42" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="34"/>
       <c r="U42" s="8"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -6017,10 +9663,10 @@
         <f t="shared" si="0"/>
         <v>214.57608504059661</v>
       </c>
-      <c r="L43" s="31" t="s">
+      <c r="L43" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="M43" s="33"/>
+      <c r="M43" s="34"/>
       <c r="N43" s="16">
         <v>3.9832785287226642</v>
       </c>
@@ -6048,7 +9694,7 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
@@ -6077,10 +9723,10 @@
         <f t="shared" si="0"/>
         <v>212.66659917355187</v>
       </c>
-      <c r="L44" s="27" t="s">
+      <c r="L44" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="28"/>
+      <c r="M44" s="36"/>
       <c r="N44" s="17">
         <v>4.2026089477592938</v>
       </c>
@@ -6108,7 +9754,7 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="1" t="s">
         <v>9</v>
       </c>
@@ -6137,10 +9783,10 @@
         <f t="shared" si="0"/>
         <v>212.2812476439496</v>
       </c>
-      <c r="L45" s="27" t="s">
+      <c r="L45" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="M45" s="28"/>
+      <c r="M45" s="36"/>
       <c r="N45" s="17">
         <v>4.0514903154179436</v>
       </c>
@@ -6168,7 +9814,7 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
@@ -6197,10 +9843,10 @@
         <f t="shared" si="0"/>
         <v>214.61586749843264</v>
       </c>
-      <c r="L46" s="27" t="s">
+      <c r="L46" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M46" s="28"/>
+      <c r="M46" s="36"/>
       <c r="N46" s="17">
         <v>3.6611286672079411</v>
       </c>
@@ -6228,7 +9874,7 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
@@ -6257,10 +9903,10 @@
         <f t="shared" si="0"/>
         <v>218.435998099573</v>
       </c>
-      <c r="L47" s="27" t="s">
+      <c r="L47" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M47" s="28"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="17">
         <v>3.8707101747526216</v>
       </c>
@@ -6288,7 +9934,7 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="1" t="s">
         <v>12</v>
       </c>
@@ -6317,10 +9963,10 @@
         <f t="shared" si="0"/>
         <v>213.15910024524624</v>
       </c>
-      <c r="L48" s="27" t="s">
+      <c r="L48" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="M48" s="28"/>
+      <c r="M48" s="36"/>
       <c r="N48" s="17">
         <v>3.654167143417371</v>
       </c>
@@ -6348,7 +9994,7 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
@@ -6377,10 +10023,10 @@
         <f t="shared" si="0"/>
         <v>221.00985506685515</v>
       </c>
-      <c r="L49" s="29" t="s">
+      <c r="L49" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M49" s="30"/>
+      <c r="M49" s="38"/>
       <c r="N49" s="18">
         <v>3.8779021026816878</v>
       </c>
@@ -6472,33 +10118,33 @@
       </c>
     </row>
     <row r="51" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="34"/>
       <c r="J51" s="8"/>
-      <c r="L51" s="31" t="s">
+      <c r="L51" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="34"/>
       <c r="U51" s="8"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -6529,7 +10175,7 @@
         <f t="shared" si="0"/>
         <v>206.23795993459544</v>
       </c>
-      <c r="L52" s="34" t="s">
+      <c r="L52" s="29" t="s">
         <v>6</v>
       </c>
       <c r="M52" s="7" t="s">
@@ -6562,7 +10208,7 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="35"/>
+      <c r="A53" s="30"/>
       <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
@@ -6591,7 +10237,7 @@
         <f t="shared" si="0"/>
         <v>206.97984006136409</v>
       </c>
-      <c r="L53" s="35"/>
+      <c r="L53" s="30"/>
       <c r="M53" s="1" t="s">
         <v>8</v>
       </c>
@@ -6622,7 +10268,7 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="1" t="s">
         <v>9</v>
       </c>
@@ -6651,7 +10297,7 @@
         <f t="shared" si="0"/>
         <v>206.41024957818405</v>
       </c>
-      <c r="L54" s="35"/>
+      <c r="L54" s="30"/>
       <c r="M54" s="1" t="s">
         <v>9</v>
       </c>
@@ -6682,7 +10328,7 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
@@ -6711,7 +10357,7 @@
         <f t="shared" si="0"/>
         <v>209.68099824373797</v>
       </c>
-      <c r="L55" s="35"/>
+      <c r="L55" s="30"/>
       <c r="M55" s="1" t="s">
         <v>10</v>
       </c>
@@ -6742,7 +10388,7 @@
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="1" t="s">
         <v>11</v>
       </c>
@@ -6771,7 +10417,7 @@
         <f t="shared" si="0"/>
         <v>205.64274181440783</v>
       </c>
-      <c r="L56" s="35"/>
+      <c r="L56" s="30"/>
       <c r="M56" s="1" t="s">
         <v>11</v>
       </c>
@@ -6802,7 +10448,7 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="35"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="1" t="s">
         <v>12</v>
       </c>
@@ -6831,7 +10477,7 @@
         <f t="shared" si="0"/>
         <v>206.92732665131405</v>
       </c>
-      <c r="L57" s="35"/>
+      <c r="L57" s="30"/>
       <c r="M57" s="1" t="s">
         <v>12</v>
       </c>
@@ -6862,7 +10508,7 @@
       </c>
     </row>
     <row r="58" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="3" t="s">
         <v>13</v>
       </c>
@@ -6891,7 +10537,7 @@
         <f t="shared" si="0"/>
         <v>208.98637477988464</v>
       </c>
-      <c r="L58" s="36"/>
+      <c r="L58" s="31"/>
       <c r="M58" s="3" t="s">
         <v>13</v>
       </c>
@@ -6986,33 +10632,33 @@
       </c>
     </row>
     <row r="60" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="34"/>
       <c r="J60" s="8"/>
-      <c r="L60" s="31" t="s">
+      <c r="L60" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="34"/>
       <c r="U60" s="8"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -7043,10 +10689,10 @@
         <f t="shared" si="0"/>
         <v>210.80569662973565</v>
       </c>
-      <c r="L61" s="31" t="s">
+      <c r="L61" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="M61" s="33"/>
+      <c r="M61" s="34"/>
       <c r="N61" s="16">
         <v>4.4450832846781649</v>
       </c>
@@ -7074,7 +10720,7 @@
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="35"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="1" t="s">
         <v>8</v>
       </c>
@@ -7103,10 +10749,10 @@
         <f t="shared" si="0"/>
         <v>213.81726194012853</v>
       </c>
-      <c r="L62" s="27" t="s">
+      <c r="L62" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="28"/>
+      <c r="M62" s="36"/>
       <c r="N62" s="17">
         <v>4.0429382739954489</v>
       </c>
@@ -7134,7 +10780,7 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="35"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="1" t="s">
         <v>9</v>
       </c>
@@ -7163,10 +10809,10 @@
         <f t="shared" si="0"/>
         <v>215.93351029859031</v>
       </c>
-      <c r="L63" s="27" t="s">
+      <c r="L63" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="M63" s="28"/>
+      <c r="M63" s="36"/>
       <c r="N63" s="17">
         <v>3.7675933544079743</v>
       </c>
@@ -7194,7 +10840,7 @@
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" s="35"/>
+      <c r="A64" s="30"/>
       <c r="B64" s="1" t="s">
         <v>10</v>
       </c>
@@ -7223,10 +10869,10 @@
         <f t="shared" si="0"/>
         <v>209.78231857832952</v>
       </c>
-      <c r="L64" s="27" t="s">
+      <c r="L64" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M64" s="28"/>
+      <c r="M64" s="36"/>
       <c r="N64" s="17">
         <v>4.3066167609855039</v>
       </c>
@@ -7254,7 +10900,7 @@
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="35"/>
+      <c r="A65" s="30"/>
       <c r="B65" s="1" t="s">
         <v>11</v>
       </c>
@@ -7283,10 +10929,10 @@
         <f t="shared" si="0"/>
         <v>213.64558264702654</v>
       </c>
-      <c r="L65" s="27" t="s">
+      <c r="L65" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M65" s="28"/>
+      <c r="M65" s="36"/>
       <c r="N65" s="17">
         <v>3.9637192903170977</v>
       </c>
@@ -7314,7 +10960,7 @@
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A66" s="35"/>
+      <c r="A66" s="30"/>
       <c r="B66" s="1" t="s">
         <v>12</v>
       </c>
@@ -7343,10 +10989,10 @@
         <f t="shared" si="0"/>
         <v>215.94572776693036</v>
       </c>
-      <c r="L66" s="27" t="s">
+      <c r="L66" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="M66" s="28"/>
+      <c r="M66" s="36"/>
       <c r="N66" s="17">
         <v>3.9757261311573728</v>
       </c>
@@ -7374,7 +11020,7 @@
       </c>
     </row>
     <row r="67" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="3" t="s">
         <v>13</v>
       </c>
@@ -7403,10 +11049,10 @@
         <f t="shared" ref="J67:J77" si="2">C67*(1-1)^2+D67*(1-0.75)^2+E67*(1-0.5)^2+F67*(1-0.3)^2+G67*(1-0.2)^2+H67*(1-0.1)^2+I67*(1-0.05)^2</f>
         <v>213.83814255378786</v>
       </c>
-      <c r="L67" s="29" t="s">
+      <c r="L67" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M67" s="30"/>
+      <c r="M67" s="38"/>
       <c r="N67" s="17">
         <v>3.7783167287390298</v>
       </c>
@@ -7498,33 +11144,33 @@
       </c>
     </row>
     <row r="69" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="39"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="28"/>
       <c r="J69" s="8"/>
-      <c r="L69" s="37" t="s">
+      <c r="L69" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
-      <c r="T69" s="39"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="28"/>
       <c r="U69" s="8"/>
     </row>
     <row r="70" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -7555,7 +11201,7 @@
         <f t="shared" si="2"/>
         <v>215.3654329038938</v>
       </c>
-      <c r="L70" s="34" t="s">
+      <c r="L70" s="29" t="s">
         <v>6</v>
       </c>
       <c r="M70" s="7" t="s">
@@ -7588,7 +11234,7 @@
       </c>
     </row>
     <row r="71" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="35"/>
+      <c r="A71" s="30"/>
       <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
@@ -7617,7 +11263,7 @@
         <f t="shared" si="2"/>
         <v>221.26432154647364</v>
       </c>
-      <c r="L71" s="35"/>
+      <c r="L71" s="30"/>
       <c r="M71" s="1" t="s">
         <v>8</v>
       </c>
@@ -7648,7 +11294,7 @@
       </c>
     </row>
     <row r="72" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="35"/>
+      <c r="A72" s="30"/>
       <c r="B72" s="1" t="s">
         <v>9</v>
       </c>
@@ -7677,7 +11323,7 @@
         <f t="shared" si="2"/>
         <v>231.09503883771373</v>
       </c>
-      <c r="L72" s="35"/>
+      <c r="L72" s="30"/>
       <c r="M72" s="1" t="s">
         <v>9</v>
       </c>
@@ -7708,7 +11354,7 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="35"/>
+      <c r="A73" s="30"/>
       <c r="B73" s="1" t="s">
         <v>10</v>
       </c>
@@ -7737,7 +11383,7 @@
         <f t="shared" si="2"/>
         <v>235.49898128791355</v>
       </c>
-      <c r="L73" s="35"/>
+      <c r="L73" s="30"/>
       <c r="M73" s="1" t="s">
         <v>10</v>
       </c>
@@ -7768,7 +11414,7 @@
       </c>
     </row>
     <row r="74" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="35"/>
+      <c r="A74" s="30"/>
       <c r="B74" s="1" t="s">
         <v>11</v>
       </c>
@@ -7797,7 +11443,7 @@
         <f t="shared" si="2"/>
         <v>222.70950468797935</v>
       </c>
-      <c r="L74" s="35"/>
+      <c r="L74" s="30"/>
       <c r="M74" s="1" t="s">
         <v>11</v>
       </c>
@@ -7828,7 +11474,7 @@
       </c>
     </row>
     <row r="75" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="35"/>
+      <c r="A75" s="30"/>
       <c r="B75" s="1" t="s">
         <v>12</v>
       </c>
@@ -7857,7 +11503,7 @@
         <f t="shared" si="2"/>
         <v>230.89455161959813</v>
       </c>
-      <c r="L75" s="35"/>
+      <c r="L75" s="30"/>
       <c r="M75" s="1" t="s">
         <v>12</v>
       </c>
@@ -7888,7 +11534,7 @@
       </c>
     </row>
     <row r="76" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="3" t="s">
         <v>13</v>
       </c>
@@ -7917,7 +11563,7 @@
         <f t="shared" si="2"/>
         <v>228.84269321147679</v>
       </c>
-      <c r="L76" s="36"/>
+      <c r="L76" s="31"/>
       <c r="M76" s="3" t="s">
         <v>13</v>
       </c>
@@ -8013,6 +11659,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="L70:L76"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="L13:L19"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="L42:T42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="L69:T69"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="L51:T51"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="L52:L58"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="L60:T60"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="L12:T12"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="L30:T30"/>
@@ -8029,50 +11719,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="L52:L58"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="L60:T60"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="L12:T12"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="L51:T51"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="L70:L76"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="L13:L19"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="L42:T42"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="L69:T69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I2 C22:I29 C31:I38 C11:I11 C20:I20">
